--- a/Översikt RONNEBY.xlsx
+++ b/Översikt RONNEBY.xlsx
@@ -572,7 +572,7 @@
         <v>43781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43653</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44925</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>45093</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>43406</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43502</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>43514</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>43529</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1274,7 +1274,7 @@
         <v>43608</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>43640</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>43817</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>44284</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1619,7 +1619,7 @@
         <v>44298</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>44305</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>44344</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>44425</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44952</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>44985</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>44998</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>45012</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>45145</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>45152</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         <v>43319</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         <v>43326</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         <v>43333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>43341</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>43343</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>43347</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>43350</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>43353</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>43354</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>43354</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>43357</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>43361</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         <v>43368</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
         <v>43369</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         <v>43370</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>43371</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         <v>43383</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>43390</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         <v>43390</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>43395</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>43395</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43397</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43397</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43397</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43397</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43397</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43398</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>43399</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43401</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43402</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43409</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>43409</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>43412</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43412</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>43413</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43419</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>43419</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4694,7 +4694,7 @@
         <v>43419</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>43419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43422</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43424</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>43424</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>43427</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43431</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43432</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43437</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43437</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43439</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>43451</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         <v>43451</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>43451</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43451</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>43451</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43451</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43451</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43451</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43452</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43455</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>43471</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43473</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43473</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43475</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43482</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43485</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43488</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43491</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43491</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43491</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43501</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43501</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43503</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>43507</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>43508</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>43508</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>43511</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>43514</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43514</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>43515</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43518</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43521</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43521</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43522</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>43529</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43529</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>43531</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>43531</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>43532</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43534</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>43534</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>43537</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>43537</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>43538</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>43544</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>43548</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43552</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43554</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>43558</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>43558</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>43563</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>43563</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8360,7 +8360,7 @@
         <v>43564</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>43565</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>43570</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>43570</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>43570</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>43570</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43572</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43572</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>43572</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>43572</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>43573</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43573</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43573</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>43573</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>43573</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>43573</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>43573</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>43573</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>43580</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         <v>43580</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>43581</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>43581</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>43600</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>43600</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>43600</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
         <v>43601</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43601</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43605</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43614</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43619</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43619</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43619</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43619</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43619</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43619</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43619</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43621</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43627</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10591,7 +10591,7 @@
         <v>43627</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10648,7 +10648,7 @@
         <v>43629</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>43629</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>43629</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>43630</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>43640</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>43647</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>43647</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>43647</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>43647</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>43648</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>43648</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>43648</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>43650</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>43655</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>43662</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>43662</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>43669</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
         <v>43670</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>43670</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11741,7 +11741,7 @@
         <v>43677</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11798,7 +11798,7 @@
         <v>43677</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         <v>43678</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>43678</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>43681</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>43682</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>43682</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>43684</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>43685</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>43685</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>43685</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>43685</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>43689</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>43690</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>43692</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
         <v>43692</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>43692</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>43692</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>43696</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>43697</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>43698</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>43698</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43699</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>43705</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>43705</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>43706</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>43707</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>43707</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>43710</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>43710</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>43711</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>43711</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>43711</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>43712</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13704,7 +13704,7 @@
         <v>43712</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>43717</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13818,7 +13818,7 @@
         <v>43718</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         <v>43720</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>43725</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>43725</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>43725</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>43725</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>43726</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>43726</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>43727</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>43727</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>43730</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>43733</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>43741</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>43741</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>43742</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>43745</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14730,7 +14730,7 @@
         <v>43746</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14787,7 +14787,7 @@
         <v>43746</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14844,7 +14844,7 @@
         <v>43748</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14901,7 +14901,7 @@
         <v>43749</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>43749</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>43752</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>43754</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>43755</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>43755</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>43761</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>43761</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>43763</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>43766</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>43766</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>43767</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>43767</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>43768</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15699,7 +15699,7 @@
         <v>43770</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>43781</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>43781</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>43781</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>43783</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>43783</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>43787</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>43790</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>43803</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>43803</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>43804</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>43808</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>43811</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>43811</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>43817</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>43817</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
         <v>43817</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         <v>43818</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         <v>43822</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         <v>43822</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>43833</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16906,7 +16906,7 @@
         <v>43837</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>43837</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>43838</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>43847</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>43850</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>43852</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>43852</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>43853</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         <v>43853</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17419,7 +17419,7 @@
         <v>43854</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>43854</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>43858</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>43860</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>43874</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17709,7 +17709,7 @@
         <v>43878</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17766,7 +17766,7 @@
         <v>43878</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17823,7 +17823,7 @@
         <v>43880</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17885,7 +17885,7 @@
         <v>43881</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         <v>43889</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17999,7 +17999,7 @@
         <v>43895</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18056,7 +18056,7 @@
         <v>43903</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>43906</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>43909</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18232,7 +18232,7 @@
         <v>43914</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18289,7 +18289,7 @@
         <v>43914</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18346,7 +18346,7 @@
         <v>43915</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18403,7 +18403,7 @@
         <v>43929</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         <v>43938</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18517,7 +18517,7 @@
         <v>43950</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         <v>43963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>43969</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>43979</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>43984</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>43992</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>43992</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>43992</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18973,7 +18973,7 @@
         <v>44004</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19030,7 +19030,7 @@
         <v>44005</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19087,7 +19087,7 @@
         <v>44005</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19144,7 +19144,7 @@
         <v>44007</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19201,7 +19201,7 @@
         <v>44019</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>44025</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         <v>44025</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19372,7 +19372,7 @@
         <v>44027</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19429,7 +19429,7 @@
         <v>44027</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         <v>44027</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>44027</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>44027</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19657,7 +19657,7 @@
         <v>44029</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19714,7 +19714,7 @@
         <v>44032</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19771,7 +19771,7 @@
         <v>44032</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19828,7 +19828,7 @@
         <v>44032</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19885,7 +19885,7 @@
         <v>44035</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19947,7 +19947,7 @@
         <v>44047</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20004,7 +20004,7 @@
         <v>44050</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         <v>44055</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20123,7 +20123,7 @@
         <v>44055</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20180,7 +20180,7 @@
         <v>44060</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20237,7 +20237,7 @@
         <v>44061</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20294,7 +20294,7 @@
         <v>44063</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20351,7 +20351,7 @@
         <v>44068</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20408,7 +20408,7 @@
         <v>44070</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20470,7 +20470,7 @@
         <v>44070</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>44070</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>44070</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>44074</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>44075</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20770,7 +20770,7 @@
         <v>44076</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         <v>44077</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>44077</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44078</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>44084</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>44088</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>44088</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>44089</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44095</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44096</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44102</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>44102</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21454,7 +21454,7 @@
         <v>44103</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21511,7 +21511,7 @@
         <v>44104</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21568,7 +21568,7 @@
         <v>44104</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21625,7 +21625,7 @@
         <v>44104</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21682,7 +21682,7 @@
         <v>44104</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21739,7 +21739,7 @@
         <v>44104</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44106</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44106</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44106</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44113</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22029,7 +22029,7 @@
         <v>44117</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22086,7 +22086,7 @@
         <v>44119</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22143,7 +22143,7 @@
         <v>44119</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22200,7 +22200,7 @@
         <v>44120</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22257,7 +22257,7 @@
         <v>44124</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22314,7 +22314,7 @@
         <v>44127</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22371,7 +22371,7 @@
         <v>44127</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22428,7 +22428,7 @@
         <v>44127</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22485,7 +22485,7 @@
         <v>44131</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22542,7 +22542,7 @@
         <v>44137</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22599,7 +22599,7 @@
         <v>44138</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22656,7 +22656,7 @@
         <v>44138</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
         <v>44139</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22770,7 +22770,7 @@
         <v>44139</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22827,7 +22827,7 @@
         <v>44147</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22884,7 +22884,7 @@
         <v>44147</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22941,7 +22941,7 @@
         <v>44152</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22998,7 +22998,7 @@
         <v>44154</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23055,7 +23055,7 @@
         <v>44158</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23112,7 +23112,7 @@
         <v>44159</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23169,7 +23169,7 @@
         <v>44159</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23226,7 +23226,7 @@
         <v>44181</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23283,7 +23283,7 @@
         <v>44187</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23340,7 +23340,7 @@
         <v>44203</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23397,7 +23397,7 @@
         <v>44203</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23454,7 +23454,7 @@
         <v>44206</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23511,7 +23511,7 @@
         <v>44207</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>44209</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>44215</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23687,7 +23687,7 @@
         <v>44216</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23749,7 +23749,7 @@
         <v>44218</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23806,7 +23806,7 @@
         <v>44218</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
         <v>44222</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23920,7 +23920,7 @@
         <v>44236</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44238</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44238</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44239</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44245</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24205,7 +24205,7 @@
         <v>44246</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>44249</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>44253</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24376,7 +24376,7 @@
         <v>44257</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24433,7 +24433,7 @@
         <v>44257</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24490,7 +24490,7 @@
         <v>44258</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44258</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24604,7 +24604,7 @@
         <v>44259</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24661,7 +24661,7 @@
         <v>44271</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24718,7 +24718,7 @@
         <v>44271</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24775,7 +24775,7 @@
         <v>44278</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24832,7 +24832,7 @@
         <v>44279</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24889,7 +24889,7 @@
         <v>44300</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         <v>44300</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         <v>44307</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25060,7 +25060,7 @@
         <v>44307</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25117,7 +25117,7 @@
         <v>44307</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25174,7 +25174,7 @@
         <v>44307</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25231,7 +25231,7 @@
         <v>44307</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25288,7 +25288,7 @@
         <v>44311</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25345,7 +25345,7 @@
         <v>44312</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25402,7 +25402,7 @@
         <v>44316</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25459,7 +25459,7 @@
         <v>44319</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>44326</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25573,7 +25573,7 @@
         <v>44326</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25630,7 +25630,7 @@
         <v>44340</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25687,7 +25687,7 @@
         <v>44341</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25744,7 +25744,7 @@
         <v>44343</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>44361</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>44370</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>44370</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>44371</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44374</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44375</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44375</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44378</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44385</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44419</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26381,7 +26381,7 @@
         <v>44420</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>44421</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>44424</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>44425</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26614,7 +26614,7 @@
         <v>44432</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26671,7 +26671,7 @@
         <v>44432</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>44439</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>44451</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         <v>44456</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>44465</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>44466</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>44468</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27070,7 +27070,7 @@
         <v>44474</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27127,7 +27127,7 @@
         <v>44474</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27184,7 +27184,7 @@
         <v>44489</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27241,7 +27241,7 @@
         <v>44490</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27298,7 +27298,7 @@
         <v>44490</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27355,7 +27355,7 @@
         <v>44493</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27412,7 +27412,7 @@
         <v>44494</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27469,7 +27469,7 @@
         <v>44501</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27526,7 +27526,7 @@
         <v>44503</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27583,7 +27583,7 @@
         <v>44504</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27640,7 +27640,7 @@
         <v>44504</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27697,7 +27697,7 @@
         <v>44529</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27754,7 +27754,7 @@
         <v>44539</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         <v>44546</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27868,7 +27868,7 @@
         <v>44553</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27925,7 +27925,7 @@
         <v>44565</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27982,7 +27982,7 @@
         <v>44571</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28039,7 +28039,7 @@
         <v>44573</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28096,7 +28096,7 @@
         <v>44579</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28153,7 +28153,7 @@
         <v>44581</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28210,7 +28210,7 @@
         <v>44589</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28267,7 +28267,7 @@
         <v>44595</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28324,7 +28324,7 @@
         <v>44596</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28381,7 +28381,7 @@
         <v>44601</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28438,7 +28438,7 @@
         <v>44606</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28495,7 +28495,7 @@
         <v>44609</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28552,7 +28552,7 @@
         <v>44617</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28609,7 +28609,7 @@
         <v>44617</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28671,7 +28671,7 @@
         <v>44627</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28728,7 +28728,7 @@
         <v>44627</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28785,7 +28785,7 @@
         <v>44630</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28842,7 +28842,7 @@
         <v>44636</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28899,7 +28899,7 @@
         <v>44637</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28956,7 +28956,7 @@
         <v>44638</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29013,7 +29013,7 @@
         <v>44645</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29070,7 +29070,7 @@
         <v>44649</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29127,7 +29127,7 @@
         <v>44651</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29184,7 +29184,7 @@
         <v>44655</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29246,7 +29246,7 @@
         <v>44655</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29308,7 +29308,7 @@
         <v>44656</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29365,7 +29365,7 @@
         <v>44676</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29422,7 +29422,7 @@
         <v>44694</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29479,7 +29479,7 @@
         <v>44694</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29536,7 +29536,7 @@
         <v>44704</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29593,7 +29593,7 @@
         <v>44713</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29650,7 +29650,7 @@
         <v>44721</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29707,7 +29707,7 @@
         <v>44722</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29764,7 +29764,7 @@
         <v>44729</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29821,7 +29821,7 @@
         <v>44739</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29878,7 +29878,7 @@
         <v>44750</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>44753</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29997,7 +29997,7 @@
         <v>44756</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30054,7 +30054,7 @@
         <v>44756</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30111,7 +30111,7 @@
         <v>44756</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30168,7 +30168,7 @@
         <v>44762</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30230,7 +30230,7 @@
         <v>44762</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30292,7 +30292,7 @@
         <v>44762</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
         <v>44774</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30411,7 +30411,7 @@
         <v>44775</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30468,7 +30468,7 @@
         <v>44775</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30525,7 +30525,7 @@
         <v>44798</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30587,7 +30587,7 @@
         <v>44806</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30644,7 +30644,7 @@
         <v>44806</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30701,7 +30701,7 @@
         <v>44809</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30758,7 +30758,7 @@
         <v>44817</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30815,7 +30815,7 @@
         <v>44827</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30872,7 +30872,7 @@
         <v>44834</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30929,7 +30929,7 @@
         <v>44848</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30986,7 +30986,7 @@
         <v>44848</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>44854</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31100,7 +31100,7 @@
         <v>44860</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31157,7 +31157,7 @@
         <v>44862</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31214,7 +31214,7 @@
         <v>44865</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31271,7 +31271,7 @@
         <v>44872</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31328,7 +31328,7 @@
         <v>44872</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31385,7 +31385,7 @@
         <v>44890</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31442,7 +31442,7 @@
         <v>44890</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31499,7 +31499,7 @@
         <v>44893</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31556,7 +31556,7 @@
         <v>44902</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31613,7 +31613,7 @@
         <v>44903</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31670,7 +31670,7 @@
         <v>44903</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31727,7 +31727,7 @@
         <v>44916</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31784,7 +31784,7 @@
         <v>44925</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31841,7 +31841,7 @@
         <v>44937</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31898,7 +31898,7 @@
         <v>44939</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31955,7 +31955,7 @@
         <v>44944</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32012,7 +32012,7 @@
         <v>44956</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32069,7 +32069,7 @@
         <v>44956</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32126,7 +32126,7 @@
         <v>44957</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32183,7 +32183,7 @@
         <v>44966</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32240,7 +32240,7 @@
         <v>44969</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32297,7 +32297,7 @@
         <v>44972</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32354,7 +32354,7 @@
         <v>44973</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>44973</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32478,7 +32478,7 @@
         <v>44973</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32540,7 +32540,7 @@
         <v>44973</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32602,7 +32602,7 @@
         <v>44980</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32664,7 +32664,7 @@
         <v>44980</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32726,7 +32726,7 @@
         <v>44980</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32788,7 +32788,7 @@
         <v>44981</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32845,7 +32845,7 @@
         <v>44987</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32902,7 +32902,7 @@
         <v>44992</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32964,7 +32964,7 @@
         <v>44998</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33021,7 +33021,7 @@
         <v>45001</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33078,7 +33078,7 @@
         <v>45001</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33135,7 +33135,7 @@
         <v>45001</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33192,7 +33192,7 @@
         <v>45001</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33249,7 +33249,7 @@
         <v>45002</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33306,7 +33306,7 @@
         <v>45006</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33363,7 +33363,7 @@
         <v>45006</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33420,7 +33420,7 @@
         <v>45006</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33477,7 +33477,7 @@
         <v>45009</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33534,7 +33534,7 @@
         <v>45012</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33591,7 +33591,7 @@
         <v>45012</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33653,7 +33653,7 @@
         <v>45012</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33710,7 +33710,7 @@
         <v>45012</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33767,7 +33767,7 @@
         <v>45012</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33829,7 +33829,7 @@
         <v>45012</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33886,7 +33886,7 @@
         <v>45012</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33943,7 +33943,7 @@
         <v>45012</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34005,7 +34005,7 @@
         <v>45019</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34062,7 +34062,7 @@
         <v>45019</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34119,7 +34119,7 @@
         <v>45019</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34176,7 +34176,7 @@
         <v>45028</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34233,7 +34233,7 @@
         <v>45029</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34290,7 +34290,7 @@
         <v>45036</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34347,7 +34347,7 @@
         <v>45040</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34404,7 +34404,7 @@
         <v>45041</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34461,7 +34461,7 @@
         <v>45042</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34518,7 +34518,7 @@
         <v>45049</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34575,7 +34575,7 @@
         <v>45049</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34632,7 +34632,7 @@
         <v>45053</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34689,7 +34689,7 @@
         <v>45055</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34746,7 +34746,7 @@
         <v>45056</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34803,7 +34803,7 @@
         <v>45058</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34860,7 +34860,7 @@
         <v>45058</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34917,7 +34917,7 @@
         <v>45061</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34974,7 +34974,7 @@
         <v>45061</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35031,7 +35031,7 @@
         <v>45061</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35088,7 +35088,7 @@
         <v>45061</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35145,7 +35145,7 @@
         <v>45061</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35202,7 +35202,7 @@
         <v>45062</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35264,7 +35264,7 @@
         <v>45062</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35326,7 +35326,7 @@
         <v>45063</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35388,7 +35388,7 @@
         <v>45063</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35450,7 +35450,7 @@
         <v>45068</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35507,7 +35507,7 @@
         <v>45070</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35564,7 +35564,7 @@
         <v>45072</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35621,7 +35621,7 @@
         <v>45072</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35678,7 +35678,7 @@
         <v>45072</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35735,7 +35735,7 @@
         <v>45075</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35792,7 +35792,7 @@
         <v>45075</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35849,7 +35849,7 @@
         <v>45078</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         <v>45078</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35963,7 +35963,7 @@
         <v>45082</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36025,7 +36025,7 @@
         <v>45084</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36082,7 +36082,7 @@
         <v>45085</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36139,7 +36139,7 @@
         <v>45096</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36196,7 +36196,7 @@
         <v>45098</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36253,7 +36253,7 @@
         <v>45099</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36310,7 +36310,7 @@
         <v>45099</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36367,7 +36367,7 @@
         <v>45103</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36424,7 +36424,7 @@
         <v>45103</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36486,7 +36486,7 @@
         <v>45103</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36543,7 +36543,7 @@
         <v>45104</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36605,7 +36605,7 @@
         <v>45104</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         <v>45104</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36729,7 +36729,7 @@
         <v>45104</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         <v>45104</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36843,7 +36843,7 @@
         <v>45104</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36900,7 +36900,7 @@
         <v>45105</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36957,7 +36957,7 @@
         <v>45105</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37019,7 +37019,7 @@
         <v>45106</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37076,7 +37076,7 @@
         <v>45110</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37133,7 +37133,7 @@
         <v>45110</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37190,7 +37190,7 @@
         <v>45112</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37247,7 +37247,7 @@
         <v>45117</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37304,7 +37304,7 @@
         <v>45118</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37361,7 +37361,7 @@
         <v>45118</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37418,7 +37418,7 @@
         <v>45118</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37475,7 +37475,7 @@
         <v>45118</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37532,7 +37532,7 @@
         <v>45118</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37589,7 +37589,7 @@
         <v>45118</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37646,7 +37646,7 @@
         <v>45119</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37703,7 +37703,7 @@
         <v>45119</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37760,7 +37760,7 @@
         <v>45120</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37842,7 +37842,7 @@
         <v>45139</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37899,7 +37899,7 @@
         <v>45147</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37956,7 +37956,7 @@
         <v>45147</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>

--- a/Översikt RONNEBY.xlsx
+++ b/Översikt RONNEBY.xlsx
@@ -572,7 +572,7 @@
         <v>43781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43653</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44925</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>45093</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>43406</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43502</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>43514</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>43529</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1274,7 +1274,7 @@
         <v>43608</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>43640</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>43817</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>44284</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1619,7 +1619,7 @@
         <v>44298</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>44305</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>44344</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>44425</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44952</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>44985</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>44998</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>45012</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>45145</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>45152</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         <v>43319</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         <v>43326</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         <v>43333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>43341</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>43343</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>43347</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>43350</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>43353</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>43354</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>43354</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>43357</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>43361</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         <v>43368</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
         <v>43369</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         <v>43370</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>43371</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         <v>43383</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>43390</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         <v>43390</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>43395</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>43395</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43397</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43397</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43397</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43397</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43397</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43398</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>43399</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43401</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43402</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43409</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>43409</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>43412</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43412</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>43413</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43419</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>43419</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4694,7 +4694,7 @@
         <v>43419</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>43419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43422</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43424</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>43424</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>43427</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43431</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43432</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43437</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43437</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43439</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>43451</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         <v>43451</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>43451</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43451</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>43451</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43451</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43451</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43451</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43452</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43455</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>43471</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43473</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43473</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43475</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43482</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43485</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43488</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43491</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43491</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43491</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43501</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43501</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43503</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>43507</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>43508</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>43508</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>43511</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>43514</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43514</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>43515</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43518</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43521</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43521</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43522</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>43529</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43529</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>43531</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>43531</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>43532</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43534</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>43534</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>43537</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>43537</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>43538</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>43544</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>43548</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43552</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43554</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>43558</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>43558</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>43563</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>43563</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8360,7 +8360,7 @@
         <v>43564</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>43565</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>43570</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>43570</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>43570</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>43570</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43572</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43572</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>43572</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>43572</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>43573</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43573</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43573</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>43573</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>43573</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>43573</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>43573</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>43573</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>43580</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         <v>43580</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>43581</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>43581</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>43600</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>43600</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>43600</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
         <v>43601</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43601</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43605</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43614</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43619</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43619</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43619</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43619</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43619</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43619</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43619</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43621</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43627</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10591,7 +10591,7 @@
         <v>43627</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10648,7 +10648,7 @@
         <v>43629</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>43629</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>43629</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>43630</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>43640</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>43647</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>43647</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>43647</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>43647</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>43648</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>43648</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>43648</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>43650</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>43655</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>43662</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>43662</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>43669</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
         <v>43670</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>43670</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11741,7 +11741,7 @@
         <v>43677</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11798,7 +11798,7 @@
         <v>43677</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         <v>43678</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>43678</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>43681</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>43682</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>43682</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>43684</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>43685</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>43685</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>43685</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>43685</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>43689</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>43690</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>43692</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
         <v>43692</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>43692</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>43692</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>43696</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>43697</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>43698</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>43698</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43699</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>43705</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>43705</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>43706</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>43707</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>43707</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>43710</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>43710</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>43711</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>43711</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>43711</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>43712</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13704,7 +13704,7 @@
         <v>43712</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>43717</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13818,7 +13818,7 @@
         <v>43718</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         <v>43720</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>43725</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>43725</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>43725</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>43725</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>43726</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>43726</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>43727</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>43727</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>43730</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>43733</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>43741</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>43741</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>43742</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>43745</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14730,7 +14730,7 @@
         <v>43746</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14787,7 +14787,7 @@
         <v>43746</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14844,7 +14844,7 @@
         <v>43748</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14901,7 +14901,7 @@
         <v>43749</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>43749</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>43752</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>43754</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>43755</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>43755</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>43761</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>43761</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>43763</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>43766</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>43766</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>43767</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>43767</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>43768</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15699,7 +15699,7 @@
         <v>43770</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>43781</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>43781</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>43781</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>43783</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>43783</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>43787</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>43790</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>43803</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>43803</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>43804</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>43808</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>43811</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>43811</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>43817</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>43817</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
         <v>43817</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         <v>43818</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         <v>43822</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         <v>43822</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>43833</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16906,7 +16906,7 @@
         <v>43837</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>43837</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>43838</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>43847</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>43850</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>43852</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>43852</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>43853</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         <v>43853</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17419,7 +17419,7 @@
         <v>43854</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>43854</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>43858</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>43860</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>43874</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17709,7 +17709,7 @@
         <v>43878</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17766,7 +17766,7 @@
         <v>43878</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17823,7 +17823,7 @@
         <v>43880</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17885,7 +17885,7 @@
         <v>43881</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         <v>43889</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17999,7 +17999,7 @@
         <v>43895</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18056,7 +18056,7 @@
         <v>43903</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>43906</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>43909</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18232,7 +18232,7 @@
         <v>43914</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18289,7 +18289,7 @@
         <v>43914</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18346,7 +18346,7 @@
         <v>43915</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18403,7 +18403,7 @@
         <v>43929</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         <v>43938</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18517,7 +18517,7 @@
         <v>43950</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         <v>43963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>43969</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>43979</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>43984</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>43992</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>43992</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>43992</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18973,7 +18973,7 @@
         <v>44004</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19030,7 +19030,7 @@
         <v>44005</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19087,7 +19087,7 @@
         <v>44005</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19144,7 +19144,7 @@
         <v>44007</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19201,7 +19201,7 @@
         <v>44019</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>44025</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         <v>44025</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19372,7 +19372,7 @@
         <v>44027</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19429,7 +19429,7 @@
         <v>44027</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         <v>44027</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>44027</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>44027</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19657,7 +19657,7 @@
         <v>44029</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19714,7 +19714,7 @@
         <v>44032</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19771,7 +19771,7 @@
         <v>44032</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19828,7 +19828,7 @@
         <v>44032</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19885,7 +19885,7 @@
         <v>44035</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19947,7 +19947,7 @@
         <v>44047</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20004,7 +20004,7 @@
         <v>44050</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         <v>44055</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20123,7 +20123,7 @@
         <v>44055</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20180,7 +20180,7 @@
         <v>44060</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20237,7 +20237,7 @@
         <v>44061</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20294,7 +20294,7 @@
         <v>44063</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20351,7 +20351,7 @@
         <v>44068</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20408,7 +20408,7 @@
         <v>44070</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20470,7 +20470,7 @@
         <v>44070</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>44070</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>44070</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>44074</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>44075</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20770,7 +20770,7 @@
         <v>44076</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         <v>44077</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>44077</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44078</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>44084</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>44088</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>44088</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>44089</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44095</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44096</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44102</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>44102</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21454,7 +21454,7 @@
         <v>44103</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21511,7 +21511,7 @@
         <v>44104</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21568,7 +21568,7 @@
         <v>44104</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21625,7 +21625,7 @@
         <v>44104</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21682,7 +21682,7 @@
         <v>44104</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21739,7 +21739,7 @@
         <v>44104</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44106</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44106</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44106</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44113</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22029,7 +22029,7 @@
         <v>44117</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22086,7 +22086,7 @@
         <v>44119</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22143,7 +22143,7 @@
         <v>44119</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22200,7 +22200,7 @@
         <v>44120</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22257,7 +22257,7 @@
         <v>44124</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22314,7 +22314,7 @@
         <v>44127</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22371,7 +22371,7 @@
         <v>44127</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22428,7 +22428,7 @@
         <v>44127</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22485,7 +22485,7 @@
         <v>44131</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22542,7 +22542,7 @@
         <v>44137</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22599,7 +22599,7 @@
         <v>44138</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22656,7 +22656,7 @@
         <v>44138</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
         <v>44139</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22770,7 +22770,7 @@
         <v>44139</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22827,7 +22827,7 @@
         <v>44147</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22884,7 +22884,7 @@
         <v>44147</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22941,7 +22941,7 @@
         <v>44152</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22998,7 +22998,7 @@
         <v>44154</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23055,7 +23055,7 @@
         <v>44158</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23112,7 +23112,7 @@
         <v>44159</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23169,7 +23169,7 @@
         <v>44159</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23226,7 +23226,7 @@
         <v>44181</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23283,7 +23283,7 @@
         <v>44187</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23340,7 +23340,7 @@
         <v>44203</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23397,7 +23397,7 @@
         <v>44203</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23454,7 +23454,7 @@
         <v>44206</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23511,7 +23511,7 @@
         <v>44207</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>44209</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>44215</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23687,7 +23687,7 @@
         <v>44216</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23749,7 +23749,7 @@
         <v>44218</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23806,7 +23806,7 @@
         <v>44218</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
         <v>44222</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23920,7 +23920,7 @@
         <v>44236</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44238</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44238</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44239</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44245</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24205,7 +24205,7 @@
         <v>44246</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>44249</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>44253</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24376,7 +24376,7 @@
         <v>44257</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24433,7 +24433,7 @@
         <v>44257</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24490,7 +24490,7 @@
         <v>44258</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44258</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24604,7 +24604,7 @@
         <v>44259</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24661,7 +24661,7 @@
         <v>44271</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24718,7 +24718,7 @@
         <v>44271</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24775,7 +24775,7 @@
         <v>44278</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24832,7 +24832,7 @@
         <v>44279</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24889,7 +24889,7 @@
         <v>44300</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         <v>44300</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         <v>44307</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25060,7 +25060,7 @@
         <v>44307</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25117,7 +25117,7 @@
         <v>44307</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25174,7 +25174,7 @@
         <v>44307</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25231,7 +25231,7 @@
         <v>44307</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25288,7 +25288,7 @@
         <v>44311</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25345,7 +25345,7 @@
         <v>44312</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25402,7 +25402,7 @@
         <v>44316</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25459,7 +25459,7 @@
         <v>44319</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>44326</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25573,7 +25573,7 @@
         <v>44326</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25630,7 +25630,7 @@
         <v>44340</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25687,7 +25687,7 @@
         <v>44341</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25744,7 +25744,7 @@
         <v>44343</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>44361</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>44370</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>44370</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>44371</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44374</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44375</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44375</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44378</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44385</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44419</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26381,7 +26381,7 @@
         <v>44420</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>44421</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>44424</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>44425</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26614,7 +26614,7 @@
         <v>44432</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26671,7 +26671,7 @@
         <v>44432</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>44439</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>44451</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         <v>44456</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>44465</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>44466</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>44468</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27070,7 +27070,7 @@
         <v>44474</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27127,7 +27127,7 @@
         <v>44474</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27184,7 +27184,7 @@
         <v>44489</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27241,7 +27241,7 @@
         <v>44490</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27298,7 +27298,7 @@
         <v>44490</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27355,7 +27355,7 @@
         <v>44493</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27412,7 +27412,7 @@
         <v>44494</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27469,7 +27469,7 @@
         <v>44501</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27526,7 +27526,7 @@
         <v>44503</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27583,7 +27583,7 @@
         <v>44504</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27640,7 +27640,7 @@
         <v>44504</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27697,7 +27697,7 @@
         <v>44529</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27754,7 +27754,7 @@
         <v>44539</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         <v>44546</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27868,7 +27868,7 @@
         <v>44553</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27925,7 +27925,7 @@
         <v>44565</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27982,7 +27982,7 @@
         <v>44571</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28039,7 +28039,7 @@
         <v>44573</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28096,7 +28096,7 @@
         <v>44579</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28153,7 +28153,7 @@
         <v>44581</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28210,7 +28210,7 @@
         <v>44589</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28267,7 +28267,7 @@
         <v>44595</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28324,7 +28324,7 @@
         <v>44596</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28381,7 +28381,7 @@
         <v>44601</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28438,7 +28438,7 @@
         <v>44606</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28495,7 +28495,7 @@
         <v>44609</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28552,7 +28552,7 @@
         <v>44617</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28609,7 +28609,7 @@
         <v>44617</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28671,7 +28671,7 @@
         <v>44627</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28728,7 +28728,7 @@
         <v>44627</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28785,7 +28785,7 @@
         <v>44630</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28842,7 +28842,7 @@
         <v>44636</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28899,7 +28899,7 @@
         <v>44637</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28956,7 +28956,7 @@
         <v>44638</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29013,7 +29013,7 @@
         <v>44645</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29070,7 +29070,7 @@
         <v>44649</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29127,7 +29127,7 @@
         <v>44651</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29184,7 +29184,7 @@
         <v>44655</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29246,7 +29246,7 @@
         <v>44655</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29308,7 +29308,7 @@
         <v>44656</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29365,7 +29365,7 @@
         <v>44676</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29422,7 +29422,7 @@
         <v>44694</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29479,7 +29479,7 @@
         <v>44694</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29536,7 +29536,7 @@
         <v>44704</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29593,7 +29593,7 @@
         <v>44713</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29650,7 +29650,7 @@
         <v>44721</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29707,7 +29707,7 @@
         <v>44722</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29764,7 +29764,7 @@
         <v>44729</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29821,7 +29821,7 @@
         <v>44739</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29878,7 +29878,7 @@
         <v>44750</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>44753</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29997,7 +29997,7 @@
         <v>44756</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30054,7 +30054,7 @@
         <v>44756</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30111,7 +30111,7 @@
         <v>44756</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30168,7 +30168,7 @@
         <v>44762</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30230,7 +30230,7 @@
         <v>44762</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30292,7 +30292,7 @@
         <v>44762</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
         <v>44774</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30411,7 +30411,7 @@
         <v>44775</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30468,7 +30468,7 @@
         <v>44775</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30525,7 +30525,7 @@
         <v>44798</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30587,7 +30587,7 @@
         <v>44806</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30644,7 +30644,7 @@
         <v>44806</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30701,7 +30701,7 @@
         <v>44809</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30758,7 +30758,7 @@
         <v>44817</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30815,7 +30815,7 @@
         <v>44827</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30872,7 +30872,7 @@
         <v>44834</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30929,7 +30929,7 @@
         <v>44848</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30986,7 +30986,7 @@
         <v>44848</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>44854</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31100,7 +31100,7 @@
         <v>44860</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31157,7 +31157,7 @@
         <v>44862</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31214,7 +31214,7 @@
         <v>44865</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31271,7 +31271,7 @@
         <v>44872</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31328,7 +31328,7 @@
         <v>44872</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31385,7 +31385,7 @@
         <v>44890</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31442,7 +31442,7 @@
         <v>44890</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31499,7 +31499,7 @@
         <v>44893</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31556,7 +31556,7 @@
         <v>44902</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31613,7 +31613,7 @@
         <v>44903</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31670,7 +31670,7 @@
         <v>44903</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31727,7 +31727,7 @@
         <v>44916</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31784,7 +31784,7 @@
         <v>44925</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31841,7 +31841,7 @@
         <v>44937</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31898,7 +31898,7 @@
         <v>44939</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31955,7 +31955,7 @@
         <v>44944</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32012,7 +32012,7 @@
         <v>44956</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32069,7 +32069,7 @@
         <v>44956</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32126,7 +32126,7 @@
         <v>44957</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32183,7 +32183,7 @@
         <v>44966</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32240,7 +32240,7 @@
         <v>44969</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32297,7 +32297,7 @@
         <v>44972</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32354,7 +32354,7 @@
         <v>44973</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>44973</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32478,7 +32478,7 @@
         <v>44973</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32540,7 +32540,7 @@
         <v>44973</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32602,7 +32602,7 @@
         <v>44980</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32664,7 +32664,7 @@
         <v>44980</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32726,7 +32726,7 @@
         <v>44980</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32788,7 +32788,7 @@
         <v>44981</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32845,7 +32845,7 @@
         <v>44987</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32902,7 +32902,7 @@
         <v>44992</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32964,7 +32964,7 @@
         <v>44998</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33021,7 +33021,7 @@
         <v>45001</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33078,7 +33078,7 @@
         <v>45001</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33135,7 +33135,7 @@
         <v>45001</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33192,7 +33192,7 @@
         <v>45001</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33249,7 +33249,7 @@
         <v>45002</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33306,7 +33306,7 @@
         <v>45006</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33363,7 +33363,7 @@
         <v>45006</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33420,7 +33420,7 @@
         <v>45006</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33477,7 +33477,7 @@
         <v>45009</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33534,7 +33534,7 @@
         <v>45012</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33591,7 +33591,7 @@
         <v>45012</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33653,7 +33653,7 @@
         <v>45012</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33710,7 +33710,7 @@
         <v>45012</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33767,7 +33767,7 @@
         <v>45012</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33829,7 +33829,7 @@
         <v>45012</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33886,7 +33886,7 @@
         <v>45012</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33943,7 +33943,7 @@
         <v>45012</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34005,7 +34005,7 @@
         <v>45019</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34062,7 +34062,7 @@
         <v>45019</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34119,7 +34119,7 @@
         <v>45019</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34176,7 +34176,7 @@
         <v>45028</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34233,7 +34233,7 @@
         <v>45029</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34290,7 +34290,7 @@
         <v>45036</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34347,7 +34347,7 @@
         <v>45040</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34404,7 +34404,7 @@
         <v>45041</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34461,7 +34461,7 @@
         <v>45042</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34518,7 +34518,7 @@
         <v>45049</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34575,7 +34575,7 @@
         <v>45049</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34632,7 +34632,7 @@
         <v>45053</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34689,7 +34689,7 @@
         <v>45055</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34746,7 +34746,7 @@
         <v>45056</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34803,7 +34803,7 @@
         <v>45058</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34860,7 +34860,7 @@
         <v>45058</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34917,7 +34917,7 @@
         <v>45061</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34974,7 +34974,7 @@
         <v>45061</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35031,7 +35031,7 @@
         <v>45061</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35088,7 +35088,7 @@
         <v>45061</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35145,7 +35145,7 @@
         <v>45061</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35202,7 +35202,7 @@
         <v>45062</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35264,7 +35264,7 @@
         <v>45062</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35326,7 +35326,7 @@
         <v>45063</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35388,7 +35388,7 @@
         <v>45063</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35450,7 +35450,7 @@
         <v>45068</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35507,7 +35507,7 @@
         <v>45070</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35564,7 +35564,7 @@
         <v>45072</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35621,7 +35621,7 @@
         <v>45072</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35678,7 +35678,7 @@
         <v>45072</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35735,7 +35735,7 @@
         <v>45075</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35792,7 +35792,7 @@
         <v>45075</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35849,7 +35849,7 @@
         <v>45078</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         <v>45078</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35963,7 +35963,7 @@
         <v>45082</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36025,7 +36025,7 @@
         <v>45084</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36082,7 +36082,7 @@
         <v>45085</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36139,7 +36139,7 @@
         <v>45096</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36196,7 +36196,7 @@
         <v>45098</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36253,7 +36253,7 @@
         <v>45099</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36310,7 +36310,7 @@
         <v>45099</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36367,7 +36367,7 @@
         <v>45103</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36424,7 +36424,7 @@
         <v>45103</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36486,7 +36486,7 @@
         <v>45103</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36543,7 +36543,7 @@
         <v>45104</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36605,7 +36605,7 @@
         <v>45104</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         <v>45104</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36729,7 +36729,7 @@
         <v>45104</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         <v>45104</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36843,7 +36843,7 @@
         <v>45104</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36900,7 +36900,7 @@
         <v>45105</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36957,7 +36957,7 @@
         <v>45105</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37019,7 +37019,7 @@
         <v>45106</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37076,7 +37076,7 @@
         <v>45110</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37133,7 +37133,7 @@
         <v>45110</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37190,7 +37190,7 @@
         <v>45112</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37247,7 +37247,7 @@
         <v>45117</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37304,7 +37304,7 @@
         <v>45118</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37361,7 +37361,7 @@
         <v>45118</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37418,7 +37418,7 @@
         <v>45118</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37475,7 +37475,7 @@
         <v>45118</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37532,7 +37532,7 @@
         <v>45118</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37589,7 +37589,7 @@
         <v>45118</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37646,7 +37646,7 @@
         <v>45119</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37703,7 +37703,7 @@
         <v>45119</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37760,7 +37760,7 @@
         <v>45120</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37842,7 +37842,7 @@
         <v>45139</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37899,7 +37899,7 @@
         <v>45147</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37956,7 +37956,7 @@
         <v>45147</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>

--- a/Översikt RONNEBY.xlsx
+++ b/Översikt RONNEBY.xlsx
@@ -572,7 +572,7 @@
         <v>43781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43653</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44925</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>45093</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>43406</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43502</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>43514</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>43529</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1274,7 +1274,7 @@
         <v>43608</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>43640</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>43817</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>44284</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1619,7 +1619,7 @@
         <v>44298</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>44305</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>44344</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>44425</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44952</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>44985</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>44998</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>45012</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>45145</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>45152</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         <v>43319</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         <v>43326</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         <v>43333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>43341</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>43343</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>43347</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>43350</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>43353</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>43354</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>43354</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>43357</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>43361</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         <v>43368</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
         <v>43369</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         <v>43370</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>43371</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         <v>43383</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>43390</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         <v>43390</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>43395</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>43395</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43397</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43397</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43397</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43397</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43397</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43398</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>43399</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43401</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43402</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43409</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>43409</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>43412</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43412</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>43413</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43419</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>43419</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4694,7 +4694,7 @@
         <v>43419</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>43419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43422</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43424</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>43424</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>43427</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43431</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43432</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43437</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43437</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43439</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>43451</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         <v>43451</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>43451</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43451</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>43451</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43451</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43451</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43451</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43452</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43455</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>43471</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43473</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43473</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43475</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43482</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43485</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43488</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43491</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43491</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43491</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43501</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43501</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43503</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>43507</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>43508</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>43508</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>43511</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>43514</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43514</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>43515</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43518</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43521</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43521</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43522</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>43529</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43529</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>43531</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>43531</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>43532</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43534</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>43534</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>43537</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>43537</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>43538</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>43544</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>43548</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43552</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43554</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>43558</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>43558</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>43563</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>43563</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8360,7 +8360,7 @@
         <v>43564</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>43565</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>43570</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>43570</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>43570</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>43570</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43572</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43572</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>43572</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>43572</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>43573</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43573</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43573</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>43573</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>43573</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>43573</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>43573</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>43573</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>43580</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         <v>43580</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>43581</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>43581</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>43600</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>43600</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>43600</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
         <v>43601</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43601</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43605</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43614</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43619</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43619</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43619</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43619</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43619</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43619</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43619</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43621</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43627</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10591,7 +10591,7 @@
         <v>43627</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10648,7 +10648,7 @@
         <v>43629</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>43629</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>43629</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>43630</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>43640</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>43647</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>43647</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>43647</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>43647</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>43648</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>43648</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>43648</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>43650</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>43655</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>43662</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>43662</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>43669</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
         <v>43670</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>43670</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11741,7 +11741,7 @@
         <v>43677</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11798,7 +11798,7 @@
         <v>43677</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         <v>43678</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>43678</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>43681</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>43682</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>43682</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>43684</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>43685</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>43685</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>43685</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>43685</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>43689</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>43690</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>43692</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
         <v>43692</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>43692</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>43692</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>43696</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>43697</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>43698</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>43698</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43699</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>43705</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>43705</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>43706</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>43707</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>43707</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>43710</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>43710</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>43711</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>43711</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>43711</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>43712</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13704,7 +13704,7 @@
         <v>43712</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>43717</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13818,7 +13818,7 @@
         <v>43718</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         <v>43720</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>43725</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>43725</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>43725</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>43725</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>43726</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>43726</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>43727</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>43727</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>43730</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>43733</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>43741</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>43741</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>43742</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>43745</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14730,7 +14730,7 @@
         <v>43746</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14787,7 +14787,7 @@
         <v>43746</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14844,7 +14844,7 @@
         <v>43748</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14901,7 +14901,7 @@
         <v>43749</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>43749</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>43752</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>43754</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>43755</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>43755</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>43761</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>43761</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>43763</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>43766</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>43766</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>43767</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>43767</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>43768</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15699,7 +15699,7 @@
         <v>43770</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>43781</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>43781</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>43781</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>43783</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>43783</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>43787</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>43790</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>43803</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>43803</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>43804</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>43808</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>43811</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>43811</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>43817</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>43817</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
         <v>43817</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         <v>43818</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         <v>43822</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         <v>43822</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>43833</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16906,7 +16906,7 @@
         <v>43837</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>43837</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>43838</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>43847</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>43850</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>43852</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>43852</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>43853</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         <v>43853</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17419,7 +17419,7 @@
         <v>43854</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>43854</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>43858</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>43860</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>43874</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17709,7 +17709,7 @@
         <v>43878</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17766,7 +17766,7 @@
         <v>43878</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17823,7 +17823,7 @@
         <v>43880</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17885,7 +17885,7 @@
         <v>43881</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         <v>43889</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17999,7 +17999,7 @@
         <v>43895</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18056,7 +18056,7 @@
         <v>43903</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>43906</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>43909</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18232,7 +18232,7 @@
         <v>43914</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18289,7 +18289,7 @@
         <v>43914</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18346,7 +18346,7 @@
         <v>43915</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18403,7 +18403,7 @@
         <v>43929</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         <v>43938</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18517,7 +18517,7 @@
         <v>43950</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         <v>43963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>43969</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>43979</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>43984</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>43992</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>43992</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>43992</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18973,7 +18973,7 @@
         <v>44004</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19030,7 +19030,7 @@
         <v>44005</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19087,7 +19087,7 @@
         <v>44005</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19144,7 +19144,7 @@
         <v>44007</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19201,7 +19201,7 @@
         <v>44019</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>44025</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         <v>44025</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19372,7 +19372,7 @@
         <v>44027</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19429,7 +19429,7 @@
         <v>44027</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         <v>44027</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>44027</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>44027</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19657,7 +19657,7 @@
         <v>44029</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19714,7 +19714,7 @@
         <v>44032</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19771,7 +19771,7 @@
         <v>44032</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19828,7 +19828,7 @@
         <v>44032</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19885,7 +19885,7 @@
         <v>44035</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19947,7 +19947,7 @@
         <v>44047</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20004,7 +20004,7 @@
         <v>44050</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         <v>44055</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20123,7 +20123,7 @@
         <v>44055</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20180,7 +20180,7 @@
         <v>44060</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20237,7 +20237,7 @@
         <v>44061</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20294,7 +20294,7 @@
         <v>44063</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20351,7 +20351,7 @@
         <v>44068</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20408,7 +20408,7 @@
         <v>44070</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20470,7 +20470,7 @@
         <v>44070</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>44070</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>44070</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>44074</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>44075</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20770,7 +20770,7 @@
         <v>44076</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         <v>44077</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>44077</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44078</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>44084</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>44088</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>44088</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>44089</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44095</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44096</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44102</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>44102</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21454,7 +21454,7 @@
         <v>44103</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21511,7 +21511,7 @@
         <v>44104</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21568,7 +21568,7 @@
         <v>44104</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21625,7 +21625,7 @@
         <v>44104</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21682,7 +21682,7 @@
         <v>44104</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21739,7 +21739,7 @@
         <v>44104</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44106</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44106</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44106</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44113</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22029,7 +22029,7 @@
         <v>44117</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22086,7 +22086,7 @@
         <v>44119</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22143,7 +22143,7 @@
         <v>44119</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22200,7 +22200,7 @@
         <v>44120</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22257,7 +22257,7 @@
         <v>44124</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22314,7 +22314,7 @@
         <v>44127</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22371,7 +22371,7 @@
         <v>44127</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22428,7 +22428,7 @@
         <v>44127</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22485,7 +22485,7 @@
         <v>44131</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22542,7 +22542,7 @@
         <v>44137</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22599,7 +22599,7 @@
         <v>44138</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22656,7 +22656,7 @@
         <v>44138</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
         <v>44139</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22770,7 +22770,7 @@
         <v>44139</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22827,7 +22827,7 @@
         <v>44147</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22884,7 +22884,7 @@
         <v>44147</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22941,7 +22941,7 @@
         <v>44152</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22998,7 +22998,7 @@
         <v>44154</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23055,7 +23055,7 @@
         <v>44158</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23112,7 +23112,7 @@
         <v>44159</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23169,7 +23169,7 @@
         <v>44159</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23226,7 +23226,7 @@
         <v>44181</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23283,7 +23283,7 @@
         <v>44187</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23340,7 +23340,7 @@
         <v>44203</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23397,7 +23397,7 @@
         <v>44203</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23454,7 +23454,7 @@
         <v>44206</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23511,7 +23511,7 @@
         <v>44207</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>44209</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>44215</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23687,7 +23687,7 @@
         <v>44216</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23749,7 +23749,7 @@
         <v>44218</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23806,7 +23806,7 @@
         <v>44218</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
         <v>44222</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23920,7 +23920,7 @@
         <v>44236</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44238</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44238</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44239</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44245</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24205,7 +24205,7 @@
         <v>44246</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>44249</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>44253</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24376,7 +24376,7 @@
         <v>44257</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24433,7 +24433,7 @@
         <v>44257</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24490,7 +24490,7 @@
         <v>44258</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44258</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24604,7 +24604,7 @@
         <v>44259</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24661,7 +24661,7 @@
         <v>44271</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24718,7 +24718,7 @@
         <v>44271</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24775,7 +24775,7 @@
         <v>44278</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24832,7 +24832,7 @@
         <v>44279</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24889,7 +24889,7 @@
         <v>44300</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         <v>44300</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         <v>44307</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25060,7 +25060,7 @@
         <v>44307</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25117,7 +25117,7 @@
         <v>44307</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25174,7 +25174,7 @@
         <v>44307</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25231,7 +25231,7 @@
         <v>44307</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25288,7 +25288,7 @@
         <v>44311</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25345,7 +25345,7 @@
         <v>44312</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25402,7 +25402,7 @@
         <v>44316</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25459,7 +25459,7 @@
         <v>44319</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>44326</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25573,7 +25573,7 @@
         <v>44326</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25630,7 +25630,7 @@
         <v>44340</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25687,7 +25687,7 @@
         <v>44341</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25744,7 +25744,7 @@
         <v>44343</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>44361</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>44370</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>44370</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>44371</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44374</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44375</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44375</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44378</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44385</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44419</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26381,7 +26381,7 @@
         <v>44420</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>44421</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>44424</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>44425</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26614,7 +26614,7 @@
         <v>44432</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26671,7 +26671,7 @@
         <v>44432</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>44439</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>44451</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         <v>44456</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>44465</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>44466</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>44468</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27070,7 +27070,7 @@
         <v>44474</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27127,7 +27127,7 @@
         <v>44474</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27184,7 +27184,7 @@
         <v>44489</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27241,7 +27241,7 @@
         <v>44490</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27298,7 +27298,7 @@
         <v>44490</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27355,7 +27355,7 @@
         <v>44493</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27412,7 +27412,7 @@
         <v>44494</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27469,7 +27469,7 @@
         <v>44501</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27526,7 +27526,7 @@
         <v>44503</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27583,7 +27583,7 @@
         <v>44504</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27640,7 +27640,7 @@
         <v>44504</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27697,7 +27697,7 @@
         <v>44529</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27754,7 +27754,7 @@
         <v>44539</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         <v>44546</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27868,7 +27868,7 @@
         <v>44553</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27925,7 +27925,7 @@
         <v>44565</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27982,7 +27982,7 @@
         <v>44571</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28039,7 +28039,7 @@
         <v>44573</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28096,7 +28096,7 @@
         <v>44579</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28153,7 +28153,7 @@
         <v>44581</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28210,7 +28210,7 @@
         <v>44589</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28267,7 +28267,7 @@
         <v>44595</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28324,7 +28324,7 @@
         <v>44596</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28381,7 +28381,7 @@
         <v>44601</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28438,7 +28438,7 @@
         <v>44606</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28495,7 +28495,7 @@
         <v>44609</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28552,7 +28552,7 @@
         <v>44617</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28609,7 +28609,7 @@
         <v>44617</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28671,7 +28671,7 @@
         <v>44627</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28728,7 +28728,7 @@
         <v>44627</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28785,7 +28785,7 @@
         <v>44630</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28842,7 +28842,7 @@
         <v>44636</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28899,7 +28899,7 @@
         <v>44637</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28956,7 +28956,7 @@
         <v>44638</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29013,7 +29013,7 @@
         <v>44645</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29070,7 +29070,7 @@
         <v>44649</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29127,7 +29127,7 @@
         <v>44651</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29184,7 +29184,7 @@
         <v>44655</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29246,7 +29246,7 @@
         <v>44655</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29308,7 +29308,7 @@
         <v>44656</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29365,7 +29365,7 @@
         <v>44676</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29422,7 +29422,7 @@
         <v>44694</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29479,7 +29479,7 @@
         <v>44694</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29536,7 +29536,7 @@
         <v>44704</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29593,7 +29593,7 @@
         <v>44713</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29650,7 +29650,7 @@
         <v>44721</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29707,7 +29707,7 @@
         <v>44722</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29764,7 +29764,7 @@
         <v>44729</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29821,7 +29821,7 @@
         <v>44739</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29878,7 +29878,7 @@
         <v>44750</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>44753</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29997,7 +29997,7 @@
         <v>44756</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30054,7 +30054,7 @@
         <v>44756</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30111,7 +30111,7 @@
         <v>44756</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30168,7 +30168,7 @@
         <v>44762</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30230,7 +30230,7 @@
         <v>44762</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30292,7 +30292,7 @@
         <v>44762</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
         <v>44774</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30411,7 +30411,7 @@
         <v>44775</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30468,7 +30468,7 @@
         <v>44775</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30525,7 +30525,7 @@
         <v>44798</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30587,7 +30587,7 @@
         <v>44806</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30644,7 +30644,7 @@
         <v>44806</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30701,7 +30701,7 @@
         <v>44809</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30758,7 +30758,7 @@
         <v>44817</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30815,7 +30815,7 @@
         <v>44827</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30872,7 +30872,7 @@
         <v>44834</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30929,7 +30929,7 @@
         <v>44848</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30986,7 +30986,7 @@
         <v>44848</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>44854</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31100,7 +31100,7 @@
         <v>44860</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31157,7 +31157,7 @@
         <v>44862</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31214,7 +31214,7 @@
         <v>44865</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31271,7 +31271,7 @@
         <v>44872</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31328,7 +31328,7 @@
         <v>44872</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31385,7 +31385,7 @@
         <v>44890</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31442,7 +31442,7 @@
         <v>44890</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31499,7 +31499,7 @@
         <v>44893</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31556,7 +31556,7 @@
         <v>44902</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31613,7 +31613,7 @@
         <v>44903</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31670,7 +31670,7 @@
         <v>44903</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31727,7 +31727,7 @@
         <v>44916</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31784,7 +31784,7 @@
         <v>44925</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31841,7 +31841,7 @@
         <v>44937</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31898,7 +31898,7 @@
         <v>44939</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31955,7 +31955,7 @@
         <v>44944</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32012,7 +32012,7 @@
         <v>44956</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32069,7 +32069,7 @@
         <v>44956</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32126,7 +32126,7 @@
         <v>44957</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32183,7 +32183,7 @@
         <v>44966</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32240,7 +32240,7 @@
         <v>44969</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32297,7 +32297,7 @@
         <v>44972</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32354,7 +32354,7 @@
         <v>44973</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>44973</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32478,7 +32478,7 @@
         <v>44973</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32540,7 +32540,7 @@
         <v>44973</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32602,7 +32602,7 @@
         <v>44980</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32664,7 +32664,7 @@
         <v>44980</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32726,7 +32726,7 @@
         <v>44980</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32788,7 +32788,7 @@
         <v>44981</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32845,7 +32845,7 @@
         <v>44987</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32902,7 +32902,7 @@
         <v>44992</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32964,7 +32964,7 @@
         <v>44998</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33021,7 +33021,7 @@
         <v>45001</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33078,7 +33078,7 @@
         <v>45001</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33135,7 +33135,7 @@
         <v>45001</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33192,7 +33192,7 @@
         <v>45001</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33249,7 +33249,7 @@
         <v>45002</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33306,7 +33306,7 @@
         <v>45006</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33363,7 +33363,7 @@
         <v>45006</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33420,7 +33420,7 @@
         <v>45006</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33477,7 +33477,7 @@
         <v>45009</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33534,7 +33534,7 @@
         <v>45012</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33591,7 +33591,7 @@
         <v>45012</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33653,7 +33653,7 @@
         <v>45012</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33710,7 +33710,7 @@
         <v>45012</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33767,7 +33767,7 @@
         <v>45012</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33829,7 +33829,7 @@
         <v>45012</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33886,7 +33886,7 @@
         <v>45012</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33943,7 +33943,7 @@
         <v>45012</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34005,7 +34005,7 @@
         <v>45019</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34062,7 +34062,7 @@
         <v>45019</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34119,7 +34119,7 @@
         <v>45019</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34176,7 +34176,7 @@
         <v>45028</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34233,7 +34233,7 @@
         <v>45029</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34290,7 +34290,7 @@
         <v>45036</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34347,7 +34347,7 @@
         <v>45040</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34404,7 +34404,7 @@
         <v>45041</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34461,7 +34461,7 @@
         <v>45042</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34518,7 +34518,7 @@
         <v>45049</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34575,7 +34575,7 @@
         <v>45049</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34632,7 +34632,7 @@
         <v>45053</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34689,7 +34689,7 @@
         <v>45055</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34746,7 +34746,7 @@
         <v>45056</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34803,7 +34803,7 @@
         <v>45058</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34860,7 +34860,7 @@
         <v>45058</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34917,7 +34917,7 @@
         <v>45061</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34974,7 +34974,7 @@
         <v>45061</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35031,7 +35031,7 @@
         <v>45061</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35088,7 +35088,7 @@
         <v>45061</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35145,7 +35145,7 @@
         <v>45061</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35202,7 +35202,7 @@
         <v>45062</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35264,7 +35264,7 @@
         <v>45062</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35326,7 +35326,7 @@
         <v>45063</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35388,7 +35388,7 @@
         <v>45063</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35450,7 +35450,7 @@
         <v>45068</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35507,7 +35507,7 @@
         <v>45070</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35564,7 +35564,7 @@
         <v>45072</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35621,7 +35621,7 @@
         <v>45072</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35678,7 +35678,7 @@
         <v>45072</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35735,7 +35735,7 @@
         <v>45075</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35792,7 +35792,7 @@
         <v>45075</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35849,7 +35849,7 @@
         <v>45078</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         <v>45078</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35963,7 +35963,7 @@
         <v>45082</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36025,7 +36025,7 @@
         <v>45084</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36082,7 +36082,7 @@
         <v>45085</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36139,7 +36139,7 @@
         <v>45096</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36196,7 +36196,7 @@
         <v>45098</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36253,7 +36253,7 @@
         <v>45099</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36310,7 +36310,7 @@
         <v>45099</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36367,7 +36367,7 @@
         <v>45103</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36424,7 +36424,7 @@
         <v>45103</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36486,7 +36486,7 @@
         <v>45103</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36543,7 +36543,7 @@
         <v>45104</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36605,7 +36605,7 @@
         <v>45104</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         <v>45104</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36729,7 +36729,7 @@
         <v>45104</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         <v>45104</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36843,7 +36843,7 @@
         <v>45104</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36900,7 +36900,7 @@
         <v>45105</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36957,7 +36957,7 @@
         <v>45105</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37019,7 +37019,7 @@
         <v>45106</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37076,7 +37076,7 @@
         <v>45110</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37133,7 +37133,7 @@
         <v>45110</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37190,7 +37190,7 @@
         <v>45112</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37247,7 +37247,7 @@
         <v>45117</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37304,7 +37304,7 @@
         <v>45118</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37361,7 +37361,7 @@
         <v>45118</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37418,7 +37418,7 @@
         <v>45118</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37475,7 +37475,7 @@
         <v>45118</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37532,7 +37532,7 @@
         <v>45118</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37589,7 +37589,7 @@
         <v>45118</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37646,7 +37646,7 @@
         <v>45119</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37703,7 +37703,7 @@
         <v>45119</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37760,7 +37760,7 @@
         <v>45120</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37842,7 +37842,7 @@
         <v>45139</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37899,7 +37899,7 @@
         <v>45147</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37956,7 +37956,7 @@
         <v>45147</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>

--- a/Översikt RONNEBY.xlsx
+++ b/Översikt RONNEBY.xlsx
@@ -572,7 +572,7 @@
         <v>43781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43653</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44925</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>45093</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>43406</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43502</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>43514</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>43529</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1274,7 +1274,7 @@
         <v>43608</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>43640</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>43817</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>44284</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1619,7 +1619,7 @@
         <v>44298</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>44305</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>44344</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>44425</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44952</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>44985</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>44998</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>45012</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>45145</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>45152</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         <v>43319</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         <v>43326</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         <v>43333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>43341</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>43343</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>43347</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>43350</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>43353</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>43354</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>43354</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>43357</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>43361</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         <v>43368</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
         <v>43369</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         <v>43370</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>43371</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         <v>43383</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>43390</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         <v>43390</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>43395</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>43395</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43397</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43397</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43397</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43397</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43397</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43398</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>43399</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43401</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43402</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43409</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>43409</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>43412</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43412</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>43413</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43419</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>43419</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4694,7 +4694,7 @@
         <v>43419</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>43419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43422</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43424</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>43424</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>43427</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43431</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43432</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43437</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43437</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43439</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>43451</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         <v>43451</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>43451</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43451</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>43451</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43451</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43451</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43451</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43452</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43455</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>43471</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43473</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43473</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43475</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43482</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43485</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43488</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43491</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43491</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43491</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43501</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43501</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43503</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>43507</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>43508</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>43508</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>43511</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>43514</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43514</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>43515</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43518</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43521</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43521</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43522</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>43529</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43529</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>43531</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>43531</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>43532</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43534</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>43534</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>43537</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>43537</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>43538</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>43544</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>43548</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43552</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43554</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>43558</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>43558</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>43563</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>43563</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8360,7 +8360,7 @@
         <v>43564</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>43565</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>43570</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>43570</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>43570</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>43570</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43572</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43572</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>43572</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>43572</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>43573</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43573</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43573</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>43573</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>43573</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>43573</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>43573</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>43573</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>43580</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         <v>43580</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>43581</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>43581</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>43600</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>43600</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>43600</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
         <v>43601</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43601</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43605</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43614</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43619</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43619</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43619</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43619</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43619</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43619</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43619</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43621</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43627</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10591,7 +10591,7 @@
         <v>43627</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10648,7 +10648,7 @@
         <v>43629</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>43629</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>43629</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>43630</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>43640</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>43647</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>43647</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>43647</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>43647</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>43648</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>43648</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>43648</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>43650</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>43655</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>43662</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>43662</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>43669</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
         <v>43670</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>43670</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11741,7 +11741,7 @@
         <v>43677</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11798,7 +11798,7 @@
         <v>43677</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         <v>43678</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>43678</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>43681</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>43682</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>43682</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>43684</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>43685</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>43685</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>43685</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>43685</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>43689</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>43690</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>43692</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
         <v>43692</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>43692</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>43692</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>43696</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>43697</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>43698</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>43698</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43699</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>43705</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>43705</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>43706</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>43707</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>43707</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>43710</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>43710</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>43711</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>43711</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>43711</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>43712</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13704,7 +13704,7 @@
         <v>43712</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>43717</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13818,7 +13818,7 @@
         <v>43718</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         <v>43720</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>43725</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>43725</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>43725</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>43725</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>43726</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>43726</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>43727</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>43727</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>43730</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>43733</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>43741</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>43741</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>43742</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>43745</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14730,7 +14730,7 @@
         <v>43746</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14787,7 +14787,7 @@
         <v>43746</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14844,7 +14844,7 @@
         <v>43748</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14901,7 +14901,7 @@
         <v>43749</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>43749</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>43752</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>43754</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>43755</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>43755</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>43761</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>43761</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>43763</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>43766</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>43766</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>43767</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>43767</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>43768</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15699,7 +15699,7 @@
         <v>43770</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>43781</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>43781</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>43781</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>43783</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>43783</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>43787</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>43790</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>43803</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>43803</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>43804</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>43808</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>43811</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>43811</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>43817</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>43817</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
         <v>43817</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         <v>43818</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         <v>43822</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         <v>43822</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>43833</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16906,7 +16906,7 @@
         <v>43837</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>43837</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>43838</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>43847</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>43850</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>43852</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>43852</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>43853</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         <v>43853</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17419,7 +17419,7 @@
         <v>43854</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>43854</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>43858</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>43860</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>43874</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17709,7 +17709,7 @@
         <v>43878</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17766,7 +17766,7 @@
         <v>43878</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17823,7 +17823,7 @@
         <v>43880</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17885,7 +17885,7 @@
         <v>43881</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         <v>43889</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17999,7 +17999,7 @@
         <v>43895</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18056,7 +18056,7 @@
         <v>43903</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>43906</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>43909</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18232,7 +18232,7 @@
         <v>43914</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18289,7 +18289,7 @@
         <v>43914</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18346,7 +18346,7 @@
         <v>43915</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18403,7 +18403,7 @@
         <v>43929</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         <v>43938</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18517,7 +18517,7 @@
         <v>43950</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         <v>43963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>43969</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>43979</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>43984</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>43992</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>43992</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>43992</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18973,7 +18973,7 @@
         <v>44004</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19030,7 +19030,7 @@
         <v>44005</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19087,7 +19087,7 @@
         <v>44005</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19144,7 +19144,7 @@
         <v>44007</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19201,7 +19201,7 @@
         <v>44019</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>44025</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         <v>44025</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19372,7 +19372,7 @@
         <v>44027</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19429,7 +19429,7 @@
         <v>44027</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         <v>44027</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>44027</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>44027</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19657,7 +19657,7 @@
         <v>44029</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19714,7 +19714,7 @@
         <v>44032</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19771,7 +19771,7 @@
         <v>44032</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19828,7 +19828,7 @@
         <v>44032</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19885,7 +19885,7 @@
         <v>44035</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19947,7 +19947,7 @@
         <v>44047</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20004,7 +20004,7 @@
         <v>44050</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         <v>44055</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20123,7 +20123,7 @@
         <v>44055</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20180,7 +20180,7 @@
         <v>44060</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20237,7 +20237,7 @@
         <v>44061</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20294,7 +20294,7 @@
         <v>44063</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20351,7 +20351,7 @@
         <v>44068</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20408,7 +20408,7 @@
         <v>44070</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20470,7 +20470,7 @@
         <v>44070</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>44070</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>44070</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>44074</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>44075</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20770,7 +20770,7 @@
         <v>44076</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         <v>44077</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>44077</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44078</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>44084</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>44088</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>44088</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>44089</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44095</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44096</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44102</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>44102</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21454,7 +21454,7 @@
         <v>44103</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21511,7 +21511,7 @@
         <v>44104</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21568,7 +21568,7 @@
         <v>44104</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21625,7 +21625,7 @@
         <v>44104</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21682,7 +21682,7 @@
         <v>44104</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21739,7 +21739,7 @@
         <v>44104</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44106</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44106</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44106</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44113</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22029,7 +22029,7 @@
         <v>44117</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22086,7 +22086,7 @@
         <v>44119</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22143,7 +22143,7 @@
         <v>44119</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22200,7 +22200,7 @@
         <v>44120</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22257,7 +22257,7 @@
         <v>44124</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22314,7 +22314,7 @@
         <v>44127</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22371,7 +22371,7 @@
         <v>44127</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22428,7 +22428,7 @@
         <v>44127</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22485,7 +22485,7 @@
         <v>44131</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22542,7 +22542,7 @@
         <v>44137</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22599,7 +22599,7 @@
         <v>44138</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22656,7 +22656,7 @@
         <v>44138</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
         <v>44139</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22770,7 +22770,7 @@
         <v>44139</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22827,7 +22827,7 @@
         <v>44147</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22884,7 +22884,7 @@
         <v>44147</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22941,7 +22941,7 @@
         <v>44152</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22998,7 +22998,7 @@
         <v>44154</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23055,7 +23055,7 @@
         <v>44158</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23112,7 +23112,7 @@
         <v>44159</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23169,7 +23169,7 @@
         <v>44159</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23226,7 +23226,7 @@
         <v>44181</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23283,7 +23283,7 @@
         <v>44187</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23340,7 +23340,7 @@
         <v>44203</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23397,7 +23397,7 @@
         <v>44203</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23454,7 +23454,7 @@
         <v>44206</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23511,7 +23511,7 @@
         <v>44207</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>44209</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>44215</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23687,7 +23687,7 @@
         <v>44216</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23749,7 +23749,7 @@
         <v>44218</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23806,7 +23806,7 @@
         <v>44218</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
         <v>44222</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23920,7 +23920,7 @@
         <v>44236</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44238</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44238</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44239</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44245</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24205,7 +24205,7 @@
         <v>44246</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>44249</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>44253</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24376,7 +24376,7 @@
         <v>44257</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24433,7 +24433,7 @@
         <v>44257</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24490,7 +24490,7 @@
         <v>44258</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44258</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24604,7 +24604,7 @@
         <v>44259</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24661,7 +24661,7 @@
         <v>44271</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24718,7 +24718,7 @@
         <v>44271</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24775,7 +24775,7 @@
         <v>44278</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24832,7 +24832,7 @@
         <v>44279</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24889,7 +24889,7 @@
         <v>44300</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         <v>44300</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         <v>44307</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25060,7 +25060,7 @@
         <v>44307</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25117,7 +25117,7 @@
         <v>44307</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25174,7 +25174,7 @@
         <v>44307</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25231,7 +25231,7 @@
         <v>44307</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25288,7 +25288,7 @@
         <v>44311</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25345,7 +25345,7 @@
         <v>44312</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25402,7 +25402,7 @@
         <v>44316</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25459,7 +25459,7 @@
         <v>44319</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>44326</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25573,7 +25573,7 @@
         <v>44326</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25630,7 +25630,7 @@
         <v>44340</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25687,7 +25687,7 @@
         <v>44341</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25744,7 +25744,7 @@
         <v>44343</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>44361</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>44370</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>44370</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>44371</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44374</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44375</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44375</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44378</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44385</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44419</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26381,7 +26381,7 @@
         <v>44420</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>44421</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>44424</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>44425</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26614,7 +26614,7 @@
         <v>44432</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26671,7 +26671,7 @@
         <v>44432</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>44439</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>44451</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         <v>44456</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>44465</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>44466</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>44468</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27070,7 +27070,7 @@
         <v>44474</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27127,7 +27127,7 @@
         <v>44474</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27184,7 +27184,7 @@
         <v>44489</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27241,7 +27241,7 @@
         <v>44490</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27298,7 +27298,7 @@
         <v>44490</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27355,7 +27355,7 @@
         <v>44493</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27412,7 +27412,7 @@
         <v>44494</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27469,7 +27469,7 @@
         <v>44501</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27526,7 +27526,7 @@
         <v>44503</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27583,7 +27583,7 @@
         <v>44504</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27640,7 +27640,7 @@
         <v>44504</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27697,7 +27697,7 @@
         <v>44529</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27754,7 +27754,7 @@
         <v>44539</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         <v>44546</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27868,7 +27868,7 @@
         <v>44553</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27925,7 +27925,7 @@
         <v>44565</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27982,7 +27982,7 @@
         <v>44571</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28039,7 +28039,7 @@
         <v>44573</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28096,7 +28096,7 @@
         <v>44579</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28153,7 +28153,7 @@
         <v>44581</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28210,7 +28210,7 @@
         <v>44589</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28267,7 +28267,7 @@
         <v>44595</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28324,7 +28324,7 @@
         <v>44596</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28381,7 +28381,7 @@
         <v>44601</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28438,7 +28438,7 @@
         <v>44606</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28495,7 +28495,7 @@
         <v>44609</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28552,7 +28552,7 @@
         <v>44617</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28609,7 +28609,7 @@
         <v>44617</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28671,7 +28671,7 @@
         <v>44627</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28728,7 +28728,7 @@
         <v>44627</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28785,7 +28785,7 @@
         <v>44630</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28842,7 +28842,7 @@
         <v>44636</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28899,7 +28899,7 @@
         <v>44637</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28956,7 +28956,7 @@
         <v>44638</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29013,7 +29013,7 @@
         <v>44645</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29070,7 +29070,7 @@
         <v>44649</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29127,7 +29127,7 @@
         <v>44651</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29184,7 +29184,7 @@
         <v>44655</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29246,7 +29246,7 @@
         <v>44655</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29308,7 +29308,7 @@
         <v>44656</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29365,7 +29365,7 @@
         <v>44676</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29422,7 +29422,7 @@
         <v>44694</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29479,7 +29479,7 @@
         <v>44694</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29536,7 +29536,7 @@
         <v>44704</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29593,7 +29593,7 @@
         <v>44713</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29650,7 +29650,7 @@
         <v>44721</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29707,7 +29707,7 @@
         <v>44722</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29764,7 +29764,7 @@
         <v>44729</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29821,7 +29821,7 @@
         <v>44739</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29878,7 +29878,7 @@
         <v>44750</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>44753</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29997,7 +29997,7 @@
         <v>44756</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30054,7 +30054,7 @@
         <v>44756</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30111,7 +30111,7 @@
         <v>44756</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30168,7 +30168,7 @@
         <v>44762</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30230,7 +30230,7 @@
         <v>44762</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30292,7 +30292,7 @@
         <v>44762</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
         <v>44774</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30411,7 +30411,7 @@
         <v>44775</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30468,7 +30468,7 @@
         <v>44775</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30525,7 +30525,7 @@
         <v>44798</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30587,7 +30587,7 @@
         <v>44806</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30644,7 +30644,7 @@
         <v>44806</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30701,7 +30701,7 @@
         <v>44809</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30758,7 +30758,7 @@
         <v>44817</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30815,7 +30815,7 @@
         <v>44827</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30872,7 +30872,7 @@
         <v>44834</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30929,7 +30929,7 @@
         <v>44848</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30986,7 +30986,7 @@
         <v>44848</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>44854</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31100,7 +31100,7 @@
         <v>44860</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31157,7 +31157,7 @@
         <v>44862</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31214,7 +31214,7 @@
         <v>44865</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31271,7 +31271,7 @@
         <v>44872</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31328,7 +31328,7 @@
         <v>44872</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31385,7 +31385,7 @@
         <v>44890</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31442,7 +31442,7 @@
         <v>44890</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31499,7 +31499,7 @@
         <v>44893</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31556,7 +31556,7 @@
         <v>44902</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31613,7 +31613,7 @@
         <v>44903</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31670,7 +31670,7 @@
         <v>44903</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31727,7 +31727,7 @@
         <v>44916</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31784,7 +31784,7 @@
         <v>44925</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31841,7 +31841,7 @@
         <v>44937</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31898,7 +31898,7 @@
         <v>44939</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31955,7 +31955,7 @@
         <v>44944</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32012,7 +32012,7 @@
         <v>44956</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32069,7 +32069,7 @@
         <v>44956</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32126,7 +32126,7 @@
         <v>44957</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32183,7 +32183,7 @@
         <v>44966</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32240,7 +32240,7 @@
         <v>44969</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32297,7 +32297,7 @@
         <v>44972</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32354,7 +32354,7 @@
         <v>44973</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>44973</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32478,7 +32478,7 @@
         <v>44973</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32540,7 +32540,7 @@
         <v>44973</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32602,7 +32602,7 @@
         <v>44980</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32664,7 +32664,7 @@
         <v>44980</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32726,7 +32726,7 @@
         <v>44980</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32788,7 +32788,7 @@
         <v>44981</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32845,7 +32845,7 @@
         <v>44987</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32902,7 +32902,7 @@
         <v>44992</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32964,7 +32964,7 @@
         <v>44998</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33021,7 +33021,7 @@
         <v>45001</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33078,7 +33078,7 @@
         <v>45001</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33135,7 +33135,7 @@
         <v>45001</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33192,7 +33192,7 @@
         <v>45001</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33249,7 +33249,7 @@
         <v>45002</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33306,7 +33306,7 @@
         <v>45006</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33363,7 +33363,7 @@
         <v>45006</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33420,7 +33420,7 @@
         <v>45006</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33477,7 +33477,7 @@
         <v>45009</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33534,7 +33534,7 @@
         <v>45012</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33591,7 +33591,7 @@
         <v>45012</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33653,7 +33653,7 @@
         <v>45012</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33710,7 +33710,7 @@
         <v>45012</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33767,7 +33767,7 @@
         <v>45012</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33829,7 +33829,7 @@
         <v>45012</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33886,7 +33886,7 @@
         <v>45012</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33943,7 +33943,7 @@
         <v>45012</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34005,7 +34005,7 @@
         <v>45019</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34062,7 +34062,7 @@
         <v>45019</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34119,7 +34119,7 @@
         <v>45019</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34176,7 +34176,7 @@
         <v>45028</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34233,7 +34233,7 @@
         <v>45029</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34290,7 +34290,7 @@
         <v>45036</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34347,7 +34347,7 @@
         <v>45040</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34404,7 +34404,7 @@
         <v>45041</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34461,7 +34461,7 @@
         <v>45042</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34518,7 +34518,7 @@
         <v>45049</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34575,7 +34575,7 @@
         <v>45049</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34632,7 +34632,7 @@
         <v>45053</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34689,7 +34689,7 @@
         <v>45055</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34746,7 +34746,7 @@
         <v>45056</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34803,7 +34803,7 @@
         <v>45058</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34860,7 +34860,7 @@
         <v>45058</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34917,7 +34917,7 @@
         <v>45061</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34974,7 +34974,7 @@
         <v>45061</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35031,7 +35031,7 @@
         <v>45061</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35088,7 +35088,7 @@
         <v>45061</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35145,7 +35145,7 @@
         <v>45061</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35202,7 +35202,7 @@
         <v>45062</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35264,7 +35264,7 @@
         <v>45062</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35326,7 +35326,7 @@
         <v>45063</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35388,7 +35388,7 @@
         <v>45063</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35450,7 +35450,7 @@
         <v>45068</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35507,7 +35507,7 @@
         <v>45070</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35564,7 +35564,7 @@
         <v>45072</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35621,7 +35621,7 @@
         <v>45072</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35678,7 +35678,7 @@
         <v>45072</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35735,7 +35735,7 @@
         <v>45075</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35792,7 +35792,7 @@
         <v>45075</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35849,7 +35849,7 @@
         <v>45078</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         <v>45078</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35963,7 +35963,7 @@
         <v>45082</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36025,7 +36025,7 @@
         <v>45084</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36082,7 +36082,7 @@
         <v>45085</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36139,7 +36139,7 @@
         <v>45096</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36196,7 +36196,7 @@
         <v>45098</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36253,7 +36253,7 @@
         <v>45099</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36310,7 +36310,7 @@
         <v>45099</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36367,7 +36367,7 @@
         <v>45103</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36424,7 +36424,7 @@
         <v>45103</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36486,7 +36486,7 @@
         <v>45103</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36543,7 +36543,7 @@
         <v>45104</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36605,7 +36605,7 @@
         <v>45104</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         <v>45104</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36729,7 +36729,7 @@
         <v>45104</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         <v>45104</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36843,7 +36843,7 @@
         <v>45104</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36900,7 +36900,7 @@
         <v>45105</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36957,7 +36957,7 @@
         <v>45105</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37019,7 +37019,7 @@
         <v>45106</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37076,7 +37076,7 @@
         <v>45110</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37133,7 +37133,7 @@
         <v>45110</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37190,7 +37190,7 @@
         <v>45112</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37247,7 +37247,7 @@
         <v>45117</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37304,7 +37304,7 @@
         <v>45118</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37361,7 +37361,7 @@
         <v>45118</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37418,7 +37418,7 @@
         <v>45118</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37475,7 +37475,7 @@
         <v>45118</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37532,7 +37532,7 @@
         <v>45118</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37589,7 +37589,7 @@
         <v>45118</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37646,7 +37646,7 @@
         <v>45119</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37703,7 +37703,7 @@
         <v>45119</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37760,7 +37760,7 @@
         <v>45120</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37842,7 +37842,7 @@
         <v>45139</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37899,7 +37899,7 @@
         <v>45147</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37956,7 +37956,7 @@
         <v>45147</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>

--- a/Översikt RONNEBY.xlsx
+++ b/Översikt RONNEBY.xlsx
@@ -572,7 +572,7 @@
         <v>43781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43653</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44925</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>45093</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>43406</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43502</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>43514</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>43529</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1274,7 +1274,7 @@
         <v>43608</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>43640</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>43817</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>44284</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1619,7 +1619,7 @@
         <v>44298</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>44305</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>44344</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>44425</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44952</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>44985</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>44998</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>45012</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>45145</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>45152</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         <v>43319</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         <v>43326</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         <v>43333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>43341</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>43343</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>43347</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>43350</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>43353</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>43354</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>43354</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>43357</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>43361</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         <v>43368</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
         <v>43369</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         <v>43370</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>43371</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         <v>43383</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>43390</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         <v>43390</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>43395</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>43395</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43397</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43397</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43397</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43397</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43397</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43398</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>43399</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43401</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43402</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43409</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>43409</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>43412</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43412</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>43413</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43419</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>43419</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4694,7 +4694,7 @@
         <v>43419</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>43419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43422</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43424</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>43424</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>43427</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43431</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43432</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43437</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43437</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43439</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>43451</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         <v>43451</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>43451</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43451</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>43451</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43451</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43451</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43451</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43452</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43455</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>43471</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43473</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43473</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43475</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43482</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43485</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43488</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43491</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43491</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43491</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43501</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43501</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43503</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>43507</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>43508</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>43508</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>43511</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>43514</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43514</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>43515</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43518</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43521</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43521</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43522</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>43529</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43529</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>43531</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>43531</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>43532</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43534</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>43534</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>43537</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>43537</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>43538</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>43544</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>43548</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43552</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43554</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>43558</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>43558</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>43563</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>43563</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8360,7 +8360,7 @@
         <v>43564</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>43565</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>43570</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>43570</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>43570</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>43570</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43572</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43572</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>43572</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>43572</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>43573</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43573</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43573</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>43573</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>43573</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>43573</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>43573</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>43573</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>43580</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         <v>43580</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>43581</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>43581</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>43600</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>43600</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>43600</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
         <v>43601</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43601</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43605</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43614</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43619</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43619</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43619</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43619</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43619</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43619</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43619</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43621</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43627</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10591,7 +10591,7 @@
         <v>43627</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10648,7 +10648,7 @@
         <v>43629</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>43629</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>43629</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>43630</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>43640</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>43647</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>43647</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>43647</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>43647</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>43648</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>43648</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>43648</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>43650</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>43655</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>43662</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>43662</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>43669</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
         <v>43670</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>43670</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11741,7 +11741,7 @@
         <v>43677</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11798,7 +11798,7 @@
         <v>43677</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         <v>43678</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>43678</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>43681</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>43682</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>43682</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>43684</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>43685</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>43685</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>43685</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>43685</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>43689</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>43690</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>43692</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
         <v>43692</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>43692</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>43692</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>43696</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>43697</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>43698</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>43698</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43699</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>43705</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>43705</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>43706</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>43707</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>43707</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>43710</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>43710</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>43711</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>43711</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>43711</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>43712</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13704,7 +13704,7 @@
         <v>43712</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>43717</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13818,7 +13818,7 @@
         <v>43718</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         <v>43720</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>43725</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>43725</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>43725</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>43725</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>43726</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>43726</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>43727</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>43727</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>43730</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>43733</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>43741</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>43741</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>43742</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>43745</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14730,7 +14730,7 @@
         <v>43746</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14787,7 +14787,7 @@
         <v>43746</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14844,7 +14844,7 @@
         <v>43748</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14901,7 +14901,7 @@
         <v>43749</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>43749</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>43752</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>43754</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>43755</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>43755</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>43761</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>43761</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>43763</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>43766</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>43766</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>43767</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>43767</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>43768</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15699,7 +15699,7 @@
         <v>43770</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>43781</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>43781</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>43781</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>43783</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>43783</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>43787</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>43790</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>43803</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>43803</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>43804</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>43808</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>43811</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>43811</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>43817</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>43817</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
         <v>43817</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         <v>43818</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         <v>43822</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         <v>43822</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>43833</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16906,7 +16906,7 @@
         <v>43837</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>43837</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>43838</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>43847</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>43850</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>43852</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>43852</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>43853</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         <v>43853</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17419,7 +17419,7 @@
         <v>43854</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>43854</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>43858</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>43860</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>43874</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17709,7 +17709,7 @@
         <v>43878</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17766,7 +17766,7 @@
         <v>43878</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17823,7 +17823,7 @@
         <v>43880</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17885,7 +17885,7 @@
         <v>43881</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         <v>43889</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17999,7 +17999,7 @@
         <v>43895</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18056,7 +18056,7 @@
         <v>43903</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>43906</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>43909</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18232,7 +18232,7 @@
         <v>43914</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18289,7 +18289,7 @@
         <v>43914</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18346,7 +18346,7 @@
         <v>43915</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18403,7 +18403,7 @@
         <v>43929</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         <v>43938</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18517,7 +18517,7 @@
         <v>43950</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         <v>43963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>43969</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>43979</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>43984</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>43992</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>43992</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>43992</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18973,7 +18973,7 @@
         <v>44004</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19030,7 +19030,7 @@
         <v>44005</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19087,7 +19087,7 @@
         <v>44005</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19144,7 +19144,7 @@
         <v>44007</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19201,7 +19201,7 @@
         <v>44019</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>44025</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         <v>44025</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19372,7 +19372,7 @@
         <v>44027</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19429,7 +19429,7 @@
         <v>44027</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         <v>44027</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>44027</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>44027</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19657,7 +19657,7 @@
         <v>44029</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19714,7 +19714,7 @@
         <v>44032</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19771,7 +19771,7 @@
         <v>44032</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19828,7 +19828,7 @@
         <v>44032</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19885,7 +19885,7 @@
         <v>44035</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19947,7 +19947,7 @@
         <v>44047</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20004,7 +20004,7 @@
         <v>44050</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         <v>44055</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20123,7 +20123,7 @@
         <v>44055</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20180,7 +20180,7 @@
         <v>44060</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20237,7 +20237,7 @@
         <v>44061</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20294,7 +20294,7 @@
         <v>44063</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20351,7 +20351,7 @@
         <v>44068</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20408,7 +20408,7 @@
         <v>44070</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20470,7 +20470,7 @@
         <v>44070</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>44070</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>44070</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>44074</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>44075</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20770,7 +20770,7 @@
         <v>44076</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         <v>44077</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>44077</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44078</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>44084</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>44088</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>44088</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>44089</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44095</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44096</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44102</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>44102</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21454,7 +21454,7 @@
         <v>44103</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21511,7 +21511,7 @@
         <v>44104</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21568,7 +21568,7 @@
         <v>44104</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21625,7 +21625,7 @@
         <v>44104</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21682,7 +21682,7 @@
         <v>44104</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21739,7 +21739,7 @@
         <v>44104</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44106</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44106</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44106</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44113</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22029,7 +22029,7 @@
         <v>44117</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22086,7 +22086,7 @@
         <v>44119</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22143,7 +22143,7 @@
         <v>44119</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22200,7 +22200,7 @@
         <v>44120</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22257,7 +22257,7 @@
         <v>44124</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22314,7 +22314,7 @@
         <v>44127</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22371,7 +22371,7 @@
         <v>44127</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22428,7 +22428,7 @@
         <v>44127</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22485,7 +22485,7 @@
         <v>44131</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22542,7 +22542,7 @@
         <v>44137</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22599,7 +22599,7 @@
         <v>44138</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22656,7 +22656,7 @@
         <v>44138</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
         <v>44139</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22770,7 +22770,7 @@
         <v>44139</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22827,7 +22827,7 @@
         <v>44147</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22884,7 +22884,7 @@
         <v>44147</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22941,7 +22941,7 @@
         <v>44152</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22998,7 +22998,7 @@
         <v>44154</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23055,7 +23055,7 @@
         <v>44158</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23112,7 +23112,7 @@
         <v>44159</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23169,7 +23169,7 @@
         <v>44159</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23226,7 +23226,7 @@
         <v>44181</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23283,7 +23283,7 @@
         <v>44187</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23340,7 +23340,7 @@
         <v>44203</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23397,7 +23397,7 @@
         <v>44203</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23454,7 +23454,7 @@
         <v>44206</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23511,7 +23511,7 @@
         <v>44207</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>44209</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>44215</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23687,7 +23687,7 @@
         <v>44216</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23749,7 +23749,7 @@
         <v>44218</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23806,7 +23806,7 @@
         <v>44218</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
         <v>44222</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23920,7 +23920,7 @@
         <v>44236</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44238</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44238</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44239</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44245</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24205,7 +24205,7 @@
         <v>44246</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>44249</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>44253</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24376,7 +24376,7 @@
         <v>44257</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24433,7 +24433,7 @@
         <v>44257</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24490,7 +24490,7 @@
         <v>44258</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44258</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24604,7 +24604,7 @@
         <v>44259</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24661,7 +24661,7 @@
         <v>44271</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24718,7 +24718,7 @@
         <v>44271</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24775,7 +24775,7 @@
         <v>44278</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24832,7 +24832,7 @@
         <v>44279</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24889,7 +24889,7 @@
         <v>44300</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         <v>44300</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         <v>44307</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25060,7 +25060,7 @@
         <v>44307</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25117,7 +25117,7 @@
         <v>44307</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25174,7 +25174,7 @@
         <v>44307</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25231,7 +25231,7 @@
         <v>44307</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25288,7 +25288,7 @@
         <v>44311</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25345,7 +25345,7 @@
         <v>44312</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25402,7 +25402,7 @@
         <v>44316</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25459,7 +25459,7 @@
         <v>44319</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>44326</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25573,7 +25573,7 @@
         <v>44326</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25630,7 +25630,7 @@
         <v>44340</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25687,7 +25687,7 @@
         <v>44341</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25744,7 +25744,7 @@
         <v>44343</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>44361</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>44370</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>44370</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>44371</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44374</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44375</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44375</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44378</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44385</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44419</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26381,7 +26381,7 @@
         <v>44420</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>44421</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>44424</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>44425</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26614,7 +26614,7 @@
         <v>44432</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26671,7 +26671,7 @@
         <v>44432</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>44439</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>44451</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         <v>44456</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>44465</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>44466</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>44468</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27070,7 +27070,7 @@
         <v>44474</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27127,7 +27127,7 @@
         <v>44474</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27184,7 +27184,7 @@
         <v>44489</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27241,7 +27241,7 @@
         <v>44490</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27298,7 +27298,7 @@
         <v>44490</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27355,7 +27355,7 @@
         <v>44493</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27412,7 +27412,7 @@
         <v>44494</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27469,7 +27469,7 @@
         <v>44501</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27526,7 +27526,7 @@
         <v>44503</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27583,7 +27583,7 @@
         <v>44504</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27640,7 +27640,7 @@
         <v>44504</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27697,7 +27697,7 @@
         <v>44529</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27754,7 +27754,7 @@
         <v>44539</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         <v>44546</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27868,7 +27868,7 @@
         <v>44553</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27925,7 +27925,7 @@
         <v>44565</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27982,7 +27982,7 @@
         <v>44571</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28039,7 +28039,7 @@
         <v>44573</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28096,7 +28096,7 @@
         <v>44579</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28153,7 +28153,7 @@
         <v>44581</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28210,7 +28210,7 @@
         <v>44589</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28267,7 +28267,7 @@
         <v>44595</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28324,7 +28324,7 @@
         <v>44596</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28381,7 +28381,7 @@
         <v>44601</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28438,7 +28438,7 @@
         <v>44606</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28495,7 +28495,7 @@
         <v>44609</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28552,7 +28552,7 @@
         <v>44617</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28609,7 +28609,7 @@
         <v>44617</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28671,7 +28671,7 @@
         <v>44627</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28728,7 +28728,7 @@
         <v>44627</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28785,7 +28785,7 @@
         <v>44630</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28842,7 +28842,7 @@
         <v>44636</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28899,7 +28899,7 @@
         <v>44637</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28956,7 +28956,7 @@
         <v>44638</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29013,7 +29013,7 @@
         <v>44645</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29070,7 +29070,7 @@
         <v>44649</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29127,7 +29127,7 @@
         <v>44651</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29184,7 +29184,7 @@
         <v>44655</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29246,7 +29246,7 @@
         <v>44655</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29308,7 +29308,7 @@
         <v>44656</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29365,7 +29365,7 @@
         <v>44676</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29422,7 +29422,7 @@
         <v>44694</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29479,7 +29479,7 @@
         <v>44694</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29536,7 +29536,7 @@
         <v>44704</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29593,7 +29593,7 @@
         <v>44713</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29650,7 +29650,7 @@
         <v>44721</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29707,7 +29707,7 @@
         <v>44722</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29764,7 +29764,7 @@
         <v>44729</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29821,7 +29821,7 @@
         <v>44739</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29878,7 +29878,7 @@
         <v>44750</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>44753</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29997,7 +29997,7 @@
         <v>44756</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30054,7 +30054,7 @@
         <v>44756</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30111,7 +30111,7 @@
         <v>44756</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30168,7 +30168,7 @@
         <v>44762</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30230,7 +30230,7 @@
         <v>44762</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30292,7 +30292,7 @@
         <v>44762</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
         <v>44774</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30411,7 +30411,7 @@
         <v>44775</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30468,7 +30468,7 @@
         <v>44775</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30525,7 +30525,7 @@
         <v>44798</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30587,7 +30587,7 @@
         <v>44806</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30644,7 +30644,7 @@
         <v>44806</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30701,7 +30701,7 @@
         <v>44809</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30758,7 +30758,7 @@
         <v>44817</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30815,7 +30815,7 @@
         <v>44827</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30872,7 +30872,7 @@
         <v>44834</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30929,7 +30929,7 @@
         <v>44848</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30986,7 +30986,7 @@
         <v>44848</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>44854</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31100,7 +31100,7 @@
         <v>44860</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31157,7 +31157,7 @@
         <v>44862</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31214,7 +31214,7 @@
         <v>44865</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31271,7 +31271,7 @@
         <v>44872</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31328,7 +31328,7 @@
         <v>44872</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31385,7 +31385,7 @@
         <v>44890</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31442,7 +31442,7 @@
         <v>44890</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31499,7 +31499,7 @@
         <v>44893</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31556,7 +31556,7 @@
         <v>44902</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31613,7 +31613,7 @@
         <v>44903</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31670,7 +31670,7 @@
         <v>44903</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31727,7 +31727,7 @@
         <v>44916</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31784,7 +31784,7 @@
         <v>44925</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31841,7 +31841,7 @@
         <v>44937</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31898,7 +31898,7 @@
         <v>44939</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31955,7 +31955,7 @@
         <v>44944</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32012,7 +32012,7 @@
         <v>44956</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32069,7 +32069,7 @@
         <v>44956</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32126,7 +32126,7 @@
         <v>44957</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32183,7 +32183,7 @@
         <v>44966</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32240,7 +32240,7 @@
         <v>44969</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32297,7 +32297,7 @@
         <v>44972</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32354,7 +32354,7 @@
         <v>44973</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>44973</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32478,7 +32478,7 @@
         <v>44973</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32540,7 +32540,7 @@
         <v>44973</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32602,7 +32602,7 @@
         <v>44980</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32664,7 +32664,7 @@
         <v>44980</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32726,7 +32726,7 @@
         <v>44980</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32788,7 +32788,7 @@
         <v>44981</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32845,7 +32845,7 @@
         <v>44987</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32902,7 +32902,7 @@
         <v>44992</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32964,7 +32964,7 @@
         <v>44998</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33021,7 +33021,7 @@
         <v>45001</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33078,7 +33078,7 @@
         <v>45001</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33135,7 +33135,7 @@
         <v>45001</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33192,7 +33192,7 @@
         <v>45001</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33249,7 +33249,7 @@
         <v>45002</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33306,7 +33306,7 @@
         <v>45006</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33363,7 +33363,7 @@
         <v>45006</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33420,7 +33420,7 @@
         <v>45006</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33477,7 +33477,7 @@
         <v>45009</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33534,7 +33534,7 @@
         <v>45012</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33591,7 +33591,7 @@
         <v>45012</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33653,7 +33653,7 @@
         <v>45012</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33710,7 +33710,7 @@
         <v>45012</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33767,7 +33767,7 @@
         <v>45012</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33829,7 +33829,7 @@
         <v>45012</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33886,7 +33886,7 @@
         <v>45012</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33943,7 +33943,7 @@
         <v>45012</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34005,7 +34005,7 @@
         <v>45019</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34062,7 +34062,7 @@
         <v>45019</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34119,7 +34119,7 @@
         <v>45019</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34176,7 +34176,7 @@
         <v>45028</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34233,7 +34233,7 @@
         <v>45029</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34290,7 +34290,7 @@
         <v>45036</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34347,7 +34347,7 @@
         <v>45040</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34404,7 +34404,7 @@
         <v>45041</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34461,7 +34461,7 @@
         <v>45042</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34518,7 +34518,7 @@
         <v>45049</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34575,7 +34575,7 @@
         <v>45049</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34632,7 +34632,7 @@
         <v>45053</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34689,7 +34689,7 @@
         <v>45055</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34746,7 +34746,7 @@
         <v>45056</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34803,7 +34803,7 @@
         <v>45058</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34860,7 +34860,7 @@
         <v>45058</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34917,7 +34917,7 @@
         <v>45061</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34974,7 +34974,7 @@
         <v>45061</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35031,7 +35031,7 @@
         <v>45061</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35088,7 +35088,7 @@
         <v>45061</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35145,7 +35145,7 @@
         <v>45061</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35202,7 +35202,7 @@
         <v>45062</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35264,7 +35264,7 @@
         <v>45062</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35326,7 +35326,7 @@
         <v>45063</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35388,7 +35388,7 @@
         <v>45063</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35450,7 +35450,7 @@
         <v>45068</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35507,7 +35507,7 @@
         <v>45070</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35564,7 +35564,7 @@
         <v>45072</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35621,7 +35621,7 @@
         <v>45072</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35678,7 +35678,7 @@
         <v>45072</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35735,7 +35735,7 @@
         <v>45075</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35792,7 +35792,7 @@
         <v>45075</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35849,7 +35849,7 @@
         <v>45078</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         <v>45078</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35963,7 +35963,7 @@
         <v>45082</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36025,7 +36025,7 @@
         <v>45084</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36082,7 +36082,7 @@
         <v>45085</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36139,7 +36139,7 @@
         <v>45096</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36196,7 +36196,7 @@
         <v>45098</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36253,7 +36253,7 @@
         <v>45099</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36310,7 +36310,7 @@
         <v>45099</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36367,7 +36367,7 @@
         <v>45103</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36424,7 +36424,7 @@
         <v>45103</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36486,7 +36486,7 @@
         <v>45103</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36543,7 +36543,7 @@
         <v>45104</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36605,7 +36605,7 @@
         <v>45104</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         <v>45104</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36729,7 +36729,7 @@
         <v>45104</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         <v>45104</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36843,7 +36843,7 @@
         <v>45104</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36900,7 +36900,7 @@
         <v>45105</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36957,7 +36957,7 @@
         <v>45105</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37019,7 +37019,7 @@
         <v>45106</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37076,7 +37076,7 @@
         <v>45110</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37133,7 +37133,7 @@
         <v>45110</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37190,7 +37190,7 @@
         <v>45112</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37247,7 +37247,7 @@
         <v>45117</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37304,7 +37304,7 @@
         <v>45118</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37361,7 +37361,7 @@
         <v>45118</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37418,7 +37418,7 @@
         <v>45118</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37475,7 +37475,7 @@
         <v>45118</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37532,7 +37532,7 @@
         <v>45118</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37589,7 +37589,7 @@
         <v>45118</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37646,7 +37646,7 @@
         <v>45119</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37703,7 +37703,7 @@
         <v>45119</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37760,7 +37760,7 @@
         <v>45120</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37842,7 +37842,7 @@
         <v>45139</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37899,7 +37899,7 @@
         <v>45147</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37956,7 +37956,7 @@
         <v>45147</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>

--- a/Översikt RONNEBY.xlsx
+++ b/Översikt RONNEBY.xlsx
@@ -572,7 +572,7 @@
         <v>43781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43653</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44925</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>45093</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>43406</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43502</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>43514</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>43529</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1274,7 +1274,7 @@
         <v>43608</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>43640</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>43817</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>44284</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1619,7 +1619,7 @@
         <v>44298</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>44305</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>44344</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>44425</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44952</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>44985</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>44998</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>45012</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>45145</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>45152</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         <v>43319</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         <v>43326</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         <v>43333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>43341</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>43343</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>43347</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>43350</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>43353</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>43354</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>43354</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>43357</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>43361</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         <v>43368</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
         <v>43369</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         <v>43370</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>43371</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         <v>43383</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>43390</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         <v>43390</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>43395</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>43395</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43397</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43397</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43397</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43397</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43397</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43398</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>43399</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43401</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43402</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43409</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>43409</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>43412</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43412</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>43413</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43419</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>43419</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4694,7 +4694,7 @@
         <v>43419</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>43419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43422</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43424</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>43424</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>43427</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43431</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43432</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43437</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43437</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43439</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>43451</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         <v>43451</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>43451</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43451</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>43451</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43451</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43451</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43451</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43452</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43455</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>43471</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43473</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43473</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43475</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43482</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43485</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43488</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43491</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43491</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43491</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43501</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43501</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43503</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>43507</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>43508</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>43508</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>43511</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>43514</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43514</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>43515</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43518</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43521</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43521</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43522</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>43529</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43529</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>43531</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>43531</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>43532</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43534</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>43534</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>43537</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>43537</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>43538</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>43544</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>43548</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43552</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43554</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>43558</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>43558</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>43563</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>43563</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8360,7 +8360,7 @@
         <v>43564</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>43565</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>43570</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>43570</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>43570</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>43570</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43572</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43572</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>43572</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>43572</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>43573</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43573</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43573</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>43573</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>43573</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>43573</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>43573</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>43573</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>43580</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         <v>43580</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>43581</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>43581</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>43600</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>43600</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>43600</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
         <v>43601</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43601</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43605</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43614</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43619</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43619</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43619</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43619</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43619</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43619</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43619</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43621</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43627</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10591,7 +10591,7 @@
         <v>43627</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10648,7 +10648,7 @@
         <v>43629</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>43629</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>43629</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>43630</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>43640</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>43647</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>43647</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>43647</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>43647</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>43648</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>43648</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>43648</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>43650</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>43655</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>43662</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>43662</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>43669</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
         <v>43670</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>43670</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11741,7 +11741,7 @@
         <v>43677</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11798,7 +11798,7 @@
         <v>43677</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         <v>43678</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>43678</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>43681</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>43682</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>43682</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>43684</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>43685</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>43685</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>43685</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>43685</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>43689</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>43690</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>43692</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
         <v>43692</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>43692</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>43692</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>43696</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>43697</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>43698</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>43698</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43699</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>43705</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>43705</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>43706</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>43707</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>43707</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>43710</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>43710</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>43711</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>43711</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>43711</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>43712</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13704,7 +13704,7 @@
         <v>43712</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>43717</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13818,7 +13818,7 @@
         <v>43718</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         <v>43720</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>43725</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>43725</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>43725</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>43725</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>43726</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>43726</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>43727</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>43727</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>43730</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>43733</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>43741</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>43741</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>43742</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>43745</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14730,7 +14730,7 @@
         <v>43746</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14787,7 +14787,7 @@
         <v>43746</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14844,7 +14844,7 @@
         <v>43748</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14901,7 +14901,7 @@
         <v>43749</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>43749</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>43752</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>43754</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>43755</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>43755</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>43761</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>43761</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>43763</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>43766</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>43766</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>43767</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>43767</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>43768</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15699,7 +15699,7 @@
         <v>43770</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>43781</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>43781</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>43781</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>43783</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>43783</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>43787</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>43790</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>43803</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>43803</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>43804</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>43808</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>43811</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>43811</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>43817</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>43817</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
         <v>43817</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         <v>43818</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         <v>43822</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         <v>43822</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>43833</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16906,7 +16906,7 @@
         <v>43837</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>43837</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>43838</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>43847</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>43850</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>43852</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>43852</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>43853</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         <v>43853</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17419,7 +17419,7 @@
         <v>43854</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>43854</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>43858</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>43860</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>43874</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17709,7 +17709,7 @@
         <v>43878</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17766,7 +17766,7 @@
         <v>43878</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17823,7 +17823,7 @@
         <v>43880</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17885,7 +17885,7 @@
         <v>43881</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         <v>43889</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17999,7 +17999,7 @@
         <v>43895</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18056,7 +18056,7 @@
         <v>43903</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>43906</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>43909</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18232,7 +18232,7 @@
         <v>43914</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18289,7 +18289,7 @@
         <v>43914</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18346,7 +18346,7 @@
         <v>43915</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18403,7 +18403,7 @@
         <v>43929</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         <v>43938</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18517,7 +18517,7 @@
         <v>43950</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         <v>43963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>43969</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>43979</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>43984</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>43992</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>43992</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>43992</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18973,7 +18973,7 @@
         <v>44004</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19030,7 +19030,7 @@
         <v>44005</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19087,7 +19087,7 @@
         <v>44005</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19144,7 +19144,7 @@
         <v>44007</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19201,7 +19201,7 @@
         <v>44019</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>44025</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         <v>44025</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19372,7 +19372,7 @@
         <v>44027</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19429,7 +19429,7 @@
         <v>44027</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         <v>44027</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>44027</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>44027</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19657,7 +19657,7 @@
         <v>44029</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19714,7 +19714,7 @@
         <v>44032</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19771,7 +19771,7 @@
         <v>44032</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19828,7 +19828,7 @@
         <v>44032</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19885,7 +19885,7 @@
         <v>44035</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19947,7 +19947,7 @@
         <v>44047</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20004,7 +20004,7 @@
         <v>44050</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         <v>44055</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20123,7 +20123,7 @@
         <v>44055</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20180,7 +20180,7 @@
         <v>44060</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20237,7 +20237,7 @@
         <v>44061</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20294,7 +20294,7 @@
         <v>44063</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20351,7 +20351,7 @@
         <v>44068</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20408,7 +20408,7 @@
         <v>44070</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20470,7 +20470,7 @@
         <v>44070</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>44070</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>44070</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>44074</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>44075</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20770,7 +20770,7 @@
         <v>44076</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         <v>44077</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>44077</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44078</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>44084</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>44088</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>44088</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>44089</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44095</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44096</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44102</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>44102</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21454,7 +21454,7 @@
         <v>44103</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21511,7 +21511,7 @@
         <v>44104</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21568,7 +21568,7 @@
         <v>44104</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21625,7 +21625,7 @@
         <v>44104</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21682,7 +21682,7 @@
         <v>44104</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21739,7 +21739,7 @@
         <v>44104</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44106</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44106</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44106</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44113</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22029,7 +22029,7 @@
         <v>44117</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22086,7 +22086,7 @@
         <v>44119</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22143,7 +22143,7 @@
         <v>44119</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22200,7 +22200,7 @@
         <v>44120</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22257,7 +22257,7 @@
         <v>44124</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22314,7 +22314,7 @@
         <v>44127</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22371,7 +22371,7 @@
         <v>44127</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22428,7 +22428,7 @@
         <v>44127</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22485,7 +22485,7 @@
         <v>44131</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22542,7 +22542,7 @@
         <v>44137</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22599,7 +22599,7 @@
         <v>44138</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22656,7 +22656,7 @@
         <v>44138</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
         <v>44139</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22770,7 +22770,7 @@
         <v>44139</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22827,7 +22827,7 @@
         <v>44147</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22884,7 +22884,7 @@
         <v>44147</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22941,7 +22941,7 @@
         <v>44152</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22998,7 +22998,7 @@
         <v>44154</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23055,7 +23055,7 @@
         <v>44158</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23112,7 +23112,7 @@
         <v>44159</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23169,7 +23169,7 @@
         <v>44159</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23226,7 +23226,7 @@
         <v>44181</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23283,7 +23283,7 @@
         <v>44187</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23340,7 +23340,7 @@
         <v>44203</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23397,7 +23397,7 @@
         <v>44203</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23454,7 +23454,7 @@
         <v>44206</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23511,7 +23511,7 @@
         <v>44207</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>44209</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>44215</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23687,7 +23687,7 @@
         <v>44216</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23749,7 +23749,7 @@
         <v>44218</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23806,7 +23806,7 @@
         <v>44218</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
         <v>44222</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23920,7 +23920,7 @@
         <v>44236</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44238</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44238</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44239</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44245</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24205,7 +24205,7 @@
         <v>44246</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>44249</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>44253</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24376,7 +24376,7 @@
         <v>44257</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24433,7 +24433,7 @@
         <v>44257</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24490,7 +24490,7 @@
         <v>44258</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44258</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24604,7 +24604,7 @@
         <v>44259</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24661,7 +24661,7 @@
         <v>44271</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24718,7 +24718,7 @@
         <v>44271</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24775,7 +24775,7 @@
         <v>44278</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24832,7 +24832,7 @@
         <v>44279</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24889,7 +24889,7 @@
         <v>44300</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         <v>44300</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         <v>44307</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25060,7 +25060,7 @@
         <v>44307</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25117,7 +25117,7 @@
         <v>44307</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25174,7 +25174,7 @@
         <v>44307</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25231,7 +25231,7 @@
         <v>44307</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25288,7 +25288,7 @@
         <v>44311</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25345,7 +25345,7 @@
         <v>44312</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25402,7 +25402,7 @@
         <v>44316</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25459,7 +25459,7 @@
         <v>44319</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>44326</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25573,7 +25573,7 @@
         <v>44326</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25630,7 +25630,7 @@
         <v>44340</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25687,7 +25687,7 @@
         <v>44341</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25744,7 +25744,7 @@
         <v>44343</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>44361</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>44370</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>44370</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>44371</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44374</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44375</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44375</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44378</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44385</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44419</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26381,7 +26381,7 @@
         <v>44420</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>44421</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>44424</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>44425</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26614,7 +26614,7 @@
         <v>44432</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26671,7 +26671,7 @@
         <v>44432</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>44439</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>44451</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         <v>44456</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>44465</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>44466</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>44468</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27070,7 +27070,7 @@
         <v>44474</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27127,7 +27127,7 @@
         <v>44474</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27184,7 +27184,7 @@
         <v>44489</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27241,7 +27241,7 @@
         <v>44490</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27298,7 +27298,7 @@
         <v>44490</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27355,7 +27355,7 @@
         <v>44493</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27412,7 +27412,7 @@
         <v>44494</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27469,7 +27469,7 @@
         <v>44501</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27526,7 +27526,7 @@
         <v>44503</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27583,7 +27583,7 @@
         <v>44504</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27640,7 +27640,7 @@
         <v>44504</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27697,7 +27697,7 @@
         <v>44529</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27754,7 +27754,7 @@
         <v>44539</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         <v>44546</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27868,7 +27868,7 @@
         <v>44553</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27925,7 +27925,7 @@
         <v>44565</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27982,7 +27982,7 @@
         <v>44571</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28039,7 +28039,7 @@
         <v>44573</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28096,7 +28096,7 @@
         <v>44579</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28153,7 +28153,7 @@
         <v>44581</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28210,7 +28210,7 @@
         <v>44589</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28267,7 +28267,7 @@
         <v>44595</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28324,7 +28324,7 @@
         <v>44596</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28381,7 +28381,7 @@
         <v>44601</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28438,7 +28438,7 @@
         <v>44606</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28495,7 +28495,7 @@
         <v>44609</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28552,7 +28552,7 @@
         <v>44617</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28609,7 +28609,7 @@
         <v>44617</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28671,7 +28671,7 @@
         <v>44627</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28728,7 +28728,7 @@
         <v>44627</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28785,7 +28785,7 @@
         <v>44630</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28842,7 +28842,7 @@
         <v>44636</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28899,7 +28899,7 @@
         <v>44637</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28956,7 +28956,7 @@
         <v>44638</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29013,7 +29013,7 @@
         <v>44645</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29070,7 +29070,7 @@
         <v>44649</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29127,7 +29127,7 @@
         <v>44651</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29184,7 +29184,7 @@
         <v>44655</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29246,7 +29246,7 @@
         <v>44655</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29308,7 +29308,7 @@
         <v>44656</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29365,7 +29365,7 @@
         <v>44676</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29422,7 +29422,7 @@
         <v>44694</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29479,7 +29479,7 @@
         <v>44694</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29536,7 +29536,7 @@
         <v>44704</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29593,7 +29593,7 @@
         <v>44713</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29650,7 +29650,7 @@
         <v>44721</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29707,7 +29707,7 @@
         <v>44722</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29764,7 +29764,7 @@
         <v>44729</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29821,7 +29821,7 @@
         <v>44739</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29878,7 +29878,7 @@
         <v>44750</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>44753</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29997,7 +29997,7 @@
         <v>44756</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30054,7 +30054,7 @@
         <v>44756</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30111,7 +30111,7 @@
         <v>44756</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30168,7 +30168,7 @@
         <v>44762</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30230,7 +30230,7 @@
         <v>44762</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30292,7 +30292,7 @@
         <v>44762</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
         <v>44774</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30411,7 +30411,7 @@
         <v>44775</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30468,7 +30468,7 @@
         <v>44775</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30525,7 +30525,7 @@
         <v>44798</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30587,7 +30587,7 @@
         <v>44806</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30644,7 +30644,7 @@
         <v>44806</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30701,7 +30701,7 @@
         <v>44809</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30758,7 +30758,7 @@
         <v>44817</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30815,7 +30815,7 @@
         <v>44827</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30872,7 +30872,7 @@
         <v>44834</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30929,7 +30929,7 @@
         <v>44848</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30986,7 +30986,7 @@
         <v>44848</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>44854</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31100,7 +31100,7 @@
         <v>44860</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31157,7 +31157,7 @@
         <v>44862</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31214,7 +31214,7 @@
         <v>44865</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31271,7 +31271,7 @@
         <v>44872</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31328,7 +31328,7 @@
         <v>44872</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31385,7 +31385,7 @@
         <v>44890</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31442,7 +31442,7 @@
         <v>44890</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31499,7 +31499,7 @@
         <v>44893</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31556,7 +31556,7 @@
         <v>44902</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31613,7 +31613,7 @@
         <v>44903</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31670,7 +31670,7 @@
         <v>44903</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31727,7 +31727,7 @@
         <v>44916</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31784,7 +31784,7 @@
         <v>44925</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31841,7 +31841,7 @@
         <v>44937</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31898,7 +31898,7 @@
         <v>44939</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31955,7 +31955,7 @@
         <v>44944</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32012,7 +32012,7 @@
         <v>44956</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32069,7 +32069,7 @@
         <v>44956</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32126,7 +32126,7 @@
         <v>44957</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32183,7 +32183,7 @@
         <v>44966</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32240,7 +32240,7 @@
         <v>44969</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32297,7 +32297,7 @@
         <v>44972</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32354,7 +32354,7 @@
         <v>44973</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>44973</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32478,7 +32478,7 @@
         <v>44973</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32540,7 +32540,7 @@
         <v>44973</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32602,7 +32602,7 @@
         <v>44980</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32664,7 +32664,7 @@
         <v>44980</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32726,7 +32726,7 @@
         <v>44980</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32788,7 +32788,7 @@
         <v>44981</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32845,7 +32845,7 @@
         <v>44987</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32902,7 +32902,7 @@
         <v>44992</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32964,7 +32964,7 @@
         <v>44998</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33021,7 +33021,7 @@
         <v>45001</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33078,7 +33078,7 @@
         <v>45001</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33135,7 +33135,7 @@
         <v>45001</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33192,7 +33192,7 @@
         <v>45001</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33249,7 +33249,7 @@
         <v>45002</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33306,7 +33306,7 @@
         <v>45006</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33363,7 +33363,7 @@
         <v>45006</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33420,7 +33420,7 @@
         <v>45006</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33477,7 +33477,7 @@
         <v>45009</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33534,7 +33534,7 @@
         <v>45012</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33591,7 +33591,7 @@
         <v>45012</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33653,7 +33653,7 @@
         <v>45012</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33710,7 +33710,7 @@
         <v>45012</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33767,7 +33767,7 @@
         <v>45012</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33829,7 +33829,7 @@
         <v>45012</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33886,7 +33886,7 @@
         <v>45012</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33943,7 +33943,7 @@
         <v>45012</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34005,7 +34005,7 @@
         <v>45019</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34062,7 +34062,7 @@
         <v>45019</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34119,7 +34119,7 @@
         <v>45019</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34176,7 +34176,7 @@
         <v>45028</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34233,7 +34233,7 @@
         <v>45029</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34290,7 +34290,7 @@
         <v>45036</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34347,7 +34347,7 @@
         <v>45040</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34404,7 +34404,7 @@
         <v>45041</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34461,7 +34461,7 @@
         <v>45042</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34518,7 +34518,7 @@
         <v>45049</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34575,7 +34575,7 @@
         <v>45049</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34632,7 +34632,7 @@
         <v>45053</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34689,7 +34689,7 @@
         <v>45055</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34746,7 +34746,7 @@
         <v>45056</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34803,7 +34803,7 @@
         <v>45058</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34860,7 +34860,7 @@
         <v>45058</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34917,7 +34917,7 @@
         <v>45061</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34974,7 +34974,7 @@
         <v>45061</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35031,7 +35031,7 @@
         <v>45061</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35088,7 +35088,7 @@
         <v>45061</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35145,7 +35145,7 @@
         <v>45061</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35202,7 +35202,7 @@
         <v>45062</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35264,7 +35264,7 @@
         <v>45062</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35326,7 +35326,7 @@
         <v>45063</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35388,7 +35388,7 @@
         <v>45063</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35450,7 +35450,7 @@
         <v>45068</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35507,7 +35507,7 @@
         <v>45070</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35564,7 +35564,7 @@
         <v>45072</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35621,7 +35621,7 @@
         <v>45072</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35678,7 +35678,7 @@
         <v>45072</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35735,7 +35735,7 @@
         <v>45075</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35792,7 +35792,7 @@
         <v>45075</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35849,7 +35849,7 @@
         <v>45078</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         <v>45078</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35963,7 +35963,7 @@
         <v>45082</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36025,7 +36025,7 @@
         <v>45084</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36082,7 +36082,7 @@
         <v>45085</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36139,7 +36139,7 @@
         <v>45096</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36196,7 +36196,7 @@
         <v>45098</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36253,7 +36253,7 @@
         <v>45099</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36310,7 +36310,7 @@
         <v>45099</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36367,7 +36367,7 @@
         <v>45103</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36424,7 +36424,7 @@
         <v>45103</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36486,7 +36486,7 @@
         <v>45103</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36543,7 +36543,7 @@
         <v>45104</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36605,7 +36605,7 @@
         <v>45104</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         <v>45104</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36729,7 +36729,7 @@
         <v>45104</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         <v>45104</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36843,7 +36843,7 @@
         <v>45104</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36900,7 +36900,7 @@
         <v>45105</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36957,7 +36957,7 @@
         <v>45105</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37019,7 +37019,7 @@
         <v>45106</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37076,7 +37076,7 @@
         <v>45110</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37133,7 +37133,7 @@
         <v>45110</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37190,7 +37190,7 @@
         <v>45112</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37247,7 +37247,7 @@
         <v>45117</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37304,7 +37304,7 @@
         <v>45118</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37361,7 +37361,7 @@
         <v>45118</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37418,7 +37418,7 @@
         <v>45118</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37475,7 +37475,7 @@
         <v>45118</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37532,7 +37532,7 @@
         <v>45118</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37589,7 +37589,7 @@
         <v>45118</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37646,7 +37646,7 @@
         <v>45119</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37703,7 +37703,7 @@
         <v>45119</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37760,7 +37760,7 @@
         <v>45120</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37842,7 +37842,7 @@
         <v>45139</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37899,7 +37899,7 @@
         <v>45147</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37956,7 +37956,7 @@
         <v>45147</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>

--- a/Översikt RONNEBY.xlsx
+++ b/Översikt RONNEBY.xlsx
@@ -572,7 +572,7 @@
         <v>43781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43653</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44925</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>45093</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>43406</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43502</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>43514</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>43529</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1274,7 +1274,7 @@
         <v>43608</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>43640</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>43817</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>44284</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1619,7 +1619,7 @@
         <v>44298</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>44305</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>44344</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>44425</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44952</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>44985</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>44998</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>45012</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>45145</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>45152</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         <v>43319</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         <v>43326</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         <v>43333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>43341</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>43343</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>43347</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>43350</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>43353</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>43354</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>43354</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>43357</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>43361</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         <v>43368</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
         <v>43369</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         <v>43370</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>43371</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         <v>43383</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>43390</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         <v>43390</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>43395</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>43395</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43397</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43397</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43397</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43397</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43397</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43398</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>43399</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43401</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43402</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43409</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>43409</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>43412</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43412</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>43413</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43419</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>43419</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4694,7 +4694,7 @@
         <v>43419</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>43419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43422</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43424</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>43424</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>43427</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43431</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43432</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43437</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43437</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43439</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>43451</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         <v>43451</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>43451</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43451</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>43451</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43451</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43451</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43451</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43452</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43455</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>43471</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43473</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43473</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43475</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43482</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43485</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43488</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43491</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43491</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43491</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43501</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43501</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43503</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>43507</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>43508</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>43508</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>43511</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>43514</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43514</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>43515</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43518</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43521</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43521</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43522</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>43529</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43529</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>43531</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>43531</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>43532</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43534</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>43534</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>43537</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>43537</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>43538</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>43544</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>43548</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43552</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43554</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>43558</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>43558</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>43563</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>43563</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8360,7 +8360,7 @@
         <v>43564</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>43565</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>43570</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>43570</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>43570</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>43570</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43572</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43572</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>43572</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>43572</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>43573</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43573</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43573</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>43573</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>43573</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>43573</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>43573</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>43573</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>43580</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         <v>43580</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>43581</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>43581</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>43600</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>43600</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>43600</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
         <v>43601</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43601</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43605</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43614</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43619</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43619</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43619</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43619</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43619</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43619</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43619</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43621</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43627</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10591,7 +10591,7 @@
         <v>43627</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10648,7 +10648,7 @@
         <v>43629</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>43629</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>43629</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>43630</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>43640</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>43647</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>43647</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>43647</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>43647</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>43648</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>43648</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>43648</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>43650</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>43655</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>43662</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>43662</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>43669</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
         <v>43670</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>43670</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11741,7 +11741,7 @@
         <v>43677</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11798,7 +11798,7 @@
         <v>43677</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         <v>43678</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>43678</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>43681</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>43682</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>43682</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>43684</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>43685</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>43685</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>43685</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>43685</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>43689</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>43690</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>43692</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
         <v>43692</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>43692</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>43692</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>43696</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>43697</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>43698</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>43698</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43699</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>43705</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>43705</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>43706</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>43707</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>43707</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>43710</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>43710</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>43711</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>43711</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>43711</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>43712</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13704,7 +13704,7 @@
         <v>43712</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>43717</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13818,7 +13818,7 @@
         <v>43718</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         <v>43720</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>43725</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>43725</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>43725</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>43725</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>43726</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>43726</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>43727</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>43727</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>43730</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>43733</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>43741</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>43741</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>43742</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>43745</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14730,7 +14730,7 @@
         <v>43746</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14787,7 +14787,7 @@
         <v>43746</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14844,7 +14844,7 @@
         <v>43748</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14901,7 +14901,7 @@
         <v>43749</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>43749</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>43752</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>43754</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>43755</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>43755</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>43761</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>43761</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>43763</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>43766</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>43766</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>43767</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>43767</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>43768</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15699,7 +15699,7 @@
         <v>43770</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>43781</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>43781</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>43781</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>43783</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>43783</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>43787</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>43790</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>43803</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>43803</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>43804</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>43808</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>43811</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>43811</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>43817</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>43817</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
         <v>43817</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         <v>43818</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         <v>43822</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         <v>43822</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>43833</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16906,7 +16906,7 @@
         <v>43837</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>43837</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>43838</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>43847</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>43850</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>43852</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>43852</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>43853</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         <v>43853</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17419,7 +17419,7 @@
         <v>43854</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>43854</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>43858</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>43860</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>43874</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17709,7 +17709,7 @@
         <v>43878</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17766,7 +17766,7 @@
         <v>43878</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17823,7 +17823,7 @@
         <v>43880</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17885,7 +17885,7 @@
         <v>43881</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         <v>43889</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17999,7 +17999,7 @@
         <v>43895</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18056,7 +18056,7 @@
         <v>43903</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>43906</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>43909</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18232,7 +18232,7 @@
         <v>43914</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18289,7 +18289,7 @@
         <v>43914</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18346,7 +18346,7 @@
         <v>43915</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18403,7 +18403,7 @@
         <v>43929</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         <v>43938</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18517,7 +18517,7 @@
         <v>43950</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         <v>43963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>43969</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>43979</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>43984</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>43992</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>43992</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>43992</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18973,7 +18973,7 @@
         <v>44004</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19030,7 +19030,7 @@
         <v>44005</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19087,7 +19087,7 @@
         <v>44005</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19144,7 +19144,7 @@
         <v>44007</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19201,7 +19201,7 @@
         <v>44019</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>44025</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         <v>44025</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19372,7 +19372,7 @@
         <v>44027</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19429,7 +19429,7 @@
         <v>44027</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         <v>44027</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>44027</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>44027</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19657,7 +19657,7 @@
         <v>44029</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19714,7 +19714,7 @@
         <v>44032</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19771,7 +19771,7 @@
         <v>44032</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19828,7 +19828,7 @@
         <v>44032</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19885,7 +19885,7 @@
         <v>44035</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19947,7 +19947,7 @@
         <v>44047</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20004,7 +20004,7 @@
         <v>44050</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         <v>44055</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20123,7 +20123,7 @@
         <v>44055</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20180,7 +20180,7 @@
         <v>44060</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20237,7 +20237,7 @@
         <v>44061</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20294,7 +20294,7 @@
         <v>44063</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20351,7 +20351,7 @@
         <v>44068</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20408,7 +20408,7 @@
         <v>44070</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20470,7 +20470,7 @@
         <v>44070</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>44070</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>44070</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>44074</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>44075</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20770,7 +20770,7 @@
         <v>44076</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         <v>44077</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>44077</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44078</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>44084</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>44088</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>44088</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>44089</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44095</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44096</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44102</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>44102</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21454,7 +21454,7 @@
         <v>44103</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21511,7 +21511,7 @@
         <v>44104</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21568,7 +21568,7 @@
         <v>44104</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21625,7 +21625,7 @@
         <v>44104</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21682,7 +21682,7 @@
         <v>44104</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21739,7 +21739,7 @@
         <v>44104</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44106</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44106</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44106</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44113</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22029,7 +22029,7 @@
         <v>44117</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22086,7 +22086,7 @@
         <v>44119</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22143,7 +22143,7 @@
         <v>44119</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22200,7 +22200,7 @@
         <v>44120</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22257,7 +22257,7 @@
         <v>44124</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22314,7 +22314,7 @@
         <v>44127</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22371,7 +22371,7 @@
         <v>44127</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22428,7 +22428,7 @@
         <v>44127</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22485,7 +22485,7 @@
         <v>44131</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22542,7 +22542,7 @@
         <v>44137</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22599,7 +22599,7 @@
         <v>44138</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22656,7 +22656,7 @@
         <v>44138</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
         <v>44139</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22770,7 +22770,7 @@
         <v>44139</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22827,7 +22827,7 @@
         <v>44147</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22884,7 +22884,7 @@
         <v>44147</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22941,7 +22941,7 @@
         <v>44152</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22998,7 +22998,7 @@
         <v>44154</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23055,7 +23055,7 @@
         <v>44158</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23112,7 +23112,7 @@
         <v>44159</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23169,7 +23169,7 @@
         <v>44159</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23226,7 +23226,7 @@
         <v>44181</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23283,7 +23283,7 @@
         <v>44187</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23340,7 +23340,7 @@
         <v>44203</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23397,7 +23397,7 @@
         <v>44203</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23454,7 +23454,7 @@
         <v>44206</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23511,7 +23511,7 @@
         <v>44207</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>44209</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>44215</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23687,7 +23687,7 @@
         <v>44216</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23749,7 +23749,7 @@
         <v>44218</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23806,7 +23806,7 @@
         <v>44218</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
         <v>44222</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23920,7 +23920,7 @@
         <v>44236</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44238</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44238</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44239</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44245</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24205,7 +24205,7 @@
         <v>44246</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>44249</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>44253</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24376,7 +24376,7 @@
         <v>44257</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24433,7 +24433,7 @@
         <v>44257</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24490,7 +24490,7 @@
         <v>44258</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44258</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24604,7 +24604,7 @@
         <v>44259</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24661,7 +24661,7 @@
         <v>44271</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24718,7 +24718,7 @@
         <v>44271</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24775,7 +24775,7 @@
         <v>44278</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24832,7 +24832,7 @@
         <v>44279</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24889,7 +24889,7 @@
         <v>44300</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         <v>44300</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         <v>44307</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25060,7 +25060,7 @@
         <v>44307</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25117,7 +25117,7 @@
         <v>44307</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25174,7 +25174,7 @@
         <v>44307</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25231,7 +25231,7 @@
         <v>44307</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25288,7 +25288,7 @@
         <v>44311</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25345,7 +25345,7 @@
         <v>44312</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25402,7 +25402,7 @@
         <v>44316</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25459,7 +25459,7 @@
         <v>44319</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>44326</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25573,7 +25573,7 @@
         <v>44326</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25630,7 +25630,7 @@
         <v>44340</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25687,7 +25687,7 @@
         <v>44341</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25744,7 +25744,7 @@
         <v>44343</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>44361</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>44370</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>44370</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>44371</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44374</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44375</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44375</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44378</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44385</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44419</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26381,7 +26381,7 @@
         <v>44420</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>44421</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>44424</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>44425</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26614,7 +26614,7 @@
         <v>44432</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26671,7 +26671,7 @@
         <v>44432</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>44439</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>44451</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         <v>44456</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>44465</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>44466</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>44468</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27070,7 +27070,7 @@
         <v>44474</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27127,7 +27127,7 @@
         <v>44474</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27184,7 +27184,7 @@
         <v>44489</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27241,7 +27241,7 @@
         <v>44490</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27298,7 +27298,7 @@
         <v>44490</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27355,7 +27355,7 @@
         <v>44493</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27412,7 +27412,7 @@
         <v>44494</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27469,7 +27469,7 @@
         <v>44501</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27526,7 +27526,7 @@
         <v>44503</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27583,7 +27583,7 @@
         <v>44504</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27640,7 +27640,7 @@
         <v>44504</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27697,7 +27697,7 @@
         <v>44529</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27754,7 +27754,7 @@
         <v>44539</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         <v>44546</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27868,7 +27868,7 @@
         <v>44553</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27925,7 +27925,7 @@
         <v>44565</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27982,7 +27982,7 @@
         <v>44571</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28039,7 +28039,7 @@
         <v>44573</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28096,7 +28096,7 @@
         <v>44579</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28153,7 +28153,7 @@
         <v>44581</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28210,7 +28210,7 @@
         <v>44589</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28267,7 +28267,7 @@
         <v>44595</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28324,7 +28324,7 @@
         <v>44596</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28381,7 +28381,7 @@
         <v>44601</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28438,7 +28438,7 @@
         <v>44606</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28495,7 +28495,7 @@
         <v>44609</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28552,7 +28552,7 @@
         <v>44617</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28609,7 +28609,7 @@
         <v>44617</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28671,7 +28671,7 @@
         <v>44627</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28728,7 +28728,7 @@
         <v>44627</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28785,7 +28785,7 @@
         <v>44630</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28842,7 +28842,7 @@
         <v>44636</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28899,7 +28899,7 @@
         <v>44637</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28956,7 +28956,7 @@
         <v>44638</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29013,7 +29013,7 @@
         <v>44645</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29070,7 +29070,7 @@
         <v>44649</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29127,7 +29127,7 @@
         <v>44651</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29184,7 +29184,7 @@
         <v>44655</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29246,7 +29246,7 @@
         <v>44655</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29308,7 +29308,7 @@
         <v>44656</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29365,7 +29365,7 @@
         <v>44676</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29422,7 +29422,7 @@
         <v>44694</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29479,7 +29479,7 @@
         <v>44694</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29536,7 +29536,7 @@
         <v>44704</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29593,7 +29593,7 @@
         <v>44713</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29650,7 +29650,7 @@
         <v>44721</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29707,7 +29707,7 @@
         <v>44722</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29764,7 +29764,7 @@
         <v>44729</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29821,7 +29821,7 @@
         <v>44739</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29878,7 +29878,7 @@
         <v>44750</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>44753</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29997,7 +29997,7 @@
         <v>44756</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30054,7 +30054,7 @@
         <v>44756</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30111,7 +30111,7 @@
         <v>44756</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30168,7 +30168,7 @@
         <v>44762</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30230,7 +30230,7 @@
         <v>44762</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30292,7 +30292,7 @@
         <v>44762</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
         <v>44774</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30411,7 +30411,7 @@
         <v>44775</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30468,7 +30468,7 @@
         <v>44775</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30525,7 +30525,7 @@
         <v>44798</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30587,7 +30587,7 @@
         <v>44806</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30644,7 +30644,7 @@
         <v>44806</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30701,7 +30701,7 @@
         <v>44809</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30758,7 +30758,7 @@
         <v>44817</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30815,7 +30815,7 @@
         <v>44827</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30872,7 +30872,7 @@
         <v>44834</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30929,7 +30929,7 @@
         <v>44848</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30986,7 +30986,7 @@
         <v>44848</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>44854</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31100,7 +31100,7 @@
         <v>44860</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31157,7 +31157,7 @@
         <v>44862</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31214,7 +31214,7 @@
         <v>44865</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31271,7 +31271,7 @@
         <v>44872</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31328,7 +31328,7 @@
         <v>44872</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31385,7 +31385,7 @@
         <v>44890</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31442,7 +31442,7 @@
         <v>44890</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31499,7 +31499,7 @@
         <v>44893</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31556,7 +31556,7 @@
         <v>44902</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31613,7 +31613,7 @@
         <v>44903</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31670,7 +31670,7 @@
         <v>44903</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31727,7 +31727,7 @@
         <v>44916</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31784,7 +31784,7 @@
         <v>44925</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31841,7 +31841,7 @@
         <v>44937</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31898,7 +31898,7 @@
         <v>44939</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31955,7 +31955,7 @@
         <v>44944</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32012,7 +32012,7 @@
         <v>44956</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32069,7 +32069,7 @@
         <v>44956</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32126,7 +32126,7 @@
         <v>44957</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32183,7 +32183,7 @@
         <v>44966</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32240,7 +32240,7 @@
         <v>44969</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32297,7 +32297,7 @@
         <v>44972</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32354,7 +32354,7 @@
         <v>44973</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>44973</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32478,7 +32478,7 @@
         <v>44973</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32540,7 +32540,7 @@
         <v>44973</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32602,7 +32602,7 @@
         <v>44980</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32664,7 +32664,7 @@
         <v>44980</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32726,7 +32726,7 @@
         <v>44980</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32788,7 +32788,7 @@
         <v>44981</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32845,7 +32845,7 @@
         <v>44987</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32902,7 +32902,7 @@
         <v>44992</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32964,7 +32964,7 @@
         <v>44998</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33021,7 +33021,7 @@
         <v>45001</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33078,7 +33078,7 @@
         <v>45001</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33135,7 +33135,7 @@
         <v>45001</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33192,7 +33192,7 @@
         <v>45001</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33249,7 +33249,7 @@
         <v>45002</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33306,7 +33306,7 @@
         <v>45006</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33363,7 +33363,7 @@
         <v>45006</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33420,7 +33420,7 @@
         <v>45006</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33477,7 +33477,7 @@
         <v>45009</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33534,7 +33534,7 @@
         <v>45012</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33591,7 +33591,7 @@
         <v>45012</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33653,7 +33653,7 @@
         <v>45012</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33710,7 +33710,7 @@
         <v>45012</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33767,7 +33767,7 @@
         <v>45012</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33829,7 +33829,7 @@
         <v>45012</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33886,7 +33886,7 @@
         <v>45012</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33943,7 +33943,7 @@
         <v>45012</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34005,7 +34005,7 @@
         <v>45019</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34062,7 +34062,7 @@
         <v>45019</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34119,7 +34119,7 @@
         <v>45019</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34176,7 +34176,7 @@
         <v>45028</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34233,7 +34233,7 @@
         <v>45029</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34290,7 +34290,7 @@
         <v>45036</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34347,7 +34347,7 @@
         <v>45040</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34404,7 +34404,7 @@
         <v>45041</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34461,7 +34461,7 @@
         <v>45042</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34518,7 +34518,7 @@
         <v>45049</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34575,7 +34575,7 @@
         <v>45049</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34632,7 +34632,7 @@
         <v>45053</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34689,7 +34689,7 @@
         <v>45055</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34746,7 +34746,7 @@
         <v>45056</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34803,7 +34803,7 @@
         <v>45058</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34860,7 +34860,7 @@
         <v>45058</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34917,7 +34917,7 @@
         <v>45061</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34974,7 +34974,7 @@
         <v>45061</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35031,7 +35031,7 @@
         <v>45061</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35088,7 +35088,7 @@
         <v>45061</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35145,7 +35145,7 @@
         <v>45061</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35202,7 +35202,7 @@
         <v>45062</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35264,7 +35264,7 @@
         <v>45062</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35326,7 +35326,7 @@
         <v>45063</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35388,7 +35388,7 @@
         <v>45063</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35450,7 +35450,7 @@
         <v>45068</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35507,7 +35507,7 @@
         <v>45070</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35564,7 +35564,7 @@
         <v>45072</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35621,7 +35621,7 @@
         <v>45072</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35678,7 +35678,7 @@
         <v>45072</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35735,7 +35735,7 @@
         <v>45075</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35792,7 +35792,7 @@
         <v>45075</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35849,7 +35849,7 @@
         <v>45078</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         <v>45078</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35963,7 +35963,7 @@
         <v>45082</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36025,7 +36025,7 @@
         <v>45084</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36082,7 +36082,7 @@
         <v>45085</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36139,7 +36139,7 @@
         <v>45096</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36196,7 +36196,7 @@
         <v>45098</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36253,7 +36253,7 @@
         <v>45099</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36310,7 +36310,7 @@
         <v>45099</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36367,7 +36367,7 @@
         <v>45103</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36424,7 +36424,7 @@
         <v>45103</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36486,7 +36486,7 @@
         <v>45103</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36543,7 +36543,7 @@
         <v>45104</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36605,7 +36605,7 @@
         <v>45104</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         <v>45104</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36729,7 +36729,7 @@
         <v>45104</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         <v>45104</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36843,7 +36843,7 @@
         <v>45104</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36900,7 +36900,7 @@
         <v>45105</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36957,7 +36957,7 @@
         <v>45105</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37019,7 +37019,7 @@
         <v>45106</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37076,7 +37076,7 @@
         <v>45110</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37133,7 +37133,7 @@
         <v>45110</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37190,7 +37190,7 @@
         <v>45112</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37247,7 +37247,7 @@
         <v>45117</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37304,7 +37304,7 @@
         <v>45118</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37361,7 +37361,7 @@
         <v>45118</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37418,7 +37418,7 @@
         <v>45118</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37475,7 +37475,7 @@
         <v>45118</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37532,7 +37532,7 @@
         <v>45118</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37589,7 +37589,7 @@
         <v>45118</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37646,7 +37646,7 @@
         <v>45119</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37703,7 +37703,7 @@
         <v>45119</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37760,7 +37760,7 @@
         <v>45120</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37842,7 +37842,7 @@
         <v>45139</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37899,7 +37899,7 @@
         <v>45147</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37956,7 +37956,7 @@
         <v>45147</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>

--- a/Översikt RONNEBY.xlsx
+++ b/Översikt RONNEBY.xlsx
@@ -572,7 +572,7 @@
         <v>43781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43653</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44925</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>45093</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>43406</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43502</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>43514</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>43529</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1274,7 +1274,7 @@
         <v>43608</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>43640</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>43817</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>44284</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1619,7 +1619,7 @@
         <v>44298</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>44305</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>44344</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>44425</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44952</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>44985</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>44998</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>45012</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>45145</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>45152</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         <v>43319</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         <v>43326</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         <v>43333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>43341</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>43343</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>43347</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>43350</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>43353</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>43354</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>43354</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>43357</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>43361</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         <v>43368</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
         <v>43369</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         <v>43370</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>43371</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         <v>43383</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>43390</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         <v>43390</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>43395</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>43395</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43397</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43397</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43397</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43397</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43397</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43398</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>43399</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43401</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43402</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43409</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>43409</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>43412</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43412</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>43413</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43419</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>43419</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4694,7 +4694,7 @@
         <v>43419</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>43419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43422</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43424</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>43424</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>43427</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43431</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43432</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43437</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43437</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43439</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>43451</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         <v>43451</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>43451</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43451</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>43451</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43451</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43451</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43451</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43452</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43455</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>43471</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43473</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43473</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43475</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43482</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43485</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43488</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43491</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43491</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43491</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43501</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43501</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43503</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>43507</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>43508</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>43508</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>43511</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>43514</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43514</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>43515</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43518</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43521</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43521</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43522</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>43529</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43529</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>43531</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>43531</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>43532</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43534</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>43534</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>43537</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>43537</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>43538</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>43544</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>43548</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43552</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43554</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>43558</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>43558</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>43563</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>43563</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8360,7 +8360,7 @@
         <v>43564</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>43565</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>43570</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>43570</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>43570</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>43570</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43572</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43572</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>43572</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>43572</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>43573</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43573</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43573</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>43573</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>43573</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>43573</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>43573</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>43573</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>43580</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         <v>43580</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>43581</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>43581</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>43600</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>43600</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>43600</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
         <v>43601</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43601</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43605</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43614</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43619</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43619</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43619</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43619</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43619</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43619</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43619</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43621</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43627</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10591,7 +10591,7 @@
         <v>43627</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10648,7 +10648,7 @@
         <v>43629</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>43629</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>43629</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>43630</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>43640</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>43647</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>43647</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>43647</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>43647</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>43648</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>43648</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>43648</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>43650</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>43655</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>43662</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>43662</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>43669</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
         <v>43670</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>43670</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11741,7 +11741,7 @@
         <v>43677</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11798,7 +11798,7 @@
         <v>43677</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         <v>43678</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>43678</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>43681</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>43682</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>43682</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>43684</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>43685</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>43685</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>43685</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>43685</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>43689</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>43690</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>43692</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
         <v>43692</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>43692</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>43692</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>43696</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>43697</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>43698</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>43698</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43699</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>43705</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>43705</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>43706</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>43707</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>43707</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>43710</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>43710</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>43711</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>43711</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>43711</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>43712</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13704,7 +13704,7 @@
         <v>43712</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>43717</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13818,7 +13818,7 @@
         <v>43718</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         <v>43720</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>43725</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>43725</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>43725</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>43725</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>43726</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>43726</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>43727</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>43727</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>43730</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>43733</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>43741</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>43741</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>43742</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>43745</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14730,7 +14730,7 @@
         <v>43746</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14787,7 +14787,7 @@
         <v>43746</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14844,7 +14844,7 @@
         <v>43748</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14901,7 +14901,7 @@
         <v>43749</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>43749</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>43752</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>43754</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>43755</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>43755</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>43761</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>43761</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>43763</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>43766</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>43766</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>43767</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>43767</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>43768</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15699,7 +15699,7 @@
         <v>43770</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>43781</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>43781</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>43781</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>43783</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>43783</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>43787</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>43790</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>43803</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>43803</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>43804</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>43808</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>43811</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>43811</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>43817</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>43817</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
         <v>43817</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         <v>43818</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         <v>43822</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         <v>43822</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>43833</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16906,7 +16906,7 @@
         <v>43837</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>43837</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>43838</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>43847</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>43850</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>43852</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>43852</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>43853</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         <v>43853</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17419,7 +17419,7 @@
         <v>43854</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>43854</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>43858</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>43860</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>43874</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17709,7 +17709,7 @@
         <v>43878</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17766,7 +17766,7 @@
         <v>43878</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17823,7 +17823,7 @@
         <v>43880</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17885,7 +17885,7 @@
         <v>43881</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         <v>43889</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17999,7 +17999,7 @@
         <v>43895</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18056,7 +18056,7 @@
         <v>43903</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>43906</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>43909</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18232,7 +18232,7 @@
         <v>43914</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18289,7 +18289,7 @@
         <v>43914</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18346,7 +18346,7 @@
         <v>43915</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18403,7 +18403,7 @@
         <v>43929</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         <v>43938</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18517,7 +18517,7 @@
         <v>43950</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         <v>43963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>43969</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>43979</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>43984</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>43992</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>43992</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>43992</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18973,7 +18973,7 @@
         <v>44004</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19030,7 +19030,7 @@
         <v>44005</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19087,7 +19087,7 @@
         <v>44005</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19144,7 +19144,7 @@
         <v>44007</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19201,7 +19201,7 @@
         <v>44019</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>44025</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         <v>44025</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19372,7 +19372,7 @@
         <v>44027</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19429,7 +19429,7 @@
         <v>44027</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         <v>44027</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>44027</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>44027</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19657,7 +19657,7 @@
         <v>44029</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19714,7 +19714,7 @@
         <v>44032</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19771,7 +19771,7 @@
         <v>44032</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19828,7 +19828,7 @@
         <v>44032</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19885,7 +19885,7 @@
         <v>44035</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19947,7 +19947,7 @@
         <v>44047</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20004,7 +20004,7 @@
         <v>44050</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         <v>44055</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20123,7 +20123,7 @@
         <v>44055</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20180,7 +20180,7 @@
         <v>44060</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20237,7 +20237,7 @@
         <v>44061</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20294,7 +20294,7 @@
         <v>44063</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20351,7 +20351,7 @@
         <v>44068</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20408,7 +20408,7 @@
         <v>44070</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20470,7 +20470,7 @@
         <v>44070</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>44070</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>44070</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>44074</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>44075</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20770,7 +20770,7 @@
         <v>44076</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         <v>44077</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>44077</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44078</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>44084</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>44088</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>44088</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>44089</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44095</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44096</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44102</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>44102</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21454,7 +21454,7 @@
         <v>44103</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21511,7 +21511,7 @@
         <v>44104</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21568,7 +21568,7 @@
         <v>44104</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21625,7 +21625,7 @@
         <v>44104</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21682,7 +21682,7 @@
         <v>44104</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21739,7 +21739,7 @@
         <v>44104</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44106</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44106</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44106</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44113</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22029,7 +22029,7 @@
         <v>44117</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22086,7 +22086,7 @@
         <v>44119</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22143,7 +22143,7 @@
         <v>44119</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22200,7 +22200,7 @@
         <v>44120</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22257,7 +22257,7 @@
         <v>44124</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22314,7 +22314,7 @@
         <v>44127</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22371,7 +22371,7 @@
         <v>44127</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22428,7 +22428,7 @@
         <v>44127</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22485,7 +22485,7 @@
         <v>44131</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22542,7 +22542,7 @@
         <v>44137</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22599,7 +22599,7 @@
         <v>44138</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22656,7 +22656,7 @@
         <v>44138</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
         <v>44139</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22770,7 +22770,7 @@
         <v>44139</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22827,7 +22827,7 @@
         <v>44147</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22884,7 +22884,7 @@
         <v>44147</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22941,7 +22941,7 @@
         <v>44152</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22998,7 +22998,7 @@
         <v>44154</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23055,7 +23055,7 @@
         <v>44158</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23112,7 +23112,7 @@
         <v>44159</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23169,7 +23169,7 @@
         <v>44159</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23226,7 +23226,7 @@
         <v>44181</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23283,7 +23283,7 @@
         <v>44187</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23340,7 +23340,7 @@
         <v>44203</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23397,7 +23397,7 @@
         <v>44203</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23454,7 +23454,7 @@
         <v>44206</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23511,7 +23511,7 @@
         <v>44207</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>44209</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>44215</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23687,7 +23687,7 @@
         <v>44216</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23749,7 +23749,7 @@
         <v>44218</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23806,7 +23806,7 @@
         <v>44218</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
         <v>44222</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23920,7 +23920,7 @@
         <v>44236</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44238</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44238</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44239</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44245</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24205,7 +24205,7 @@
         <v>44246</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>44249</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>44253</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24376,7 +24376,7 @@
         <v>44257</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24433,7 +24433,7 @@
         <v>44257</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24490,7 +24490,7 @@
         <v>44258</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44258</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24604,7 +24604,7 @@
         <v>44259</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24661,7 +24661,7 @@
         <v>44271</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24718,7 +24718,7 @@
         <v>44271</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24775,7 +24775,7 @@
         <v>44278</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24832,7 +24832,7 @@
         <v>44279</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24889,7 +24889,7 @@
         <v>44300</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         <v>44300</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         <v>44307</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25060,7 +25060,7 @@
         <v>44307</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25117,7 +25117,7 @@
         <v>44307</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25174,7 +25174,7 @@
         <v>44307</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25231,7 +25231,7 @@
         <v>44307</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25288,7 +25288,7 @@
         <v>44311</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25345,7 +25345,7 @@
         <v>44312</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25402,7 +25402,7 @@
         <v>44316</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25459,7 +25459,7 @@
         <v>44319</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>44326</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25573,7 +25573,7 @@
         <v>44326</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25630,7 +25630,7 @@
         <v>44340</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25687,7 +25687,7 @@
         <v>44341</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25744,7 +25744,7 @@
         <v>44343</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>44361</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>44370</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>44370</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>44371</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44374</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44375</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44375</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44378</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44385</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44419</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26381,7 +26381,7 @@
         <v>44420</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>44421</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>44424</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>44425</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26614,7 +26614,7 @@
         <v>44432</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26671,7 +26671,7 @@
         <v>44432</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>44439</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>44451</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         <v>44456</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>44465</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>44466</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>44468</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27070,7 +27070,7 @@
         <v>44474</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27127,7 +27127,7 @@
         <v>44474</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27184,7 +27184,7 @@
         <v>44489</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27241,7 +27241,7 @@
         <v>44490</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27298,7 +27298,7 @@
         <v>44490</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27355,7 +27355,7 @@
         <v>44493</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27412,7 +27412,7 @@
         <v>44494</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27469,7 +27469,7 @@
         <v>44501</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27526,7 +27526,7 @@
         <v>44503</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27583,7 +27583,7 @@
         <v>44504</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27640,7 +27640,7 @@
         <v>44504</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27697,7 +27697,7 @@
         <v>44529</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27754,7 +27754,7 @@
         <v>44539</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         <v>44546</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27868,7 +27868,7 @@
         <v>44553</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27925,7 +27925,7 @@
         <v>44565</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27982,7 +27982,7 @@
         <v>44571</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28039,7 +28039,7 @@
         <v>44573</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28096,7 +28096,7 @@
         <v>44579</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28153,7 +28153,7 @@
         <v>44581</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28210,7 +28210,7 @@
         <v>44589</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28267,7 +28267,7 @@
         <v>44595</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28324,7 +28324,7 @@
         <v>44596</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28381,7 +28381,7 @@
         <v>44601</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28438,7 +28438,7 @@
         <v>44606</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28495,7 +28495,7 @@
         <v>44609</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28552,7 +28552,7 @@
         <v>44617</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28609,7 +28609,7 @@
         <v>44617</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28671,7 +28671,7 @@
         <v>44627</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28728,7 +28728,7 @@
         <v>44627</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28785,7 +28785,7 @@
         <v>44630</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28842,7 +28842,7 @@
         <v>44636</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28899,7 +28899,7 @@
         <v>44637</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28956,7 +28956,7 @@
         <v>44638</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29013,7 +29013,7 @@
         <v>44645</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29070,7 +29070,7 @@
         <v>44649</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29127,7 +29127,7 @@
         <v>44651</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29184,7 +29184,7 @@
         <v>44655</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29246,7 +29246,7 @@
         <v>44655</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29308,7 +29308,7 @@
         <v>44656</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29365,7 +29365,7 @@
         <v>44676</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29422,7 +29422,7 @@
         <v>44694</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29479,7 +29479,7 @@
         <v>44694</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29536,7 +29536,7 @@
         <v>44704</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29593,7 +29593,7 @@
         <v>44713</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29650,7 +29650,7 @@
         <v>44721</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29707,7 +29707,7 @@
         <v>44722</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29764,7 +29764,7 @@
         <v>44729</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29821,7 +29821,7 @@
         <v>44739</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29878,7 +29878,7 @@
         <v>44750</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>44753</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29997,7 +29997,7 @@
         <v>44756</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30054,7 +30054,7 @@
         <v>44756</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30111,7 +30111,7 @@
         <v>44756</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30168,7 +30168,7 @@
         <v>44762</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30230,7 +30230,7 @@
         <v>44762</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30292,7 +30292,7 @@
         <v>44762</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
         <v>44774</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30411,7 +30411,7 @@
         <v>44775</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30468,7 +30468,7 @@
         <v>44775</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30525,7 +30525,7 @@
         <v>44798</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30587,7 +30587,7 @@
         <v>44806</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30644,7 +30644,7 @@
         <v>44806</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30701,7 +30701,7 @@
         <v>44809</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30758,7 +30758,7 @@
         <v>44817</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30815,7 +30815,7 @@
         <v>44827</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30872,7 +30872,7 @@
         <v>44834</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30929,7 +30929,7 @@
         <v>44848</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30986,7 +30986,7 @@
         <v>44848</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>44854</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31100,7 +31100,7 @@
         <v>44860</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31157,7 +31157,7 @@
         <v>44862</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31214,7 +31214,7 @@
         <v>44865</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31271,7 +31271,7 @@
         <v>44872</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31328,7 +31328,7 @@
         <v>44872</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31385,7 +31385,7 @@
         <v>44890</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31442,7 +31442,7 @@
         <v>44890</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31499,7 +31499,7 @@
         <v>44893</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31556,7 +31556,7 @@
         <v>44902</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31613,7 +31613,7 @@
         <v>44903</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31670,7 +31670,7 @@
         <v>44903</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31727,7 +31727,7 @@
         <v>44916</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31784,7 +31784,7 @@
         <v>44925</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31841,7 +31841,7 @@
         <v>44937</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31898,7 +31898,7 @@
         <v>44939</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31955,7 +31955,7 @@
         <v>44944</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32012,7 +32012,7 @@
         <v>44956</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32069,7 +32069,7 @@
         <v>44956</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32126,7 +32126,7 @@
         <v>44957</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32183,7 +32183,7 @@
         <v>44966</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32240,7 +32240,7 @@
         <v>44969</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32297,7 +32297,7 @@
         <v>44972</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32354,7 +32354,7 @@
         <v>44973</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>44973</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32478,7 +32478,7 @@
         <v>44973</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32540,7 +32540,7 @@
         <v>44973</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32602,7 +32602,7 @@
         <v>44980</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32664,7 +32664,7 @@
         <v>44980</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32726,7 +32726,7 @@
         <v>44980</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32788,7 +32788,7 @@
         <v>44981</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32845,7 +32845,7 @@
         <v>44987</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32902,7 +32902,7 @@
         <v>44992</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32964,7 +32964,7 @@
         <v>44998</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33021,7 +33021,7 @@
         <v>45001</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33078,7 +33078,7 @@
         <v>45001</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33135,7 +33135,7 @@
         <v>45001</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33192,7 +33192,7 @@
         <v>45001</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33249,7 +33249,7 @@
         <v>45002</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33306,7 +33306,7 @@
         <v>45006</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33363,7 +33363,7 @@
         <v>45006</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33420,7 +33420,7 @@
         <v>45006</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33477,7 +33477,7 @@
         <v>45009</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33534,7 +33534,7 @@
         <v>45012</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33591,7 +33591,7 @@
         <v>45012</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33653,7 +33653,7 @@
         <v>45012</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33710,7 +33710,7 @@
         <v>45012</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33767,7 +33767,7 @@
         <v>45012</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33829,7 +33829,7 @@
         <v>45012</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33886,7 +33886,7 @@
         <v>45012</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33943,7 +33943,7 @@
         <v>45012</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34005,7 +34005,7 @@
         <v>45019</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34062,7 +34062,7 @@
         <v>45019</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34119,7 +34119,7 @@
         <v>45019</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34176,7 +34176,7 @@
         <v>45028</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34233,7 +34233,7 @@
         <v>45029</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34290,7 +34290,7 @@
         <v>45036</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34347,7 +34347,7 @@
         <v>45040</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34404,7 +34404,7 @@
         <v>45041</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34461,7 +34461,7 @@
         <v>45042</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34518,7 +34518,7 @@
         <v>45049</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34575,7 +34575,7 @@
         <v>45049</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34632,7 +34632,7 @@
         <v>45053</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34689,7 +34689,7 @@
         <v>45055</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34746,7 +34746,7 @@
         <v>45056</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34803,7 +34803,7 @@
         <v>45058</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34860,7 +34860,7 @@
         <v>45058</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34917,7 +34917,7 @@
         <v>45061</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34974,7 +34974,7 @@
         <v>45061</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35031,7 +35031,7 @@
         <v>45061</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35088,7 +35088,7 @@
         <v>45061</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35145,7 +35145,7 @@
         <v>45061</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35202,7 +35202,7 @@
         <v>45062</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35264,7 +35264,7 @@
         <v>45062</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35326,7 +35326,7 @@
         <v>45063</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35388,7 +35388,7 @@
         <v>45063</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35450,7 +35450,7 @@
         <v>45068</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35507,7 +35507,7 @@
         <v>45070</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35564,7 +35564,7 @@
         <v>45072</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35621,7 +35621,7 @@
         <v>45072</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35678,7 +35678,7 @@
         <v>45072</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35735,7 +35735,7 @@
         <v>45075</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35792,7 +35792,7 @@
         <v>45075</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35849,7 +35849,7 @@
         <v>45078</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         <v>45078</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35963,7 +35963,7 @@
         <v>45082</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36025,7 +36025,7 @@
         <v>45084</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36082,7 +36082,7 @@
         <v>45085</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36139,7 +36139,7 @@
         <v>45096</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36196,7 +36196,7 @@
         <v>45098</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36253,7 +36253,7 @@
         <v>45099</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36310,7 +36310,7 @@
         <v>45099</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36367,7 +36367,7 @@
         <v>45103</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36424,7 +36424,7 @@
         <v>45103</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36486,7 +36486,7 @@
         <v>45103</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36543,7 +36543,7 @@
         <v>45104</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36605,7 +36605,7 @@
         <v>45104</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         <v>45104</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36729,7 +36729,7 @@
         <v>45104</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         <v>45104</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36843,7 +36843,7 @@
         <v>45104</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36900,7 +36900,7 @@
         <v>45105</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36957,7 +36957,7 @@
         <v>45105</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37019,7 +37019,7 @@
         <v>45106</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37076,7 +37076,7 @@
         <v>45110</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37133,7 +37133,7 @@
         <v>45110</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37190,7 +37190,7 @@
         <v>45112</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37247,7 +37247,7 @@
         <v>45117</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37304,7 +37304,7 @@
         <v>45118</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37361,7 +37361,7 @@
         <v>45118</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37418,7 +37418,7 @@
         <v>45118</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37475,7 +37475,7 @@
         <v>45118</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37532,7 +37532,7 @@
         <v>45118</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37589,7 +37589,7 @@
         <v>45118</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37646,7 +37646,7 @@
         <v>45119</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37703,7 +37703,7 @@
         <v>45119</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37760,7 +37760,7 @@
         <v>45120</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37842,7 +37842,7 @@
         <v>45139</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37899,7 +37899,7 @@
         <v>45147</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37956,7 +37956,7 @@
         <v>45147</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>

--- a/Översikt RONNEBY.xlsx
+++ b/Översikt RONNEBY.xlsx
@@ -572,7 +572,7 @@
         <v>43781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -631,27 +631,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/artfynd/A 60768-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/artfynd/A 60768-2019.xlsx", "A 60768-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/kartor/A 60768-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/kartor/A 60768-2019.png", "A 60768-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomål/A 60768-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomål/A 60768-2019.docx", "A 60768-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomålsmail/A 60768-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomålsmail/A 60768-2019.docx", "A 60768-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsyn/A 60768-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsyn/A 60768-2019.docx", "A 60768-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsynsmail/A 60768-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsynsmail/A 60768-2019.docx", "A 60768-2019")</f>
         <v/>
       </c>
     </row>
@@ -665,7 +665,7 @@
         <v>43653</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -718,27 +718,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/artfynd/A 33873-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/artfynd/A 33873-2019.xlsx", "A 33873-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/kartor/A 33873-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/kartor/A 33873-2019.png", "A 33873-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomål/A 33873-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomål/A 33873-2019.docx", "A 33873-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomålsmail/A 33873-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomålsmail/A 33873-2019.docx", "A 33873-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsyn/A 33873-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsyn/A 33873-2019.docx", "A 33873-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsynsmail/A 33873-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsynsmail/A 33873-2019.docx", "A 33873-2019")</f>
         <v/>
       </c>
     </row>
@@ -752,7 +752,7 @@
         <v>44925</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -809,27 +809,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/artfynd/A 62673-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/artfynd/A 62673-2022.xlsx", "A 62673-2022")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/kartor/A 62673-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/kartor/A 62673-2022.png", "A 62673-2022")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomål/A 62673-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomål/A 62673-2022.docx", "A 62673-2022")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomålsmail/A 62673-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomålsmail/A 62673-2022.docx", "A 62673-2022")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsyn/A 62673-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsyn/A 62673-2022.docx", "A 62673-2022")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsynsmail/A 62673-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsynsmail/A 62673-2022.docx", "A 62673-2022")</f>
         <v/>
       </c>
     </row>
@@ -843,7 +843,7 @@
         <v>45093</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -895,27 +895,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/artfynd/A 26956-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/artfynd/A 26956-2023.xlsx", "A 26956-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/kartor/A 26956-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/kartor/A 26956-2023.png", "A 26956-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomål/A 26956-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomål/A 26956-2023.docx", "A 26956-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomålsmail/A 26956-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomålsmail/A 26956-2023.docx", "A 26956-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsyn/A 26956-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsyn/A 26956-2023.docx", "A 26956-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsynsmail/A 26956-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsynsmail/A 26956-2023.docx", "A 26956-2023")</f>
         <v/>
       </c>
     </row>
@@ -929,7 +929,7 @@
         <v>43406</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -980,27 +980,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/artfynd/A 60681-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/artfynd/A 60681-2018.xlsx", "A 60681-2018")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/kartor/A 60681-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/kartor/A 60681-2018.png", "A 60681-2018")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomål/A 60681-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomål/A 60681-2018.docx", "A 60681-2018")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomålsmail/A 60681-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomålsmail/A 60681-2018.docx", "A 60681-2018")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsyn/A 60681-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsyn/A 60681-2018.docx", "A 60681-2018")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsynsmail/A 60681-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsynsmail/A 60681-2018.docx", "A 60681-2018")</f>
         <v/>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
         <v>43502</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1065,27 +1065,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/artfynd/A 8587-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/artfynd/A 8587-2019.xlsx", "A 8587-2019")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/kartor/A 8587-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/kartor/A 8587-2019.png", "A 8587-2019")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomål/A 8587-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomål/A 8587-2019.docx", "A 8587-2019")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomålsmail/A 8587-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomålsmail/A 8587-2019.docx", "A 8587-2019")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsyn/A 8587-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsyn/A 8587-2019.docx", "A 8587-2019")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsynsmail/A 8587-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsynsmail/A 8587-2019.docx", "A 8587-2019")</f>
         <v/>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
         <v>43514</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1150,27 +1150,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/artfynd/A 10579-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/artfynd/A 10579-2019.xlsx", "A 10579-2019")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/kartor/A 10579-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/kartor/A 10579-2019.png", "A 10579-2019")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomål/A 10579-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomål/A 10579-2019.docx", "A 10579-2019")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomålsmail/A 10579-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomålsmail/A 10579-2019.docx", "A 10579-2019")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsyn/A 10579-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsyn/A 10579-2019.docx", "A 10579-2019")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsynsmail/A 10579-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsynsmail/A 10579-2019.docx", "A 10579-2019")</f>
         <v/>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
         <v>43529</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1240,27 +1240,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/artfynd/A 13391-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/artfynd/A 13391-2019.xlsx", "A 13391-2019")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/kartor/A 13391-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/kartor/A 13391-2019.png", "A 13391-2019")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomål/A 13391-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomål/A 13391-2019.docx", "A 13391-2019")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomålsmail/A 13391-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomålsmail/A 13391-2019.docx", "A 13391-2019")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsyn/A 13391-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsyn/A 13391-2019.docx", "A 13391-2019")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsynsmail/A 13391-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsynsmail/A 13391-2019.docx", "A 13391-2019")</f>
         <v/>
       </c>
     </row>
@@ -1274,7 +1274,7 @@
         <v>43608</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1325,27 +1325,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/artfynd/A 25939-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/artfynd/A 25939-2019.xlsx", "A 25939-2019")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/kartor/A 25939-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/kartor/A 25939-2019.png", "A 25939-2019")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomål/A 25939-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomål/A 25939-2019.docx", "A 25939-2019")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomålsmail/A 25939-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomålsmail/A 25939-2019.docx", "A 25939-2019")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsyn/A 25939-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsyn/A 25939-2019.docx", "A 25939-2019")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsynsmail/A 25939-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsynsmail/A 25939-2019.docx", "A 25939-2019")</f>
         <v/>
       </c>
     </row>
@@ -1359,7 +1359,7 @@
         <v>43640</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1410,27 +1410,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/artfynd/A 31451-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/artfynd/A 31451-2019.xlsx", "A 31451-2019")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/kartor/A 31451-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/kartor/A 31451-2019.png", "A 31451-2019")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomål/A 31451-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomål/A 31451-2019.docx", "A 31451-2019")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomålsmail/A 31451-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomålsmail/A 31451-2019.docx", "A 31451-2019")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsyn/A 31451-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsyn/A 31451-2019.docx", "A 31451-2019")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsynsmail/A 31451-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsynsmail/A 31451-2019.docx", "A 31451-2019")</f>
         <v/>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
         <v>43817</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1495,27 +1495,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/artfynd/A 679-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/artfynd/A 679-2020.xlsx", "A 679-2020")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/kartor/A 679-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/kartor/A 679-2020.png", "A 679-2020")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomål/A 679-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomål/A 679-2020.docx", "A 679-2020")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomålsmail/A 679-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomålsmail/A 679-2020.docx", "A 679-2020")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsyn/A 679-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsyn/A 679-2020.docx", "A 679-2020")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsynsmail/A 679-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsynsmail/A 679-2020.docx", "A 679-2020")</f>
         <v/>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
         <v>44284</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1585,27 +1585,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/artfynd/A 15365-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/artfynd/A 15365-2021.xlsx", "A 15365-2021")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/kartor/A 15365-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/kartor/A 15365-2021.png", "A 15365-2021")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomål/A 15365-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomål/A 15365-2021.docx", "A 15365-2021")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomålsmail/A 15365-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomålsmail/A 15365-2021.docx", "A 15365-2021")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsyn/A 15365-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsyn/A 15365-2021.docx", "A 15365-2021")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsynsmail/A 15365-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsynsmail/A 15365-2021.docx", "A 15365-2021")</f>
         <v/>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
         <v>44298</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1670,27 +1670,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/artfynd/A 17360-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/artfynd/A 17360-2021.xlsx", "A 17360-2021")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/kartor/A 17360-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/kartor/A 17360-2021.png", "A 17360-2021")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomål/A 17360-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomål/A 17360-2021.docx", "A 17360-2021")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomålsmail/A 17360-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomålsmail/A 17360-2021.docx", "A 17360-2021")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsyn/A 17360-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsyn/A 17360-2021.docx", "A 17360-2021")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsynsmail/A 17360-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsynsmail/A 17360-2021.docx", "A 17360-2021")</f>
         <v/>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
         <v>44305</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1755,31 +1755,31 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/artfynd/A 18370-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/artfynd/A 18370-2021.xlsx", "A 18370-2021")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/kartor/A 18370-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/kartor/A 18370-2021.png", "A 18370-2021")</f>
         <v/>
       </c>
       <c r="U15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/knärot/A 18370-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/knärot/A 18370-2021.png", "A 18370-2021")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomål/A 18370-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomål/A 18370-2021.docx", "A 18370-2021")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomålsmail/A 18370-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomålsmail/A 18370-2021.docx", "A 18370-2021")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsyn/A 18370-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsyn/A 18370-2021.docx", "A 18370-2021")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsynsmail/A 18370-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsynsmail/A 18370-2021.docx", "A 18370-2021")</f>
         <v/>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
         <v>44344</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1844,27 +1844,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/artfynd/A 25955-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/artfynd/A 25955-2021.xlsx", "A 25955-2021")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/kartor/A 25955-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/kartor/A 25955-2021.png", "A 25955-2021")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomål/A 25955-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomål/A 25955-2021.docx", "A 25955-2021")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomålsmail/A 25955-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomålsmail/A 25955-2021.docx", "A 25955-2021")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsyn/A 25955-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsyn/A 25955-2021.docx", "A 25955-2021")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsynsmail/A 25955-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsynsmail/A 25955-2021.docx", "A 25955-2021")</f>
         <v/>
       </c>
     </row>
@@ -1878,7 +1878,7 @@
         <v>44425</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1929,27 +1929,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/artfynd/A 41708-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/artfynd/A 41708-2021.xlsx", "A 41708-2021")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/kartor/A 41708-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/kartor/A 41708-2021.png", "A 41708-2021")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomål/A 41708-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomål/A 41708-2021.docx", "A 41708-2021")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomålsmail/A 41708-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomålsmail/A 41708-2021.docx", "A 41708-2021")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsyn/A 41708-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsyn/A 41708-2021.docx", "A 41708-2021")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsynsmail/A 41708-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsynsmail/A 41708-2021.docx", "A 41708-2021")</f>
         <v/>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
         <v>44952</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2014,27 +2014,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/artfynd/A 4028-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/artfynd/A 4028-2023.xlsx", "A 4028-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/kartor/A 4028-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/kartor/A 4028-2023.png", "A 4028-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomål/A 4028-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomål/A 4028-2023.docx", "A 4028-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomålsmail/A 4028-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomålsmail/A 4028-2023.docx", "A 4028-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsyn/A 4028-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsyn/A 4028-2023.docx", "A 4028-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsynsmail/A 4028-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsynsmail/A 4028-2023.docx", "A 4028-2023")</f>
         <v/>
       </c>
     </row>
@@ -2048,7 +2048,7 @@
         <v>44985</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2099,27 +2099,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/artfynd/A 10064-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/artfynd/A 10064-2023.xlsx", "A 10064-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/kartor/A 10064-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/kartor/A 10064-2023.png", "A 10064-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomål/A 10064-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomål/A 10064-2023.docx", "A 10064-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomålsmail/A 10064-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomålsmail/A 10064-2023.docx", "A 10064-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsyn/A 10064-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsyn/A 10064-2023.docx", "A 10064-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsynsmail/A 10064-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsynsmail/A 10064-2023.docx", "A 10064-2023")</f>
         <v/>
       </c>
     </row>
@@ -2133,7 +2133,7 @@
         <v>44998</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2184,27 +2184,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/artfynd/A 12131-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/artfynd/A 12131-2023.xlsx", "A 12131-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/kartor/A 12131-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/kartor/A 12131-2023.png", "A 12131-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomål/A 12131-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomål/A 12131-2023.docx", "A 12131-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomålsmail/A 12131-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomålsmail/A 12131-2023.docx", "A 12131-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsyn/A 12131-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsyn/A 12131-2023.docx", "A 12131-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsynsmail/A 12131-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsynsmail/A 12131-2023.docx", "A 12131-2023")</f>
         <v/>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
         <v>45012</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2274,27 +2274,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/artfynd/A 14940-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/artfynd/A 14940-2023.xlsx", "A 14940-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/kartor/A 14940-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/kartor/A 14940-2023.png", "A 14940-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomål/A 14940-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomål/A 14940-2023.docx", "A 14940-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomålsmail/A 14940-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomålsmail/A 14940-2023.docx", "A 14940-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsyn/A 14940-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsyn/A 14940-2023.docx", "A 14940-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsynsmail/A 14940-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsynsmail/A 14940-2023.docx", "A 14940-2023")</f>
         <v/>
       </c>
     </row>
@@ -2308,7 +2308,7 @@
         <v>45120</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2364,31 +2364,31 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/artfynd/A 32281-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/artfynd/A 32281-2023.xlsx", "A 32281-2023")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/kartor/A 32281-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/kartor/A 32281-2023.png", "A 32281-2023")</f>
         <v/>
       </c>
       <c r="U22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/knärot/A 32281-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/knärot/A 32281-2023.png", "A 32281-2023")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomål/A 32281-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomål/A 32281-2023.docx", "A 32281-2023")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomålsmail/A 32281-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomålsmail/A 32281-2023.docx", "A 32281-2023")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsyn/A 32281-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsyn/A 32281-2023.docx", "A 32281-2023")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsynsmail/A 32281-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsynsmail/A 32281-2023.docx", "A 32281-2023")</f>
         <v/>
       </c>
     </row>
@@ -2402,7 +2402,7 @@
         <v>45145</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2453,27 +2453,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/artfynd/A 35060-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/artfynd/A 35060-2023.xlsx", "A 35060-2023")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/kartor/A 35060-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/kartor/A 35060-2023.png", "A 35060-2023")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomål/A 35060-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomål/A 35060-2023.docx", "A 35060-2023")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomålsmail/A 35060-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomålsmail/A 35060-2023.docx", "A 35060-2023")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsyn/A 35060-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsyn/A 35060-2023.docx", "A 35060-2023")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsynsmail/A 35060-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsynsmail/A 35060-2023.docx", "A 35060-2023")</f>
         <v/>
       </c>
     </row>
@@ -2487,7 +2487,7 @@
         <v>45152</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2538,27 +2538,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/artfynd/A 36463-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/artfynd/A 36463-2023.xlsx", "A 36463-2023")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/kartor/A 36463-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/kartor/A 36463-2023.png", "A 36463-2023")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomål/A 36463-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomål/A 36463-2023.docx", "A 36463-2023")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomålsmail/A 36463-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/klagomålsmail/A 36463-2023.docx", "A 36463-2023")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsyn/A 36463-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsyn/A 36463-2023.docx", "A 36463-2023")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsynsmail/A 36463-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RONNEBY/tillsynsmail/A 36463-2023.docx", "A 36463-2023")</f>
         <v/>
       </c>
     </row>
@@ -2572,7 +2572,7 @@
         <v>43319</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>43326</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>43333</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>43341</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43343</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43347</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>43350</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>43353</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>43354</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>43354</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>43357</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>43361</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         <v>43368</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>43369</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>43370</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         <v>43371</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         <v>43383</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>43390</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         <v>43390</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>43395</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>43395</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43397</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43397</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>43397</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3960,7 +3960,7 @@
         <v>43397</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>43397</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>43398</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43399</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>43401</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4260,7 +4260,7 @@
         <v>43402</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
         <v>43409</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>43409</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>43412</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>43412</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>43413</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43419</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>43419</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>43419</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43422</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43424</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43424</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43427</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43431</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43432</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43437</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43437</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43439</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43451</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43451</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43451</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43451</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43451</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5740,7 +5740,7 @@
         <v>43451</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>43451</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>43451</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43452</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43455</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>43471</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43473</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>43473</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>43475</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43482</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43485</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43488</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>43491</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>43491</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43491</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43501</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43501</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43503</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43507</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43508</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43508</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>43511</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43514</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43514</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43515</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>43518</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>43521</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43521</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43522</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>43529</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>43529</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43531</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43532</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43534</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>43534</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>43537</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43537</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43538</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43544</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43548</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43552</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43554</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43558</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43558</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43563</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43563</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43564</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>43565</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43570</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8635,7 +8635,7 @@
         <v>43570</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>43570</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43570</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8811,7 +8811,7 @@
         <v>43572</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8868,7 +8868,7 @@
         <v>43572</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43572</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>43572</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>43573</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>43573</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>43573</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>43573</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>43573</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>43573</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43573</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43573</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>43580</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>43580</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43581</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>43581</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>43600</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43600</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43600</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>43601</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>43601</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43605</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43614</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>43619</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>43619</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>43619</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>43619</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>43619</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>43619</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>43619</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>43621</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>43627</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43627</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43629</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>43629</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         <v>43629</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10923,7 +10923,7 @@
         <v>43630</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10980,7 +10980,7 @@
         <v>43640</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11037,7 +11037,7 @@
         <v>43647</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11094,7 +11094,7 @@
         <v>43647</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>43647</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>43647</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43648</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>43648</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>43648</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>43650</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>43655</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>43662</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>43662</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>43669</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>43670</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>43670</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>43677</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>43677</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>43678</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>43678</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>43681</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12120,7 +12120,7 @@
         <v>43682</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>43682</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12234,7 +12234,7 @@
         <v>43684</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>43685</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>43685</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>43685</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>43685</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>43689</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12581,7 +12581,7 @@
         <v>43690</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12638,7 +12638,7 @@
         <v>43692</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>43692</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>43692</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>43692</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>43696</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>43697</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>43698</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>43699</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>43705</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>43705</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>43706</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13342,7 +13342,7 @@
         <v>43707</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13399,7 +13399,7 @@
         <v>43707</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13456,7 +13456,7 @@
         <v>43710</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13513,7 +13513,7 @@
         <v>43710</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13570,7 +13570,7 @@
         <v>43711</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         <v>43711</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         <v>43711</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>43712</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>43712</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>43717</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>43718</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>43720</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>43725</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>43725</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>43725</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>43725</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>43726</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>43726</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>43727</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>43727</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>43730</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>43733</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>43741</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>43741</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>43742</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>43745</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14824,7 +14824,7 @@
         <v>43746</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14881,7 +14881,7 @@
         <v>43746</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14938,7 +14938,7 @@
         <v>43748</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         <v>43749</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15052,7 +15052,7 @@
         <v>43749</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15109,7 +15109,7 @@
         <v>43752</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15166,7 +15166,7 @@
         <v>43754</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15223,7 +15223,7 @@
         <v>43755</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15280,7 +15280,7 @@
         <v>43755</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
         <v>43761</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15394,7 +15394,7 @@
         <v>43761</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>43763</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>43766</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>43766</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>43767</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>43767</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>43768</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>43770</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>43781</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>43781</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>43781</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16031,7 +16031,7 @@
         <v>43783</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>43783</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>43787</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>43790</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>43803</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>43803</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>43804</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>43808</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>43811</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>43811</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>43817</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>43817</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>43817</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16772,7 +16772,7 @@
         <v>43818</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>43822</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>43822</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>43833</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         <v>43837</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>43837</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>43838</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17171,7 +17171,7 @@
         <v>43847</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         <v>43850</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17285,7 +17285,7 @@
         <v>43852</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17342,7 +17342,7 @@
         <v>43852</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17399,7 +17399,7 @@
         <v>43853</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17456,7 +17456,7 @@
         <v>43853</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
         <v>43854</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17570,7 +17570,7 @@
         <v>43854</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17627,7 +17627,7 @@
         <v>43858</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17684,7 +17684,7 @@
         <v>43860</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17741,7 +17741,7 @@
         <v>43874</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>43878</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>43878</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17917,7 +17917,7 @@
         <v>43880</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17979,7 +17979,7 @@
         <v>43881</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>43889</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>43895</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>43903</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>43906</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18269,7 +18269,7 @@
         <v>43909</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>43914</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18383,7 +18383,7 @@
         <v>43914</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18440,7 +18440,7 @@
         <v>43915</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18497,7 +18497,7 @@
         <v>43929</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18554,7 +18554,7 @@
         <v>43938</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18611,7 +18611,7 @@
         <v>43950</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>43963</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18725,7 +18725,7 @@
         <v>43969</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>43979</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>43984</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>43992</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>43992</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>43992</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>44004</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>44005</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>44005</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>44007</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>44019</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>44025</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>44025</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>44027</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>44027</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>44027</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>44027</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>44027</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>44029</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44032</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>44032</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>44032</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19979,7 +19979,7 @@
         <v>44035</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20041,7 +20041,7 @@
         <v>44047</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20098,7 +20098,7 @@
         <v>44050</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         <v>44055</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44055</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44060</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44061</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44063</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44068</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44070</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20564,7 +20564,7 @@
         <v>44070</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         <v>44070</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
         <v>44070</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20750,7 +20750,7 @@
         <v>44074</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20807,7 +20807,7 @@
         <v>44075</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20864,7 +20864,7 @@
         <v>44076</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20921,7 +20921,7 @@
         <v>44077</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20978,7 +20978,7 @@
         <v>44077</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21035,7 +21035,7 @@
         <v>44078</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21092,7 +21092,7 @@
         <v>44084</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21149,7 +21149,7 @@
         <v>44088</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21206,7 +21206,7 @@
         <v>44088</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21263,7 +21263,7 @@
         <v>44089</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21320,7 +21320,7 @@
         <v>44095</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21377,7 +21377,7 @@
         <v>44096</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21434,7 +21434,7 @@
         <v>44102</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21491,7 +21491,7 @@
         <v>44102</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21548,7 +21548,7 @@
         <v>44103</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>44104</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21662,7 +21662,7 @@
         <v>44104</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>44104</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21776,7 +21776,7 @@
         <v>44104</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>44104</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>44106</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         <v>44106</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22009,7 +22009,7 @@
         <v>44106</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         <v>44113</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         <v>44117</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>44119</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>44119</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>44120</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>44124</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44127</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>44127</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22522,7 +22522,7 @@
         <v>44127</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22579,7 +22579,7 @@
         <v>44131</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>44137</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22693,7 +22693,7 @@
         <v>44138</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22750,7 +22750,7 @@
         <v>44138</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22807,7 +22807,7 @@
         <v>44139</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22864,7 +22864,7 @@
         <v>44139</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22921,7 +22921,7 @@
         <v>44147</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22978,7 +22978,7 @@
         <v>44147</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23035,7 +23035,7 @@
         <v>44152</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23092,7 +23092,7 @@
         <v>44154</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23149,7 +23149,7 @@
         <v>44158</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23206,7 +23206,7 @@
         <v>44159</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23263,7 +23263,7 @@
         <v>44159</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23320,7 +23320,7 @@
         <v>44181</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>44187</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
         <v>44203</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>44203</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>44206</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23605,7 +23605,7 @@
         <v>44207</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>44209</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44215</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23781,7 +23781,7 @@
         <v>44216</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23843,7 +23843,7 @@
         <v>44218</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23900,7 +23900,7 @@
         <v>44218</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23957,7 +23957,7 @@
         <v>44222</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24014,7 +24014,7 @@
         <v>44236</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24071,7 +24071,7 @@
         <v>44238</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24128,7 +24128,7 @@
         <v>44238</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24185,7 +24185,7 @@
         <v>44239</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24242,7 +24242,7 @@
         <v>44245</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>44246</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24356,7 +24356,7 @@
         <v>44249</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44253</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>44257</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24527,7 +24527,7 @@
         <v>44257</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44258</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24641,7 +24641,7 @@
         <v>44258</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>44259</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>44271</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>44271</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24869,7 +24869,7 @@
         <v>44278</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24926,7 +24926,7 @@
         <v>44279</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>44300</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>44300</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>44307</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>44307</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>44307</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25268,7 +25268,7 @@
         <v>44307</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25325,7 +25325,7 @@
         <v>44307</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25382,7 +25382,7 @@
         <v>44311</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25439,7 +25439,7 @@
         <v>44312</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25496,7 +25496,7 @@
         <v>44316</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25553,7 +25553,7 @@
         <v>44319</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25610,7 +25610,7 @@
         <v>44326</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25667,7 +25667,7 @@
         <v>44326</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25724,7 +25724,7 @@
         <v>44340</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25781,7 +25781,7 @@
         <v>44341</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25838,7 +25838,7 @@
         <v>44343</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44361</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>44370</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26014,7 +26014,7 @@
         <v>44370</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26071,7 +26071,7 @@
         <v>44371</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26128,7 +26128,7 @@
         <v>44374</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26185,7 +26185,7 @@
         <v>44375</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26242,7 +26242,7 @@
         <v>44375</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>44378</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26356,7 +26356,7 @@
         <v>44385</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26413,7 +26413,7 @@
         <v>44419</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26475,7 +26475,7 @@
         <v>44420</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26537,7 +26537,7 @@
         <v>44421</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26594,7 +26594,7 @@
         <v>44424</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26651,7 +26651,7 @@
         <v>44425</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26708,7 +26708,7 @@
         <v>44432</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26765,7 +26765,7 @@
         <v>44432</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26822,7 +26822,7 @@
         <v>44439</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26879,7 +26879,7 @@
         <v>44451</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26936,7 +26936,7 @@
         <v>44456</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26993,7 +26993,7 @@
         <v>44465</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>44466</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27107,7 +27107,7 @@
         <v>44468</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27164,7 +27164,7 @@
         <v>44474</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44474</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>44489</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>44490</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>44490</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27449,7 +27449,7 @@
         <v>44493</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         <v>44494</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27563,7 +27563,7 @@
         <v>44501</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>44503</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>44504</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27734,7 +27734,7 @@
         <v>44504</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>44529</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>44539</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>44546</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>44553</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>44565</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>44571</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>44573</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>44579</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28247,7 +28247,7 @@
         <v>44581</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28304,7 +28304,7 @@
         <v>44589</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28361,7 +28361,7 @@
         <v>44595</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28418,7 +28418,7 @@
         <v>44596</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28475,7 +28475,7 @@
         <v>44601</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28532,7 +28532,7 @@
         <v>44606</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28589,7 +28589,7 @@
         <v>44609</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28646,7 +28646,7 @@
         <v>44617</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28703,7 +28703,7 @@
         <v>44617</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28765,7 +28765,7 @@
         <v>44627</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28822,7 +28822,7 @@
         <v>44627</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28879,7 +28879,7 @@
         <v>44630</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>44636</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28993,7 +28993,7 @@
         <v>44637</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>44638</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>44645</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29164,7 +29164,7 @@
         <v>44649</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29221,7 +29221,7 @@
         <v>44651</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29278,7 +29278,7 @@
         <v>44655</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>44655</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29402,7 +29402,7 @@
         <v>44656</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29459,7 +29459,7 @@
         <v>44676</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29516,7 +29516,7 @@
         <v>44694</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29573,7 +29573,7 @@
         <v>44694</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29630,7 +29630,7 @@
         <v>44704</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29687,7 +29687,7 @@
         <v>44713</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29744,7 +29744,7 @@
         <v>44721</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29801,7 +29801,7 @@
         <v>44722</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29858,7 +29858,7 @@
         <v>44729</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29915,7 +29915,7 @@
         <v>44739</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29972,7 +29972,7 @@
         <v>44750</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30034,7 +30034,7 @@
         <v>44753</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30091,7 +30091,7 @@
         <v>44756</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>44756</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30205,7 +30205,7 @@
         <v>44756</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>44762</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30324,7 +30324,7 @@
         <v>44762</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         <v>44762</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30448,7 +30448,7 @@
         <v>44774</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30505,7 +30505,7 @@
         <v>44775</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30562,7 +30562,7 @@
         <v>44775</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         <v>44798</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30681,7 +30681,7 @@
         <v>44806</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30738,7 +30738,7 @@
         <v>44806</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30795,7 +30795,7 @@
         <v>44809</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30852,7 +30852,7 @@
         <v>44817</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30909,7 +30909,7 @@
         <v>44827</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30966,7 +30966,7 @@
         <v>44834</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31023,7 +31023,7 @@
         <v>44848</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>44848</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>44854</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31194,7 +31194,7 @@
         <v>44860</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31251,7 +31251,7 @@
         <v>44862</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31308,7 +31308,7 @@
         <v>44865</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31365,7 +31365,7 @@
         <v>44872</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31422,7 +31422,7 @@
         <v>44872</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31479,7 +31479,7 @@
         <v>44890</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31536,7 +31536,7 @@
         <v>44890</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31593,7 +31593,7 @@
         <v>44893</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31650,7 +31650,7 @@
         <v>44902</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31707,7 +31707,7 @@
         <v>44903</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31764,7 +31764,7 @@
         <v>44903</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31821,7 +31821,7 @@
         <v>44916</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31878,7 +31878,7 @@
         <v>44925</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31935,7 +31935,7 @@
         <v>44937</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31992,7 +31992,7 @@
         <v>44939</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32049,7 +32049,7 @@
         <v>44944</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32106,7 +32106,7 @@
         <v>44956</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32163,7 +32163,7 @@
         <v>44956</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32220,7 +32220,7 @@
         <v>44957</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32277,7 +32277,7 @@
         <v>44966</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32334,7 +32334,7 @@
         <v>44969</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32391,7 +32391,7 @@
         <v>44972</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32448,7 +32448,7 @@
         <v>44973</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32510,7 +32510,7 @@
         <v>44973</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32572,7 +32572,7 @@
         <v>44973</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32634,7 +32634,7 @@
         <v>44973</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32696,7 +32696,7 @@
         <v>44980</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32758,7 +32758,7 @@
         <v>44980</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32820,7 +32820,7 @@
         <v>44980</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32882,7 +32882,7 @@
         <v>44981</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32939,7 +32939,7 @@
         <v>44987</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32996,7 +32996,7 @@
         <v>44992</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33058,7 +33058,7 @@
         <v>44998</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33115,7 +33115,7 @@
         <v>45001</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33172,7 +33172,7 @@
         <v>45001</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33229,7 +33229,7 @@
         <v>45001</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33286,7 +33286,7 @@
         <v>45001</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33343,7 +33343,7 @@
         <v>45002</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33400,7 +33400,7 @@
         <v>45006</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33457,7 +33457,7 @@
         <v>45006</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33514,7 +33514,7 @@
         <v>45006</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         <v>45009</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33628,7 +33628,7 @@
         <v>45012</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33685,7 +33685,7 @@
         <v>45012</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33747,7 +33747,7 @@
         <v>45012</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33804,7 +33804,7 @@
         <v>45012</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33861,7 +33861,7 @@
         <v>45012</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33923,7 +33923,7 @@
         <v>45012</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33980,7 +33980,7 @@
         <v>45012</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34037,7 +34037,7 @@
         <v>45012</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34099,7 +34099,7 @@
         <v>45019</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34156,7 +34156,7 @@
         <v>45019</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34213,7 +34213,7 @@
         <v>45019</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34270,7 +34270,7 @@
         <v>45028</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34327,7 +34327,7 @@
         <v>45029</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34384,7 +34384,7 @@
         <v>45036</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34441,7 +34441,7 @@
         <v>45040</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34498,7 +34498,7 @@
         <v>45041</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34555,7 +34555,7 @@
         <v>45042</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34612,7 +34612,7 @@
         <v>45049</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34669,7 +34669,7 @@
         <v>45049</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34726,7 +34726,7 @@
         <v>45053</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34783,7 +34783,7 @@
         <v>45055</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34840,7 +34840,7 @@
         <v>45056</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34897,7 +34897,7 @@
         <v>45058</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34954,7 +34954,7 @@
         <v>45058</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         <v>45061</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35068,7 +35068,7 @@
         <v>45061</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35125,7 +35125,7 @@
         <v>45061</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35182,7 +35182,7 @@
         <v>45061</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35239,7 +35239,7 @@
         <v>45061</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35296,7 +35296,7 @@
         <v>45062</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35358,7 +35358,7 @@
         <v>45062</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35420,7 +35420,7 @@
         <v>45063</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35482,7 +35482,7 @@
         <v>45063</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35544,7 +35544,7 @@
         <v>45068</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35601,7 +35601,7 @@
         <v>45070</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35658,7 +35658,7 @@
         <v>45072</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35715,7 +35715,7 @@
         <v>45072</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35772,7 +35772,7 @@
         <v>45072</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35829,7 +35829,7 @@
         <v>45075</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35886,7 +35886,7 @@
         <v>45075</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35943,7 +35943,7 @@
         <v>45078</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36000,7 +36000,7 @@
         <v>45078</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36057,7 +36057,7 @@
         <v>45082</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36119,7 +36119,7 @@
         <v>45084</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36176,7 +36176,7 @@
         <v>45085</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36233,7 +36233,7 @@
         <v>45096</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36290,7 +36290,7 @@
         <v>45098</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36347,7 +36347,7 @@
         <v>45099</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36404,7 +36404,7 @@
         <v>45099</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36461,7 +36461,7 @@
         <v>45103</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36518,7 +36518,7 @@
         <v>45103</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36580,7 +36580,7 @@
         <v>45103</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36637,7 +36637,7 @@
         <v>45104</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36699,7 +36699,7 @@
         <v>45104</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36761,7 +36761,7 @@
         <v>45104</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36823,7 +36823,7 @@
         <v>45104</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36880,7 +36880,7 @@
         <v>45104</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36937,7 +36937,7 @@
         <v>45104</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36994,7 +36994,7 @@
         <v>45105</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37051,7 +37051,7 @@
         <v>45105</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37113,7 +37113,7 @@
         <v>45106</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37170,7 +37170,7 @@
         <v>45110</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37227,7 +37227,7 @@
         <v>45110</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37284,7 +37284,7 @@
         <v>45112</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37341,7 +37341,7 @@
         <v>45117</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37398,7 +37398,7 @@
         <v>45118</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37455,7 +37455,7 @@
         <v>45118</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37512,7 +37512,7 @@
         <v>45118</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37569,7 +37569,7 @@
         <v>45118</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37626,7 +37626,7 @@
         <v>45118</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37683,7 +37683,7 @@
         <v>45118</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37740,7 +37740,7 @@
         <v>45119</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37797,7 +37797,7 @@
         <v>45119</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37854,7 +37854,7 @@
         <v>45139</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37911,7 +37911,7 @@
         <v>45147</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37968,7 +37968,7 @@
         <v>45147</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>

--- a/Översikt RONNEBY.xlsx
+++ b/Översikt RONNEBY.xlsx
@@ -572,7 +572,7 @@
         <v>43781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43653</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44925</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>45093</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>43406</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43502</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>43514</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>43529</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1274,7 +1274,7 @@
         <v>43608</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>43640</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>43817</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>44284</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1619,7 +1619,7 @@
         <v>44298</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>44305</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>44344</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>44425</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44952</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>44985</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>44998</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>45012</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>45120</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>45145</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>45152</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43319</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>43326</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>43333</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>43341</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43343</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43347</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>43350</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>43353</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>43354</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>43354</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>43357</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>43361</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         <v>43368</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>43369</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>43370</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         <v>43371</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         <v>43383</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>43390</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         <v>43390</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>43395</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>43395</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43397</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43397</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>43397</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3960,7 +3960,7 @@
         <v>43397</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>43397</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>43398</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43399</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>43401</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4260,7 +4260,7 @@
         <v>43402</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
         <v>43409</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>43409</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>43412</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>43412</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>43413</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43419</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>43419</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>43419</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43422</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43424</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43424</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43427</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43431</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43432</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43437</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43437</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43439</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43451</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43451</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43451</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43451</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43451</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5740,7 +5740,7 @@
         <v>43451</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>43451</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>43451</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43452</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43455</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>43471</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43473</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>43473</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>43475</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43482</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43485</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43488</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>43491</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>43491</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43491</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43501</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43501</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43503</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43507</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43508</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43508</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>43511</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43514</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43514</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43515</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>43518</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>43521</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43521</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43522</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>43529</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>43529</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43531</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43532</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43534</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>43534</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>43537</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43537</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43538</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43544</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43548</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43552</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43554</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43558</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43558</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43563</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43563</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43564</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>43565</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43570</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8635,7 +8635,7 @@
         <v>43570</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>43570</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43570</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8811,7 +8811,7 @@
         <v>43572</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8868,7 +8868,7 @@
         <v>43572</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43572</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>43572</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>43573</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>43573</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>43573</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>43573</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>43573</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>43573</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43573</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43573</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>43580</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>43580</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43581</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>43581</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>43600</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43600</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43600</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>43601</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>43601</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43605</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43614</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>43619</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>43619</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>43619</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>43619</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>43619</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>43619</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>43619</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>43621</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>43627</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43627</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43629</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>43629</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         <v>43629</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10923,7 +10923,7 @@
         <v>43630</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10980,7 +10980,7 @@
         <v>43640</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11037,7 +11037,7 @@
         <v>43647</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11094,7 +11094,7 @@
         <v>43647</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>43647</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>43647</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43648</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>43648</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>43648</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>43650</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>43655</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>43662</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>43662</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>43669</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>43670</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>43670</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>43677</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>43677</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>43678</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>43678</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>43681</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12120,7 +12120,7 @@
         <v>43682</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>43682</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12234,7 +12234,7 @@
         <v>43684</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>43685</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>43685</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>43685</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>43685</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>43689</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12581,7 +12581,7 @@
         <v>43690</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12638,7 +12638,7 @@
         <v>43692</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>43692</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>43692</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>43692</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>43696</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>43697</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>43698</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>43699</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>43705</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>43705</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>43706</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13342,7 +13342,7 @@
         <v>43707</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13399,7 +13399,7 @@
         <v>43707</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13456,7 +13456,7 @@
         <v>43710</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13513,7 +13513,7 @@
         <v>43710</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13570,7 +13570,7 @@
         <v>43711</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         <v>43711</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         <v>43711</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>43712</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>43712</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>43717</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>43718</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>43720</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>43725</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>43725</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>43725</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>43725</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>43726</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>43726</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>43727</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>43727</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>43730</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>43733</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>43741</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>43741</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>43742</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>43745</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14824,7 +14824,7 @@
         <v>43746</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14881,7 +14881,7 @@
         <v>43746</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14938,7 +14938,7 @@
         <v>43748</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         <v>43749</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15052,7 +15052,7 @@
         <v>43749</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15109,7 +15109,7 @@
         <v>43752</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15166,7 +15166,7 @@
         <v>43754</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15223,7 +15223,7 @@
         <v>43755</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15280,7 +15280,7 @@
         <v>43755</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
         <v>43761</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15394,7 +15394,7 @@
         <v>43761</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>43763</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>43766</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>43766</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>43767</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>43767</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>43768</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>43770</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>43781</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>43781</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>43781</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16031,7 +16031,7 @@
         <v>43783</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>43783</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>43787</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>43790</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>43803</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>43803</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>43804</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>43808</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>43811</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>43811</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>43817</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>43817</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>43817</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16772,7 +16772,7 @@
         <v>43818</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>43822</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>43822</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>43833</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         <v>43837</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>43837</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>43838</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17171,7 +17171,7 @@
         <v>43847</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         <v>43850</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17285,7 +17285,7 @@
         <v>43852</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17342,7 +17342,7 @@
         <v>43852</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17399,7 +17399,7 @@
         <v>43853</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17456,7 +17456,7 @@
         <v>43853</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
         <v>43854</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17570,7 +17570,7 @@
         <v>43854</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17627,7 +17627,7 @@
         <v>43858</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17684,7 +17684,7 @@
         <v>43860</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17741,7 +17741,7 @@
         <v>43874</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>43878</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>43878</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17917,7 +17917,7 @@
         <v>43880</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17979,7 +17979,7 @@
         <v>43881</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>43889</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>43895</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>43903</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>43906</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18269,7 +18269,7 @@
         <v>43909</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>43914</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18383,7 +18383,7 @@
         <v>43914</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18440,7 +18440,7 @@
         <v>43915</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18497,7 +18497,7 @@
         <v>43929</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18554,7 +18554,7 @@
         <v>43938</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18611,7 +18611,7 @@
         <v>43950</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>43963</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18725,7 +18725,7 @@
         <v>43969</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>43979</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>43984</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>43992</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>43992</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>43992</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>44004</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>44005</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>44005</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>44007</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>44019</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>44025</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>44025</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>44027</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>44027</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>44027</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>44027</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>44027</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>44029</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44032</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>44032</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>44032</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19979,7 +19979,7 @@
         <v>44035</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20041,7 +20041,7 @@
         <v>44047</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20098,7 +20098,7 @@
         <v>44050</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         <v>44055</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44055</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44060</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44061</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44063</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44068</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44070</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20564,7 +20564,7 @@
         <v>44070</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         <v>44070</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
         <v>44070</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20750,7 +20750,7 @@
         <v>44074</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20807,7 +20807,7 @@
         <v>44075</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20864,7 +20864,7 @@
         <v>44076</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20921,7 +20921,7 @@
         <v>44077</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20978,7 +20978,7 @@
         <v>44077</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21035,7 +21035,7 @@
         <v>44078</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21092,7 +21092,7 @@
         <v>44084</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21149,7 +21149,7 @@
         <v>44088</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21206,7 +21206,7 @@
         <v>44088</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21263,7 +21263,7 @@
         <v>44089</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21320,7 +21320,7 @@
         <v>44095</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21377,7 +21377,7 @@
         <v>44096</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21434,7 +21434,7 @@
         <v>44102</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21491,7 +21491,7 @@
         <v>44102</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21548,7 +21548,7 @@
         <v>44103</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>44104</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21662,7 +21662,7 @@
         <v>44104</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>44104</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21776,7 +21776,7 @@
         <v>44104</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>44104</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>44106</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         <v>44106</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22009,7 +22009,7 @@
         <v>44106</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         <v>44113</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         <v>44117</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>44119</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>44119</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>44120</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>44124</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44127</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>44127</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22522,7 +22522,7 @@
         <v>44127</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22579,7 +22579,7 @@
         <v>44131</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>44137</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22693,7 +22693,7 @@
         <v>44138</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22750,7 +22750,7 @@
         <v>44138</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22807,7 +22807,7 @@
         <v>44139</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22864,7 +22864,7 @@
         <v>44139</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22921,7 +22921,7 @@
         <v>44147</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22978,7 +22978,7 @@
         <v>44147</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23035,7 +23035,7 @@
         <v>44152</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23092,7 +23092,7 @@
         <v>44154</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23149,7 +23149,7 @@
         <v>44158</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23206,7 +23206,7 @@
         <v>44159</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23263,7 +23263,7 @@
         <v>44159</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23320,7 +23320,7 @@
         <v>44181</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>44187</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
         <v>44203</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>44203</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>44206</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23605,7 +23605,7 @@
         <v>44207</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>44209</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44215</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23781,7 +23781,7 @@
         <v>44216</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23843,7 +23843,7 @@
         <v>44218</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23900,7 +23900,7 @@
         <v>44218</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23957,7 +23957,7 @@
         <v>44222</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24014,7 +24014,7 @@
         <v>44236</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24071,7 +24071,7 @@
         <v>44238</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24128,7 +24128,7 @@
         <v>44238</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24185,7 +24185,7 @@
         <v>44239</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24242,7 +24242,7 @@
         <v>44245</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>44246</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24356,7 +24356,7 @@
         <v>44249</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44253</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>44257</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24527,7 +24527,7 @@
         <v>44257</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44258</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24641,7 +24641,7 @@
         <v>44258</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>44259</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>44271</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>44271</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24869,7 +24869,7 @@
         <v>44278</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24926,7 +24926,7 @@
         <v>44279</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>44300</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>44300</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>44307</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>44307</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>44307</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25268,7 +25268,7 @@
         <v>44307</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25325,7 +25325,7 @@
         <v>44307</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25382,7 +25382,7 @@
         <v>44311</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25439,7 +25439,7 @@
         <v>44312</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25496,7 +25496,7 @@
         <v>44316</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25553,7 +25553,7 @@
         <v>44319</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25610,7 +25610,7 @@
         <v>44326</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25667,7 +25667,7 @@
         <v>44326</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25724,7 +25724,7 @@
         <v>44340</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25781,7 +25781,7 @@
         <v>44341</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25838,7 +25838,7 @@
         <v>44343</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44361</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>44370</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26014,7 +26014,7 @@
         <v>44370</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26071,7 +26071,7 @@
         <v>44371</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26128,7 +26128,7 @@
         <v>44374</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26185,7 +26185,7 @@
         <v>44375</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26242,7 +26242,7 @@
         <v>44375</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>44378</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26356,7 +26356,7 @@
         <v>44385</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26413,7 +26413,7 @@
         <v>44419</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26475,7 +26475,7 @@
         <v>44420</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26537,7 +26537,7 @@
         <v>44421</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26594,7 +26594,7 @@
         <v>44424</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26651,7 +26651,7 @@
         <v>44425</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26708,7 +26708,7 @@
         <v>44432</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26765,7 +26765,7 @@
         <v>44432</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26822,7 +26822,7 @@
         <v>44439</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26879,7 +26879,7 @@
         <v>44451</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26936,7 +26936,7 @@
         <v>44456</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26993,7 +26993,7 @@
         <v>44465</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>44466</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27107,7 +27107,7 @@
         <v>44468</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27164,7 +27164,7 @@
         <v>44474</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44474</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>44489</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>44490</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>44490</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27449,7 +27449,7 @@
         <v>44493</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         <v>44494</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27563,7 +27563,7 @@
         <v>44501</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>44503</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>44504</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27734,7 +27734,7 @@
         <v>44504</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>44529</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>44539</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>44546</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>44553</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>44565</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>44571</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>44573</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>44579</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28247,7 +28247,7 @@
         <v>44581</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28304,7 +28304,7 @@
         <v>44589</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28361,7 +28361,7 @@
         <v>44595</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28418,7 +28418,7 @@
         <v>44596</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28475,7 +28475,7 @@
         <v>44601</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28532,7 +28532,7 @@
         <v>44606</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28589,7 +28589,7 @@
         <v>44609</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28646,7 +28646,7 @@
         <v>44617</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28703,7 +28703,7 @@
         <v>44617</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28765,7 +28765,7 @@
         <v>44627</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28822,7 +28822,7 @@
         <v>44627</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28879,7 +28879,7 @@
         <v>44630</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>44636</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28993,7 +28993,7 @@
         <v>44637</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>44638</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>44645</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29164,7 +29164,7 @@
         <v>44649</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29221,7 +29221,7 @@
         <v>44651</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29278,7 +29278,7 @@
         <v>44655</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>44655</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29402,7 +29402,7 @@
         <v>44656</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29459,7 +29459,7 @@
         <v>44676</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29516,7 +29516,7 @@
         <v>44694</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29573,7 +29573,7 @@
         <v>44694</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29630,7 +29630,7 @@
         <v>44704</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29687,7 +29687,7 @@
         <v>44713</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29744,7 +29744,7 @@
         <v>44721</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29801,7 +29801,7 @@
         <v>44722</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29858,7 +29858,7 @@
         <v>44729</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29915,7 +29915,7 @@
         <v>44739</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29972,7 +29972,7 @@
         <v>44750</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30034,7 +30034,7 @@
         <v>44753</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30091,7 +30091,7 @@
         <v>44756</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>44756</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30205,7 +30205,7 @@
         <v>44756</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>44762</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30324,7 +30324,7 @@
         <v>44762</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         <v>44762</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30448,7 +30448,7 @@
         <v>44774</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30505,7 +30505,7 @@
         <v>44775</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30562,7 +30562,7 @@
         <v>44775</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         <v>44798</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30681,7 +30681,7 @@
         <v>44806</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30738,7 +30738,7 @@
         <v>44806</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30795,7 +30795,7 @@
         <v>44809</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30852,7 +30852,7 @@
         <v>44817</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30909,7 +30909,7 @@
         <v>44827</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30966,7 +30966,7 @@
         <v>44834</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31023,7 +31023,7 @@
         <v>44848</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>44848</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>44854</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31194,7 +31194,7 @@
         <v>44860</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31251,7 +31251,7 @@
         <v>44862</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31308,7 +31308,7 @@
         <v>44865</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31365,7 +31365,7 @@
         <v>44872</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31422,7 +31422,7 @@
         <v>44872</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31479,7 +31479,7 @@
         <v>44890</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31536,7 +31536,7 @@
         <v>44890</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31593,7 +31593,7 @@
         <v>44893</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31650,7 +31650,7 @@
         <v>44902</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31707,7 +31707,7 @@
         <v>44903</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31764,7 +31764,7 @@
         <v>44903</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31821,7 +31821,7 @@
         <v>44916</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31878,7 +31878,7 @@
         <v>44925</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31935,7 +31935,7 @@
         <v>44937</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31992,7 +31992,7 @@
         <v>44939</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32049,7 +32049,7 @@
         <v>44944</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32106,7 +32106,7 @@
         <v>44956</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32163,7 +32163,7 @@
         <v>44956</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32220,7 +32220,7 @@
         <v>44957</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32277,7 +32277,7 @@
         <v>44966</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32334,7 +32334,7 @@
         <v>44969</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32391,7 +32391,7 @@
         <v>44972</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32448,7 +32448,7 @@
         <v>44973</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32510,7 +32510,7 @@
         <v>44973</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32572,7 +32572,7 @@
         <v>44973</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32634,7 +32634,7 @@
         <v>44973</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32696,7 +32696,7 @@
         <v>44980</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32758,7 +32758,7 @@
         <v>44980</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32820,7 +32820,7 @@
         <v>44980</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32882,7 +32882,7 @@
         <v>44981</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32939,7 +32939,7 @@
         <v>44987</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32996,7 +32996,7 @@
         <v>44992</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33058,7 +33058,7 @@
         <v>44998</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33115,7 +33115,7 @@
         <v>45001</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33172,7 +33172,7 @@
         <v>45001</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33229,7 +33229,7 @@
         <v>45001</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33286,7 +33286,7 @@
         <v>45001</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33343,7 +33343,7 @@
         <v>45002</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33400,7 +33400,7 @@
         <v>45006</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33457,7 +33457,7 @@
         <v>45006</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33514,7 +33514,7 @@
         <v>45006</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         <v>45009</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33628,7 +33628,7 @@
         <v>45012</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33685,7 +33685,7 @@
         <v>45012</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33747,7 +33747,7 @@
         <v>45012</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33804,7 +33804,7 @@
         <v>45012</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33861,7 +33861,7 @@
         <v>45012</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33923,7 +33923,7 @@
         <v>45012</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33980,7 +33980,7 @@
         <v>45012</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34037,7 +34037,7 @@
         <v>45012</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34099,7 +34099,7 @@
         <v>45019</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34156,7 +34156,7 @@
         <v>45019</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34213,7 +34213,7 @@
         <v>45019</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34270,7 +34270,7 @@
         <v>45028</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34327,7 +34327,7 @@
         <v>45029</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34384,7 +34384,7 @@
         <v>45036</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34441,7 +34441,7 @@
         <v>45040</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34498,7 +34498,7 @@
         <v>45041</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34555,7 +34555,7 @@
         <v>45042</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34612,7 +34612,7 @@
         <v>45049</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34669,7 +34669,7 @@
         <v>45049</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34726,7 +34726,7 @@
         <v>45053</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34783,7 +34783,7 @@
         <v>45055</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34840,7 +34840,7 @@
         <v>45056</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34897,7 +34897,7 @@
         <v>45058</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34954,7 +34954,7 @@
         <v>45058</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         <v>45061</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35068,7 +35068,7 @@
         <v>45061</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35125,7 +35125,7 @@
         <v>45061</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35182,7 +35182,7 @@
         <v>45061</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35239,7 +35239,7 @@
         <v>45061</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35296,7 +35296,7 @@
         <v>45062</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35358,7 +35358,7 @@
         <v>45062</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35420,7 +35420,7 @@
         <v>45063</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35482,7 +35482,7 @@
         <v>45063</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35544,7 +35544,7 @@
         <v>45068</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35601,7 +35601,7 @@
         <v>45070</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35658,7 +35658,7 @@
         <v>45072</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35715,7 +35715,7 @@
         <v>45072</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35772,7 +35772,7 @@
         <v>45072</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35829,7 +35829,7 @@
         <v>45075</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35886,7 +35886,7 @@
         <v>45075</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35943,7 +35943,7 @@
         <v>45078</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36000,7 +36000,7 @@
         <v>45078</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36057,7 +36057,7 @@
         <v>45082</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36119,7 +36119,7 @@
         <v>45084</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36176,7 +36176,7 @@
         <v>45085</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36233,7 +36233,7 @@
         <v>45096</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36290,7 +36290,7 @@
         <v>45098</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36347,7 +36347,7 @@
         <v>45099</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36404,7 +36404,7 @@
         <v>45099</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36461,7 +36461,7 @@
         <v>45103</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36518,7 +36518,7 @@
         <v>45103</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36580,7 +36580,7 @@
         <v>45103</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36637,7 +36637,7 @@
         <v>45104</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36699,7 +36699,7 @@
         <v>45104</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36761,7 +36761,7 @@
         <v>45104</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36823,7 +36823,7 @@
         <v>45104</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36880,7 +36880,7 @@
         <v>45104</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36937,7 +36937,7 @@
         <v>45104</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36994,7 +36994,7 @@
         <v>45105</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37051,7 +37051,7 @@
         <v>45105</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37113,7 +37113,7 @@
         <v>45106</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37170,7 +37170,7 @@
         <v>45110</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37227,7 +37227,7 @@
         <v>45110</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37284,7 +37284,7 @@
         <v>45112</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37341,7 +37341,7 @@
         <v>45117</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37398,7 +37398,7 @@
         <v>45118</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37455,7 +37455,7 @@
         <v>45118</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37512,7 +37512,7 @@
         <v>45118</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37569,7 +37569,7 @@
         <v>45118</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37626,7 +37626,7 @@
         <v>45118</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37683,7 +37683,7 @@
         <v>45118</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37740,7 +37740,7 @@
         <v>45119</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37797,7 +37797,7 @@
         <v>45119</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37854,7 +37854,7 @@
         <v>45139</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37911,7 +37911,7 @@
         <v>45147</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37968,7 +37968,7 @@
         <v>45147</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>

--- a/Översikt RONNEBY.xlsx
+++ b/Översikt RONNEBY.xlsx
@@ -572,7 +572,7 @@
         <v>43781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43653</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44925</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>45093</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>43406</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43502</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>43514</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>43529</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1274,7 +1274,7 @@
         <v>43608</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>43640</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>43817</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>44284</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1619,7 +1619,7 @@
         <v>44298</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>44305</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>44344</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>44425</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44952</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>44985</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>44998</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>45012</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>45120</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>45145</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>45152</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43319</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>43326</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>43333</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>43341</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43343</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43347</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>43350</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>43353</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>43354</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>43354</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>43357</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>43361</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         <v>43368</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>43369</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>43370</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         <v>43371</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         <v>43383</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>43390</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         <v>43390</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>43395</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>43395</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43397</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43397</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>43397</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3960,7 +3960,7 @@
         <v>43397</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>43397</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>43398</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43399</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>43401</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4260,7 +4260,7 @@
         <v>43402</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
         <v>43409</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>43409</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>43412</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>43412</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>43413</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43419</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>43419</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>43419</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43422</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43424</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43424</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43427</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43431</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43432</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43437</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43437</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43439</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43451</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43451</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43451</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43451</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43451</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5740,7 +5740,7 @@
         <v>43451</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>43451</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>43451</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43452</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43455</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>43471</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43473</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>43473</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>43475</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43482</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43485</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43488</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>43491</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>43491</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43491</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43501</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43501</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43503</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43507</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43508</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43508</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>43511</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43514</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43514</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43515</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>43518</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>43521</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43521</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43522</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>43529</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>43529</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43531</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43532</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43534</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>43534</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>43537</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43537</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43538</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43544</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43548</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43552</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43554</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43558</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43558</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43563</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43563</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43564</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>43565</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43570</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8635,7 +8635,7 @@
         <v>43570</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>43570</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43570</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8811,7 +8811,7 @@
         <v>43572</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8868,7 +8868,7 @@
         <v>43572</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43572</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>43572</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>43573</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>43573</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>43573</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>43573</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>43573</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>43573</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43573</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43573</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>43580</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>43580</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43581</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>43581</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>43600</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43600</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43600</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>43601</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>43601</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43605</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43614</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>43619</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>43619</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>43619</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>43619</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>43619</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>43619</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>43619</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>43621</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>43627</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43627</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43629</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>43629</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         <v>43629</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10923,7 +10923,7 @@
         <v>43630</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10980,7 +10980,7 @@
         <v>43640</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11037,7 +11037,7 @@
         <v>43647</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11094,7 +11094,7 @@
         <v>43647</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>43647</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>43647</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43648</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>43648</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>43648</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>43650</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>43655</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>43662</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>43662</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>43669</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>43670</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>43670</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>43677</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>43677</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>43678</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>43678</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>43681</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12120,7 +12120,7 @@
         <v>43682</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>43682</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12234,7 +12234,7 @@
         <v>43684</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>43685</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>43685</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>43685</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>43685</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>43689</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12581,7 +12581,7 @@
         <v>43690</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12638,7 +12638,7 @@
         <v>43692</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>43692</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>43692</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>43692</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>43696</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>43697</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>43698</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>43699</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>43705</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>43705</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>43706</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13342,7 +13342,7 @@
         <v>43707</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13399,7 +13399,7 @@
         <v>43707</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13456,7 +13456,7 @@
         <v>43710</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13513,7 +13513,7 @@
         <v>43710</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13570,7 +13570,7 @@
         <v>43711</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         <v>43711</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         <v>43711</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>43712</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>43712</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>43717</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>43718</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>43720</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>43725</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>43725</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>43725</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>43725</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>43726</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>43726</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>43727</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>43727</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>43730</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>43733</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>43741</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>43741</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>43742</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>43745</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14824,7 +14824,7 @@
         <v>43746</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14881,7 +14881,7 @@
         <v>43746</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14938,7 +14938,7 @@
         <v>43748</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         <v>43749</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15052,7 +15052,7 @@
         <v>43749</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15109,7 +15109,7 @@
         <v>43752</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15166,7 +15166,7 @@
         <v>43754</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15223,7 +15223,7 @@
         <v>43755</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15280,7 +15280,7 @@
         <v>43755</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
         <v>43761</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15394,7 +15394,7 @@
         <v>43761</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>43763</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>43766</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>43766</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>43767</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>43767</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>43768</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>43770</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>43781</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>43781</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>43781</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16031,7 +16031,7 @@
         <v>43783</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>43783</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>43787</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>43790</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>43803</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>43803</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>43804</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>43808</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>43811</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>43811</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>43817</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>43817</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>43817</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16772,7 +16772,7 @@
         <v>43818</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>43822</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>43822</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>43833</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         <v>43837</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>43837</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>43838</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17171,7 +17171,7 @@
         <v>43847</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         <v>43850</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17285,7 +17285,7 @@
         <v>43852</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17342,7 +17342,7 @@
         <v>43852</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17399,7 +17399,7 @@
         <v>43853</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17456,7 +17456,7 @@
         <v>43853</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
         <v>43854</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17570,7 +17570,7 @@
         <v>43854</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17627,7 +17627,7 @@
         <v>43858</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17684,7 +17684,7 @@
         <v>43860</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17741,7 +17741,7 @@
         <v>43874</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>43878</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>43878</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17917,7 +17917,7 @@
         <v>43880</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17979,7 +17979,7 @@
         <v>43881</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>43889</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>43895</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>43903</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>43906</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18269,7 +18269,7 @@
         <v>43909</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>43914</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18383,7 +18383,7 @@
         <v>43914</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18440,7 +18440,7 @@
         <v>43915</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18497,7 +18497,7 @@
         <v>43929</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18554,7 +18554,7 @@
         <v>43938</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18611,7 +18611,7 @@
         <v>43950</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>43963</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18725,7 +18725,7 @@
         <v>43969</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>43979</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>43984</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>43992</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>43992</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>43992</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>44004</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>44005</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>44005</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>44007</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>44019</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>44025</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>44025</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>44027</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>44027</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>44027</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>44027</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>44027</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>44029</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44032</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>44032</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>44032</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19979,7 +19979,7 @@
         <v>44035</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20041,7 +20041,7 @@
         <v>44047</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20098,7 +20098,7 @@
         <v>44050</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         <v>44055</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44055</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44060</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44061</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44063</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44068</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44070</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20564,7 +20564,7 @@
         <v>44070</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         <v>44070</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
         <v>44070</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20750,7 +20750,7 @@
         <v>44074</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20807,7 +20807,7 @@
         <v>44075</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20864,7 +20864,7 @@
         <v>44076</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20921,7 +20921,7 @@
         <v>44077</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20978,7 +20978,7 @@
         <v>44077</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21035,7 +21035,7 @@
         <v>44078</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21092,7 +21092,7 @@
         <v>44084</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21149,7 +21149,7 @@
         <v>44088</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21206,7 +21206,7 @@
         <v>44088</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21263,7 +21263,7 @@
         <v>44089</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21320,7 +21320,7 @@
         <v>44095</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21377,7 +21377,7 @@
         <v>44096</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21434,7 +21434,7 @@
         <v>44102</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21491,7 +21491,7 @@
         <v>44102</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21548,7 +21548,7 @@
         <v>44103</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>44104</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21662,7 +21662,7 @@
         <v>44104</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>44104</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21776,7 +21776,7 @@
         <v>44104</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>44104</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>44106</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         <v>44106</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22009,7 +22009,7 @@
         <v>44106</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         <v>44113</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         <v>44117</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>44119</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>44119</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>44120</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>44124</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44127</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>44127</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22522,7 +22522,7 @@
         <v>44127</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22579,7 +22579,7 @@
         <v>44131</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>44137</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22693,7 +22693,7 @@
         <v>44138</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22750,7 +22750,7 @@
         <v>44138</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22807,7 +22807,7 @@
         <v>44139</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22864,7 +22864,7 @@
         <v>44139</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22921,7 +22921,7 @@
         <v>44147</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22978,7 +22978,7 @@
         <v>44147</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23035,7 +23035,7 @@
         <v>44152</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23092,7 +23092,7 @@
         <v>44154</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23149,7 +23149,7 @@
         <v>44158</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23206,7 +23206,7 @@
         <v>44159</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23263,7 +23263,7 @@
         <v>44159</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23320,7 +23320,7 @@
         <v>44181</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>44187</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
         <v>44203</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>44203</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>44206</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23605,7 +23605,7 @@
         <v>44207</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>44209</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44215</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23781,7 +23781,7 @@
         <v>44216</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23843,7 +23843,7 @@
         <v>44218</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23900,7 +23900,7 @@
         <v>44218</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23957,7 +23957,7 @@
         <v>44222</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24014,7 +24014,7 @@
         <v>44236</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24071,7 +24071,7 @@
         <v>44238</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24128,7 +24128,7 @@
         <v>44238</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24185,7 +24185,7 @@
         <v>44239</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24242,7 +24242,7 @@
         <v>44245</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>44246</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24356,7 +24356,7 @@
         <v>44249</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44253</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>44257</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24527,7 +24527,7 @@
         <v>44257</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44258</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24641,7 +24641,7 @@
         <v>44258</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>44259</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>44271</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>44271</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24869,7 +24869,7 @@
         <v>44278</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24926,7 +24926,7 @@
         <v>44279</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>44300</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>44300</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>44307</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>44307</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>44307</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25268,7 +25268,7 @@
         <v>44307</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25325,7 +25325,7 @@
         <v>44307</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25382,7 +25382,7 @@
         <v>44311</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25439,7 +25439,7 @@
         <v>44312</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25496,7 +25496,7 @@
         <v>44316</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25553,7 +25553,7 @@
         <v>44319</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25610,7 +25610,7 @@
         <v>44326</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25667,7 +25667,7 @@
         <v>44326</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25724,7 +25724,7 @@
         <v>44340</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25781,7 +25781,7 @@
         <v>44341</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25838,7 +25838,7 @@
         <v>44343</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44361</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>44370</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26014,7 +26014,7 @@
         <v>44370</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26071,7 +26071,7 @@
         <v>44371</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26128,7 +26128,7 @@
         <v>44374</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26185,7 +26185,7 @@
         <v>44375</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26242,7 +26242,7 @@
         <v>44375</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>44378</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26356,7 +26356,7 @@
         <v>44385</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26413,7 +26413,7 @@
         <v>44419</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26475,7 +26475,7 @@
         <v>44420</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26537,7 +26537,7 @@
         <v>44421</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26594,7 +26594,7 @@
         <v>44424</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26651,7 +26651,7 @@
         <v>44425</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26708,7 +26708,7 @@
         <v>44432</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26765,7 +26765,7 @@
         <v>44432</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26822,7 +26822,7 @@
         <v>44439</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26879,7 +26879,7 @@
         <v>44451</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26936,7 +26936,7 @@
         <v>44456</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26993,7 +26993,7 @@
         <v>44465</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>44466</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27107,7 +27107,7 @@
         <v>44468</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27164,7 +27164,7 @@
         <v>44474</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44474</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>44489</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>44490</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>44490</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27449,7 +27449,7 @@
         <v>44493</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         <v>44494</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27563,7 +27563,7 @@
         <v>44501</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>44503</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>44504</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27734,7 +27734,7 @@
         <v>44504</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>44529</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>44539</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>44546</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>44553</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>44565</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>44571</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>44573</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>44579</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28247,7 +28247,7 @@
         <v>44581</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28304,7 +28304,7 @@
         <v>44589</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28361,7 +28361,7 @@
         <v>44595</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28418,7 +28418,7 @@
         <v>44596</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28475,7 +28475,7 @@
         <v>44601</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28532,7 +28532,7 @@
         <v>44606</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28589,7 +28589,7 @@
         <v>44609</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28646,7 +28646,7 @@
         <v>44617</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28703,7 +28703,7 @@
         <v>44617</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28765,7 +28765,7 @@
         <v>44627</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28822,7 +28822,7 @@
         <v>44627</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28879,7 +28879,7 @@
         <v>44630</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>44636</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28993,7 +28993,7 @@
         <v>44637</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>44638</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>44645</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29164,7 +29164,7 @@
         <v>44649</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29221,7 +29221,7 @@
         <v>44651</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29278,7 +29278,7 @@
         <v>44655</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>44655</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29402,7 +29402,7 @@
         <v>44656</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29459,7 +29459,7 @@
         <v>44676</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29516,7 +29516,7 @@
         <v>44694</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29573,7 +29573,7 @@
         <v>44694</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29630,7 +29630,7 @@
         <v>44704</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29687,7 +29687,7 @@
         <v>44713</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29744,7 +29744,7 @@
         <v>44721</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29801,7 +29801,7 @@
         <v>44722</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29858,7 +29858,7 @@
         <v>44729</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29915,7 +29915,7 @@
         <v>44739</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29972,7 +29972,7 @@
         <v>44750</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30034,7 +30034,7 @@
         <v>44753</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30091,7 +30091,7 @@
         <v>44756</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>44756</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30205,7 +30205,7 @@
         <v>44756</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>44762</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30324,7 +30324,7 @@
         <v>44762</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         <v>44762</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30448,7 +30448,7 @@
         <v>44774</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30505,7 +30505,7 @@
         <v>44775</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30562,7 +30562,7 @@
         <v>44775</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         <v>44798</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30681,7 +30681,7 @@
         <v>44806</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30738,7 +30738,7 @@
         <v>44806</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30795,7 +30795,7 @@
         <v>44809</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30852,7 +30852,7 @@
         <v>44817</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30909,7 +30909,7 @@
         <v>44827</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30966,7 +30966,7 @@
         <v>44834</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31023,7 +31023,7 @@
         <v>44848</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>44848</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>44854</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31194,7 +31194,7 @@
         <v>44860</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31251,7 +31251,7 @@
         <v>44862</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31308,7 +31308,7 @@
         <v>44865</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31365,7 +31365,7 @@
         <v>44872</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31422,7 +31422,7 @@
         <v>44872</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31479,7 +31479,7 @@
         <v>44890</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31536,7 +31536,7 @@
         <v>44890</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31593,7 +31593,7 @@
         <v>44893</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31650,7 +31650,7 @@
         <v>44902</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31707,7 +31707,7 @@
         <v>44903</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31764,7 +31764,7 @@
         <v>44903</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31821,7 +31821,7 @@
         <v>44916</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31878,7 +31878,7 @@
         <v>44925</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31935,7 +31935,7 @@
         <v>44937</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31992,7 +31992,7 @@
         <v>44939</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32049,7 +32049,7 @@
         <v>44944</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32106,7 +32106,7 @@
         <v>44956</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32163,7 +32163,7 @@
         <v>44956</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32220,7 +32220,7 @@
         <v>44957</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32277,7 +32277,7 @@
         <v>44966</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32334,7 +32334,7 @@
         <v>44969</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32391,7 +32391,7 @@
         <v>44972</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32448,7 +32448,7 @@
         <v>44973</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32510,7 +32510,7 @@
         <v>44973</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32572,7 +32572,7 @@
         <v>44973</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32634,7 +32634,7 @@
         <v>44973</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32696,7 +32696,7 @@
         <v>44980</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32758,7 +32758,7 @@
         <v>44980</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32820,7 +32820,7 @@
         <v>44980</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32882,7 +32882,7 @@
         <v>44981</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32939,7 +32939,7 @@
         <v>44987</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32996,7 +32996,7 @@
         <v>44992</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33058,7 +33058,7 @@
         <v>44998</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33115,7 +33115,7 @@
         <v>45001</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33172,7 +33172,7 @@
         <v>45001</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33229,7 +33229,7 @@
         <v>45001</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33286,7 +33286,7 @@
         <v>45001</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33343,7 +33343,7 @@
         <v>45002</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33400,7 +33400,7 @@
         <v>45006</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33457,7 +33457,7 @@
         <v>45006</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33514,7 +33514,7 @@
         <v>45006</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         <v>45009</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33628,7 +33628,7 @@
         <v>45012</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33685,7 +33685,7 @@
         <v>45012</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33747,7 +33747,7 @@
         <v>45012</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33804,7 +33804,7 @@
         <v>45012</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33861,7 +33861,7 @@
         <v>45012</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33923,7 +33923,7 @@
         <v>45012</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33980,7 +33980,7 @@
         <v>45012</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34037,7 +34037,7 @@
         <v>45012</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34099,7 +34099,7 @@
         <v>45019</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34156,7 +34156,7 @@
         <v>45019</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34213,7 +34213,7 @@
         <v>45019</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34270,7 +34270,7 @@
         <v>45028</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34327,7 +34327,7 @@
         <v>45029</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34384,7 +34384,7 @@
         <v>45036</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34441,7 +34441,7 @@
         <v>45040</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34498,7 +34498,7 @@
         <v>45041</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34555,7 +34555,7 @@
         <v>45042</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34612,7 +34612,7 @@
         <v>45049</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34669,7 +34669,7 @@
         <v>45049</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34726,7 +34726,7 @@
         <v>45053</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34783,7 +34783,7 @@
         <v>45055</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34840,7 +34840,7 @@
         <v>45056</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34897,7 +34897,7 @@
         <v>45058</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34954,7 +34954,7 @@
         <v>45058</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         <v>45061</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35068,7 +35068,7 @@
         <v>45061</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35125,7 +35125,7 @@
         <v>45061</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35182,7 +35182,7 @@
         <v>45061</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35239,7 +35239,7 @@
         <v>45061</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35296,7 +35296,7 @@
         <v>45062</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35358,7 +35358,7 @@
         <v>45062</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35420,7 +35420,7 @@
         <v>45063</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35482,7 +35482,7 @@
         <v>45063</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35544,7 +35544,7 @@
         <v>45068</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35601,7 +35601,7 @@
         <v>45070</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35658,7 +35658,7 @@
         <v>45072</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35715,7 +35715,7 @@
         <v>45072</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35772,7 +35772,7 @@
         <v>45072</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35829,7 +35829,7 @@
         <v>45075</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35886,7 +35886,7 @@
         <v>45075</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35943,7 +35943,7 @@
         <v>45078</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36000,7 +36000,7 @@
         <v>45078</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36057,7 +36057,7 @@
         <v>45082</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36119,7 +36119,7 @@
         <v>45084</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36176,7 +36176,7 @@
         <v>45085</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36233,7 +36233,7 @@
         <v>45096</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36290,7 +36290,7 @@
         <v>45098</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36347,7 +36347,7 @@
         <v>45099</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36404,7 +36404,7 @@
         <v>45099</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36461,7 +36461,7 @@
         <v>45103</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36518,7 +36518,7 @@
         <v>45103</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36580,7 +36580,7 @@
         <v>45103</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36637,7 +36637,7 @@
         <v>45104</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36699,7 +36699,7 @@
         <v>45104</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36761,7 +36761,7 @@
         <v>45104</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36823,7 +36823,7 @@
         <v>45104</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36880,7 +36880,7 @@
         <v>45104</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36937,7 +36937,7 @@
         <v>45104</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36994,7 +36994,7 @@
         <v>45105</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37051,7 +37051,7 @@
         <v>45105</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37113,7 +37113,7 @@
         <v>45106</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37170,7 +37170,7 @@
         <v>45110</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37227,7 +37227,7 @@
         <v>45110</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37284,7 +37284,7 @@
         <v>45112</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37341,7 +37341,7 @@
         <v>45117</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37398,7 +37398,7 @@
         <v>45118</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37455,7 +37455,7 @@
         <v>45118</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37512,7 +37512,7 @@
         <v>45118</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37569,7 +37569,7 @@
         <v>45118</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37626,7 +37626,7 @@
         <v>45118</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37683,7 +37683,7 @@
         <v>45118</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37740,7 +37740,7 @@
         <v>45119</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37797,7 +37797,7 @@
         <v>45119</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37854,7 +37854,7 @@
         <v>45139</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37911,7 +37911,7 @@
         <v>45147</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37968,7 +37968,7 @@
         <v>45147</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>

--- a/Översikt RONNEBY.xlsx
+++ b/Översikt RONNEBY.xlsx
@@ -572,7 +572,7 @@
         <v>43781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43653</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44925</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>45093</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>43406</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43502</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>43514</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>43529</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1274,7 +1274,7 @@
         <v>43608</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>43640</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>43817</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>44284</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1619,7 +1619,7 @@
         <v>44298</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>44305</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>44344</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>44425</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44952</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>44985</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>44998</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>45012</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>45120</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>45145</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>45152</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43319</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>43326</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>43333</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>43341</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43343</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43347</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>43350</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>43353</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>43354</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>43354</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>43357</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>43361</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         <v>43368</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>43369</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>43370</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         <v>43371</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         <v>43383</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>43390</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         <v>43390</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>43395</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>43395</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43397</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43397</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>43397</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3960,7 +3960,7 @@
         <v>43397</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>43397</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>43398</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43399</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>43401</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4260,7 +4260,7 @@
         <v>43402</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
         <v>43409</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>43409</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>43412</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>43412</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>43413</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43419</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>43419</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>43419</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43422</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43424</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43424</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43427</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43431</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43432</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43437</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43437</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43439</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43451</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43451</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43451</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43451</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43451</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5740,7 +5740,7 @@
         <v>43451</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>43451</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>43451</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43452</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43455</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>43471</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43473</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>43473</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>43475</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43482</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43485</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43488</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>43491</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>43491</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43491</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43501</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43501</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43503</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43507</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43508</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43508</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>43511</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43514</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43514</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43515</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>43518</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>43521</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43521</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43522</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>43529</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>43529</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43531</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43532</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43534</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>43534</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>43537</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43537</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43538</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43544</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43548</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43552</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43554</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43558</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43558</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43563</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43563</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43564</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>43565</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43570</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8635,7 +8635,7 @@
         <v>43570</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>43570</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43570</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8811,7 +8811,7 @@
         <v>43572</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8868,7 +8868,7 @@
         <v>43572</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43572</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>43572</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>43573</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>43573</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>43573</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>43573</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>43573</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>43573</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43573</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43573</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>43580</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>43580</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43581</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>43581</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>43600</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43600</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43600</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>43601</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>43601</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43605</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43614</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>43619</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>43619</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>43619</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>43619</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>43619</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>43619</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>43619</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>43621</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>43627</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43627</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43629</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>43629</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         <v>43629</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10923,7 +10923,7 @@
         <v>43630</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10980,7 +10980,7 @@
         <v>43640</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11037,7 +11037,7 @@
         <v>43647</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11094,7 +11094,7 @@
         <v>43647</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>43647</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>43647</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43648</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>43648</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>43648</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>43650</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>43655</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>43662</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>43662</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>43669</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>43670</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>43670</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>43677</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>43677</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>43678</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>43678</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>43681</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12120,7 +12120,7 @@
         <v>43682</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>43682</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12234,7 +12234,7 @@
         <v>43684</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>43685</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>43685</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>43685</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>43685</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>43689</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12581,7 +12581,7 @@
         <v>43690</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12638,7 +12638,7 @@
         <v>43692</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>43692</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>43692</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>43692</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>43696</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>43697</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>43698</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>43699</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>43705</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>43705</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>43706</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13342,7 +13342,7 @@
         <v>43707</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13399,7 +13399,7 @@
         <v>43707</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13456,7 +13456,7 @@
         <v>43710</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13513,7 +13513,7 @@
         <v>43710</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13570,7 +13570,7 @@
         <v>43711</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         <v>43711</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         <v>43711</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>43712</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>43712</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>43717</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>43718</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>43720</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>43725</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>43725</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>43725</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>43725</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>43726</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>43726</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>43727</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>43727</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>43730</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>43733</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>43741</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>43741</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>43742</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>43745</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14824,7 +14824,7 @@
         <v>43746</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14881,7 +14881,7 @@
         <v>43746</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14938,7 +14938,7 @@
         <v>43748</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         <v>43749</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15052,7 +15052,7 @@
         <v>43749</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15109,7 +15109,7 @@
         <v>43752</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15166,7 +15166,7 @@
         <v>43754</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15223,7 +15223,7 @@
         <v>43755</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15280,7 +15280,7 @@
         <v>43755</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
         <v>43761</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15394,7 +15394,7 @@
         <v>43761</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>43763</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>43766</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>43766</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>43767</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>43767</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>43768</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>43770</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>43781</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>43781</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>43781</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16031,7 +16031,7 @@
         <v>43783</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>43783</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>43787</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>43790</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>43803</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>43803</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>43804</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>43808</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>43811</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>43811</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>43817</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>43817</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>43817</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16772,7 +16772,7 @@
         <v>43818</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>43822</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>43822</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>43833</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         <v>43837</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>43837</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>43838</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17171,7 +17171,7 @@
         <v>43847</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         <v>43850</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17285,7 +17285,7 @@
         <v>43852</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17342,7 +17342,7 @@
         <v>43852</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17399,7 +17399,7 @@
         <v>43853</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17456,7 +17456,7 @@
         <v>43853</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
         <v>43854</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17570,7 +17570,7 @@
         <v>43854</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17627,7 +17627,7 @@
         <v>43858</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17684,7 +17684,7 @@
         <v>43860</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17741,7 +17741,7 @@
         <v>43874</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>43878</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>43878</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17917,7 +17917,7 @@
         <v>43880</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17979,7 +17979,7 @@
         <v>43881</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>43889</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>43895</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>43903</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>43906</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18269,7 +18269,7 @@
         <v>43909</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>43914</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18383,7 +18383,7 @@
         <v>43914</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18440,7 +18440,7 @@
         <v>43915</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18497,7 +18497,7 @@
         <v>43929</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18554,7 +18554,7 @@
         <v>43938</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18611,7 +18611,7 @@
         <v>43950</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>43963</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18725,7 +18725,7 @@
         <v>43969</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>43979</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>43984</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>43992</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>43992</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>43992</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>44004</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>44005</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>44005</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>44007</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>44019</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>44025</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>44025</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>44027</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>44027</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>44027</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>44027</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>44027</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>44029</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44032</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>44032</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>44032</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19979,7 +19979,7 @@
         <v>44035</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20041,7 +20041,7 @@
         <v>44047</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20098,7 +20098,7 @@
         <v>44050</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         <v>44055</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44055</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44060</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44061</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44063</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44068</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44070</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20564,7 +20564,7 @@
         <v>44070</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         <v>44070</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
         <v>44070</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20750,7 +20750,7 @@
         <v>44074</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20807,7 +20807,7 @@
         <v>44075</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20864,7 +20864,7 @@
         <v>44076</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20921,7 +20921,7 @@
         <v>44077</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20978,7 +20978,7 @@
         <v>44077</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21035,7 +21035,7 @@
         <v>44078</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21092,7 +21092,7 @@
         <v>44084</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21149,7 +21149,7 @@
         <v>44088</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21206,7 +21206,7 @@
         <v>44088</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21263,7 +21263,7 @@
         <v>44089</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21320,7 +21320,7 @@
         <v>44095</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21377,7 +21377,7 @@
         <v>44096</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21434,7 +21434,7 @@
         <v>44102</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21491,7 +21491,7 @@
         <v>44102</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21548,7 +21548,7 @@
         <v>44103</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>44104</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21662,7 +21662,7 @@
         <v>44104</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>44104</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21776,7 +21776,7 @@
         <v>44104</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>44104</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>44106</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         <v>44106</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22009,7 +22009,7 @@
         <v>44106</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         <v>44113</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         <v>44117</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>44119</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>44119</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>44120</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>44124</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44127</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>44127</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22522,7 +22522,7 @@
         <v>44127</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22579,7 +22579,7 @@
         <v>44131</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>44137</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22693,7 +22693,7 @@
         <v>44138</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22750,7 +22750,7 @@
         <v>44138</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22807,7 +22807,7 @@
         <v>44139</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22864,7 +22864,7 @@
         <v>44139</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22921,7 +22921,7 @@
         <v>44147</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22978,7 +22978,7 @@
         <v>44147</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23035,7 +23035,7 @@
         <v>44152</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23092,7 +23092,7 @@
         <v>44154</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23149,7 +23149,7 @@
         <v>44158</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23206,7 +23206,7 @@
         <v>44159</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23263,7 +23263,7 @@
         <v>44159</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23320,7 +23320,7 @@
         <v>44181</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>44187</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
         <v>44203</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>44203</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>44206</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23605,7 +23605,7 @@
         <v>44207</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>44209</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44215</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23781,7 +23781,7 @@
         <v>44216</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23843,7 +23843,7 @@
         <v>44218</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23900,7 +23900,7 @@
         <v>44218</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23957,7 +23957,7 @@
         <v>44222</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24014,7 +24014,7 @@
         <v>44236</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24071,7 +24071,7 @@
         <v>44238</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24128,7 +24128,7 @@
         <v>44238</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24185,7 +24185,7 @@
         <v>44239</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24242,7 +24242,7 @@
         <v>44245</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>44246</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24356,7 +24356,7 @@
         <v>44249</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44253</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>44257</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24527,7 +24527,7 @@
         <v>44257</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44258</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24641,7 +24641,7 @@
         <v>44258</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>44259</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>44271</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>44271</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24869,7 +24869,7 @@
         <v>44278</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24926,7 +24926,7 @@
         <v>44279</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>44300</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>44300</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>44307</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>44307</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>44307</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25268,7 +25268,7 @@
         <v>44307</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25325,7 +25325,7 @@
         <v>44307</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25382,7 +25382,7 @@
         <v>44311</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25439,7 +25439,7 @@
         <v>44312</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25496,7 +25496,7 @@
         <v>44316</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25553,7 +25553,7 @@
         <v>44319</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25610,7 +25610,7 @@
         <v>44326</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25667,7 +25667,7 @@
         <v>44326</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25724,7 +25724,7 @@
         <v>44340</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25781,7 +25781,7 @@
         <v>44341</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25838,7 +25838,7 @@
         <v>44343</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44361</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>44370</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26014,7 +26014,7 @@
         <v>44370</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26071,7 +26071,7 @@
         <v>44371</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26128,7 +26128,7 @@
         <v>44374</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26185,7 +26185,7 @@
         <v>44375</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26242,7 +26242,7 @@
         <v>44375</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>44378</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26356,7 +26356,7 @@
         <v>44385</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26413,7 +26413,7 @@
         <v>44419</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26475,7 +26475,7 @@
         <v>44420</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26537,7 +26537,7 @@
         <v>44421</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26594,7 +26594,7 @@
         <v>44424</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26651,7 +26651,7 @@
         <v>44425</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26708,7 +26708,7 @@
         <v>44432</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26765,7 +26765,7 @@
         <v>44432</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26822,7 +26822,7 @@
         <v>44439</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26879,7 +26879,7 @@
         <v>44451</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26936,7 +26936,7 @@
         <v>44456</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26993,7 +26993,7 @@
         <v>44465</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>44466</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27107,7 +27107,7 @@
         <v>44468</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27164,7 +27164,7 @@
         <v>44474</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44474</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>44489</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>44490</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>44490</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27449,7 +27449,7 @@
         <v>44493</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         <v>44494</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27563,7 +27563,7 @@
         <v>44501</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>44503</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>44504</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27734,7 +27734,7 @@
         <v>44504</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>44529</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>44539</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>44546</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>44553</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>44565</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>44571</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>44573</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>44579</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28247,7 +28247,7 @@
         <v>44581</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28304,7 +28304,7 @@
         <v>44589</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28361,7 +28361,7 @@
         <v>44595</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28418,7 +28418,7 @@
         <v>44596</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28475,7 +28475,7 @@
         <v>44601</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28532,7 +28532,7 @@
         <v>44606</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28589,7 +28589,7 @@
         <v>44609</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28646,7 +28646,7 @@
         <v>44617</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28703,7 +28703,7 @@
         <v>44617</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28765,7 +28765,7 @@
         <v>44627</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28822,7 +28822,7 @@
         <v>44627</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28879,7 +28879,7 @@
         <v>44630</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>44636</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28993,7 +28993,7 @@
         <v>44637</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>44638</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>44645</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29164,7 +29164,7 @@
         <v>44649</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29221,7 +29221,7 @@
         <v>44651</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29278,7 +29278,7 @@
         <v>44655</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>44655</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29402,7 +29402,7 @@
         <v>44656</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29459,7 +29459,7 @@
         <v>44676</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29516,7 +29516,7 @@
         <v>44694</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29573,7 +29573,7 @@
         <v>44694</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29630,7 +29630,7 @@
         <v>44704</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29687,7 +29687,7 @@
         <v>44713</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29744,7 +29744,7 @@
         <v>44721</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29801,7 +29801,7 @@
         <v>44722</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29858,7 +29858,7 @@
         <v>44729</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29915,7 +29915,7 @@
         <v>44739</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29972,7 +29972,7 @@
         <v>44750</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30034,7 +30034,7 @@
         <v>44753</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30091,7 +30091,7 @@
         <v>44756</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>44756</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30205,7 +30205,7 @@
         <v>44756</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>44762</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30324,7 +30324,7 @@
         <v>44762</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         <v>44762</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30448,7 +30448,7 @@
         <v>44774</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30505,7 +30505,7 @@
         <v>44775</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30562,7 +30562,7 @@
         <v>44775</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         <v>44798</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30681,7 +30681,7 @@
         <v>44806</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30738,7 +30738,7 @@
         <v>44806</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30795,7 +30795,7 @@
         <v>44809</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30852,7 +30852,7 @@
         <v>44817</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30909,7 +30909,7 @@
         <v>44827</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30966,7 +30966,7 @@
         <v>44834</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31023,7 +31023,7 @@
         <v>44848</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>44848</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>44854</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31194,7 +31194,7 @@
         <v>44860</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31251,7 +31251,7 @@
         <v>44862</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31308,7 +31308,7 @@
         <v>44865</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31365,7 +31365,7 @@
         <v>44872</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31422,7 +31422,7 @@
         <v>44872</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31479,7 +31479,7 @@
         <v>44890</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31536,7 +31536,7 @@
         <v>44890</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31593,7 +31593,7 @@
         <v>44893</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31650,7 +31650,7 @@
         <v>44902</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31707,7 +31707,7 @@
         <v>44903</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31764,7 +31764,7 @@
         <v>44903</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31821,7 +31821,7 @@
         <v>44916</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31878,7 +31878,7 @@
         <v>44925</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31935,7 +31935,7 @@
         <v>44937</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31992,7 +31992,7 @@
         <v>44939</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32049,7 +32049,7 @@
         <v>44944</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32106,7 +32106,7 @@
         <v>44956</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32163,7 +32163,7 @@
         <v>44956</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32220,7 +32220,7 @@
         <v>44957</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32277,7 +32277,7 @@
         <v>44966</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32334,7 +32334,7 @@
         <v>44969</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32391,7 +32391,7 @@
         <v>44972</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32448,7 +32448,7 @@
         <v>44973</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32510,7 +32510,7 @@
         <v>44973</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32572,7 +32572,7 @@
         <v>44973</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32634,7 +32634,7 @@
         <v>44973</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32696,7 +32696,7 @@
         <v>44980</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32758,7 +32758,7 @@
         <v>44980</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32820,7 +32820,7 @@
         <v>44980</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32882,7 +32882,7 @@
         <v>44981</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32939,7 +32939,7 @@
         <v>44987</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32996,7 +32996,7 @@
         <v>44992</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33058,7 +33058,7 @@
         <v>44998</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33115,7 +33115,7 @@
         <v>45001</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33172,7 +33172,7 @@
         <v>45001</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33229,7 +33229,7 @@
         <v>45001</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33286,7 +33286,7 @@
         <v>45001</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33343,7 +33343,7 @@
         <v>45002</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33400,7 +33400,7 @@
         <v>45006</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33457,7 +33457,7 @@
         <v>45006</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33514,7 +33514,7 @@
         <v>45006</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         <v>45009</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33628,7 +33628,7 @@
         <v>45012</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33685,7 +33685,7 @@
         <v>45012</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33747,7 +33747,7 @@
         <v>45012</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33804,7 +33804,7 @@
         <v>45012</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33861,7 +33861,7 @@
         <v>45012</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33923,7 +33923,7 @@
         <v>45012</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33980,7 +33980,7 @@
         <v>45012</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34037,7 +34037,7 @@
         <v>45012</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34099,7 +34099,7 @@
         <v>45019</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34156,7 +34156,7 @@
         <v>45019</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34213,7 +34213,7 @@
         <v>45019</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34270,7 +34270,7 @@
         <v>45028</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34327,7 +34327,7 @@
         <v>45029</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34384,7 +34384,7 @@
         <v>45036</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34441,7 +34441,7 @@
         <v>45040</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34498,7 +34498,7 @@
         <v>45041</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34555,7 +34555,7 @@
         <v>45042</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34612,7 +34612,7 @@
         <v>45049</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34669,7 +34669,7 @@
         <v>45049</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34726,7 +34726,7 @@
         <v>45053</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34783,7 +34783,7 @@
         <v>45055</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34840,7 +34840,7 @@
         <v>45056</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34897,7 +34897,7 @@
         <v>45058</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34954,7 +34954,7 @@
         <v>45058</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         <v>45061</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35068,7 +35068,7 @@
         <v>45061</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35125,7 +35125,7 @@
         <v>45061</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35182,7 +35182,7 @@
         <v>45061</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35239,7 +35239,7 @@
         <v>45061</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35296,7 +35296,7 @@
         <v>45062</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35358,7 +35358,7 @@
         <v>45062</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35420,7 +35420,7 @@
         <v>45063</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35482,7 +35482,7 @@
         <v>45063</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35544,7 +35544,7 @@
         <v>45068</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35601,7 +35601,7 @@
         <v>45070</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35658,7 +35658,7 @@
         <v>45072</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35715,7 +35715,7 @@
         <v>45072</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35772,7 +35772,7 @@
         <v>45072</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35829,7 +35829,7 @@
         <v>45075</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35886,7 +35886,7 @@
         <v>45075</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35943,7 +35943,7 @@
         <v>45078</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36000,7 +36000,7 @@
         <v>45078</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36057,7 +36057,7 @@
         <v>45082</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36119,7 +36119,7 @@
         <v>45084</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36176,7 +36176,7 @@
         <v>45085</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36233,7 +36233,7 @@
         <v>45096</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36290,7 +36290,7 @@
         <v>45098</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36347,7 +36347,7 @@
         <v>45099</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36404,7 +36404,7 @@
         <v>45099</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36461,7 +36461,7 @@
         <v>45103</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36518,7 +36518,7 @@
         <v>45103</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36580,7 +36580,7 @@
         <v>45103</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36637,7 +36637,7 @@
         <v>45104</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36699,7 +36699,7 @@
         <v>45104</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36761,7 +36761,7 @@
         <v>45104</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36823,7 +36823,7 @@
         <v>45104</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36880,7 +36880,7 @@
         <v>45104</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36937,7 +36937,7 @@
         <v>45104</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36994,7 +36994,7 @@
         <v>45105</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37051,7 +37051,7 @@
         <v>45105</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37113,7 +37113,7 @@
         <v>45106</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37170,7 +37170,7 @@
         <v>45110</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37227,7 +37227,7 @@
         <v>45110</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37284,7 +37284,7 @@
         <v>45112</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37341,7 +37341,7 @@
         <v>45117</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37398,7 +37398,7 @@
         <v>45118</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37455,7 +37455,7 @@
         <v>45118</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37512,7 +37512,7 @@
         <v>45118</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37569,7 +37569,7 @@
         <v>45118</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37626,7 +37626,7 @@
         <v>45118</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37683,7 +37683,7 @@
         <v>45118</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37740,7 +37740,7 @@
         <v>45119</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37797,7 +37797,7 @@
         <v>45119</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37854,7 +37854,7 @@
         <v>45139</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37911,7 +37911,7 @@
         <v>45147</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37968,7 +37968,7 @@
         <v>45147</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>

--- a/Översikt RONNEBY.xlsx
+++ b/Översikt RONNEBY.xlsx
@@ -572,7 +572,7 @@
         <v>43781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43653</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44925</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>45093</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>43406</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43502</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>43514</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>43529</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1274,7 +1274,7 @@
         <v>43608</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>43640</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>43817</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>44284</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1619,7 +1619,7 @@
         <v>44298</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>44305</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>44344</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>44425</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44952</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>44985</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>44998</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>45012</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>45120</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>45145</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>45152</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43319</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>43326</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>43333</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>43341</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43343</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43347</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>43350</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>43353</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>43354</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>43354</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>43357</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>43361</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         <v>43368</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>43369</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>43370</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         <v>43371</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         <v>43383</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>43390</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         <v>43390</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>43395</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>43395</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43397</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43397</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>43397</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3960,7 +3960,7 @@
         <v>43397</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>43397</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>43398</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43399</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>43401</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4260,7 +4260,7 @@
         <v>43402</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
         <v>43409</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>43409</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>43412</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>43412</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>43413</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43419</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>43419</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>43419</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43422</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43424</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43424</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43427</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43431</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43432</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43437</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43437</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43439</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43451</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43451</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43451</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43451</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43451</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5740,7 +5740,7 @@
         <v>43451</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>43451</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>43451</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43452</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43455</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>43471</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43473</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>43473</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>43475</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43482</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43485</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43488</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>43491</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>43491</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43491</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43501</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43501</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43503</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43507</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43508</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43508</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>43511</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43514</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43514</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43515</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>43518</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>43521</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43521</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43522</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>43529</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>43529</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43531</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43532</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43534</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>43534</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>43537</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43537</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43538</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43544</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43548</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43552</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43554</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43558</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43558</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43563</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43563</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43564</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>43565</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43570</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8635,7 +8635,7 @@
         <v>43570</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>43570</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43570</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8811,7 +8811,7 @@
         <v>43572</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8868,7 +8868,7 @@
         <v>43572</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43572</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>43572</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>43573</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>43573</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>43573</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>43573</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>43573</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>43573</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43573</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43573</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>43580</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>43580</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43581</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>43581</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>43600</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43600</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43600</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>43601</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>43601</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43605</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43614</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>43619</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>43619</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>43619</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>43619</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>43619</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>43619</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>43619</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>43621</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>43627</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43627</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43629</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>43629</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         <v>43629</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10923,7 +10923,7 @@
         <v>43630</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10980,7 +10980,7 @@
         <v>43640</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11037,7 +11037,7 @@
         <v>43647</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11094,7 +11094,7 @@
         <v>43647</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>43647</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>43647</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43648</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>43648</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>43648</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>43650</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>43655</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>43662</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>43662</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>43669</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>43670</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>43670</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>43677</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>43677</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>43678</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>43678</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>43681</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12120,7 +12120,7 @@
         <v>43682</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>43682</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12234,7 +12234,7 @@
         <v>43684</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>43685</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>43685</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>43685</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>43685</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>43689</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12581,7 +12581,7 @@
         <v>43690</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12638,7 +12638,7 @@
         <v>43692</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>43692</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>43692</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>43692</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>43696</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>43697</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>43698</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>43699</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>43705</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>43705</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>43706</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13342,7 +13342,7 @@
         <v>43707</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13399,7 +13399,7 @@
         <v>43707</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13456,7 +13456,7 @@
         <v>43710</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13513,7 +13513,7 @@
         <v>43710</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13570,7 +13570,7 @@
         <v>43711</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         <v>43711</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         <v>43711</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>43712</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>43712</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>43717</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>43718</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>43720</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>43725</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>43725</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>43725</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>43725</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>43726</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>43726</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>43727</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>43727</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>43730</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>43733</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>43741</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>43741</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>43742</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>43745</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14824,7 +14824,7 @@
         <v>43746</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14881,7 +14881,7 @@
         <v>43746</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14938,7 +14938,7 @@
         <v>43748</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         <v>43749</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15052,7 +15052,7 @@
         <v>43749</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15109,7 +15109,7 @@
         <v>43752</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15166,7 +15166,7 @@
         <v>43754</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15223,7 +15223,7 @@
         <v>43755</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15280,7 +15280,7 @@
         <v>43755</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
         <v>43761</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15394,7 +15394,7 @@
         <v>43761</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>43763</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>43766</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>43766</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>43767</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>43767</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>43768</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>43770</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>43781</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>43781</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>43781</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16031,7 +16031,7 @@
         <v>43783</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>43783</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>43787</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>43790</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>43803</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>43803</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>43804</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>43808</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>43811</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>43811</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>43817</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>43817</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>43817</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16772,7 +16772,7 @@
         <v>43818</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>43822</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>43822</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>43833</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         <v>43837</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>43837</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>43838</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17171,7 +17171,7 @@
         <v>43847</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         <v>43850</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17285,7 +17285,7 @@
         <v>43852</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17342,7 +17342,7 @@
         <v>43852</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17399,7 +17399,7 @@
         <v>43853</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17456,7 +17456,7 @@
         <v>43853</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
         <v>43854</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17570,7 +17570,7 @@
         <v>43854</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17627,7 +17627,7 @@
         <v>43858</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17684,7 +17684,7 @@
         <v>43860</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17741,7 +17741,7 @@
         <v>43874</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>43878</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>43878</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17917,7 +17917,7 @@
         <v>43880</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17979,7 +17979,7 @@
         <v>43881</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>43889</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>43895</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>43903</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>43906</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18269,7 +18269,7 @@
         <v>43909</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>43914</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18383,7 +18383,7 @@
         <v>43914</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18440,7 +18440,7 @@
         <v>43915</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18497,7 +18497,7 @@
         <v>43929</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18554,7 +18554,7 @@
         <v>43938</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18611,7 +18611,7 @@
         <v>43950</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>43963</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18725,7 +18725,7 @@
         <v>43969</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>43979</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>43984</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>43992</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>43992</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>43992</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>44004</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>44005</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>44005</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>44007</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>44019</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>44025</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>44025</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>44027</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>44027</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>44027</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>44027</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>44027</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>44029</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44032</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>44032</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>44032</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19979,7 +19979,7 @@
         <v>44035</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20041,7 +20041,7 @@
         <v>44047</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20098,7 +20098,7 @@
         <v>44050</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         <v>44055</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44055</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44060</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44061</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44063</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44068</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44070</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20564,7 +20564,7 @@
         <v>44070</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         <v>44070</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
         <v>44070</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20750,7 +20750,7 @@
         <v>44074</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20807,7 +20807,7 @@
         <v>44075</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20864,7 +20864,7 @@
         <v>44076</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20921,7 +20921,7 @@
         <v>44077</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20978,7 +20978,7 @@
         <v>44077</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21035,7 +21035,7 @@
         <v>44078</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21092,7 +21092,7 @@
         <v>44084</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21149,7 +21149,7 @@
         <v>44088</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21206,7 +21206,7 @@
         <v>44088</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21263,7 +21263,7 @@
         <v>44089</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21320,7 +21320,7 @@
         <v>44095</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21377,7 +21377,7 @@
         <v>44096</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21434,7 +21434,7 @@
         <v>44102</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21491,7 +21491,7 @@
         <v>44102</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21548,7 +21548,7 @@
         <v>44103</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>44104</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21662,7 +21662,7 @@
         <v>44104</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>44104</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21776,7 +21776,7 @@
         <v>44104</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>44104</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>44106</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         <v>44106</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22009,7 +22009,7 @@
         <v>44106</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         <v>44113</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         <v>44117</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>44119</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>44119</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>44120</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>44124</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44127</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>44127</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22522,7 +22522,7 @@
         <v>44127</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22579,7 +22579,7 @@
         <v>44131</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>44137</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22693,7 +22693,7 @@
         <v>44138</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22750,7 +22750,7 @@
         <v>44138</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22807,7 +22807,7 @@
         <v>44139</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22864,7 +22864,7 @@
         <v>44139</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22921,7 +22921,7 @@
         <v>44147</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22978,7 +22978,7 @@
         <v>44147</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23035,7 +23035,7 @@
         <v>44152</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23092,7 +23092,7 @@
         <v>44154</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23149,7 +23149,7 @@
         <v>44158</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23206,7 +23206,7 @@
         <v>44159</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23263,7 +23263,7 @@
         <v>44159</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23320,7 +23320,7 @@
         <v>44181</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>44187</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
         <v>44203</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>44203</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>44206</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23605,7 +23605,7 @@
         <v>44207</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>44209</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44215</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23781,7 +23781,7 @@
         <v>44216</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23843,7 +23843,7 @@
         <v>44218</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23900,7 +23900,7 @@
         <v>44218</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23957,7 +23957,7 @@
         <v>44222</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24014,7 +24014,7 @@
         <v>44236</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24071,7 +24071,7 @@
         <v>44238</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24128,7 +24128,7 @@
         <v>44238</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24185,7 +24185,7 @@
         <v>44239</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24242,7 +24242,7 @@
         <v>44245</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>44246</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24356,7 +24356,7 @@
         <v>44249</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44253</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>44257</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24527,7 +24527,7 @@
         <v>44257</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44258</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24641,7 +24641,7 @@
         <v>44258</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>44259</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>44271</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>44271</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24869,7 +24869,7 @@
         <v>44278</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24926,7 +24926,7 @@
         <v>44279</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>44300</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>44300</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>44307</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>44307</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>44307</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25268,7 +25268,7 @@
         <v>44307</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25325,7 +25325,7 @@
         <v>44307</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25382,7 +25382,7 @@
         <v>44311</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25439,7 +25439,7 @@
         <v>44312</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25496,7 +25496,7 @@
         <v>44316</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25553,7 +25553,7 @@
         <v>44319</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25610,7 +25610,7 @@
         <v>44326</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25667,7 +25667,7 @@
         <v>44326</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25724,7 +25724,7 @@
         <v>44340</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25781,7 +25781,7 @@
         <v>44341</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25838,7 +25838,7 @@
         <v>44343</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44361</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>44370</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26014,7 +26014,7 @@
         <v>44370</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26071,7 +26071,7 @@
         <v>44371</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26128,7 +26128,7 @@
         <v>44374</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26185,7 +26185,7 @@
         <v>44375</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26242,7 +26242,7 @@
         <v>44375</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>44378</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26356,7 +26356,7 @@
         <v>44385</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26413,7 +26413,7 @@
         <v>44419</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26475,7 +26475,7 @@
         <v>44420</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26537,7 +26537,7 @@
         <v>44421</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26594,7 +26594,7 @@
         <v>44424</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26651,7 +26651,7 @@
         <v>44425</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26708,7 +26708,7 @@
         <v>44432</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26765,7 +26765,7 @@
         <v>44432</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26822,7 +26822,7 @@
         <v>44439</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26879,7 +26879,7 @@
         <v>44451</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26936,7 +26936,7 @@
         <v>44456</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26993,7 +26993,7 @@
         <v>44465</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>44466</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27107,7 +27107,7 @@
         <v>44468</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27164,7 +27164,7 @@
         <v>44474</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44474</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>44489</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>44490</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>44490</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27449,7 +27449,7 @@
         <v>44493</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         <v>44494</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27563,7 +27563,7 @@
         <v>44501</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>44503</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>44504</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27734,7 +27734,7 @@
         <v>44504</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>44529</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>44539</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>44546</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>44553</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>44565</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>44571</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>44573</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>44579</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28247,7 +28247,7 @@
         <v>44581</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28304,7 +28304,7 @@
         <v>44589</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28361,7 +28361,7 @@
         <v>44595</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28418,7 +28418,7 @@
         <v>44596</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28475,7 +28475,7 @@
         <v>44601</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28532,7 +28532,7 @@
         <v>44606</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28589,7 +28589,7 @@
         <v>44609</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28646,7 +28646,7 @@
         <v>44617</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28703,7 +28703,7 @@
         <v>44617</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28765,7 +28765,7 @@
         <v>44627</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28822,7 +28822,7 @@
         <v>44627</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28879,7 +28879,7 @@
         <v>44630</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>44636</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28993,7 +28993,7 @@
         <v>44637</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>44638</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>44645</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29164,7 +29164,7 @@
         <v>44649</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29221,7 +29221,7 @@
         <v>44651</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29278,7 +29278,7 @@
         <v>44655</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>44655</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29402,7 +29402,7 @@
         <v>44656</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29459,7 +29459,7 @@
         <v>44676</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29516,7 +29516,7 @@
         <v>44694</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29573,7 +29573,7 @@
         <v>44694</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29630,7 +29630,7 @@
         <v>44704</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29687,7 +29687,7 @@
         <v>44713</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29744,7 +29744,7 @@
         <v>44721</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29801,7 +29801,7 @@
         <v>44722</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29858,7 +29858,7 @@
         <v>44729</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29915,7 +29915,7 @@
         <v>44739</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29972,7 +29972,7 @@
         <v>44750</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30034,7 +30034,7 @@
         <v>44753</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30091,7 +30091,7 @@
         <v>44756</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>44756</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30205,7 +30205,7 @@
         <v>44756</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>44762</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30324,7 +30324,7 @@
         <v>44762</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         <v>44762</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30448,7 +30448,7 @@
         <v>44774</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30505,7 +30505,7 @@
         <v>44775</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30562,7 +30562,7 @@
         <v>44775</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         <v>44798</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30681,7 +30681,7 @@
         <v>44806</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30738,7 +30738,7 @@
         <v>44806</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30795,7 +30795,7 @@
         <v>44809</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30852,7 +30852,7 @@
         <v>44817</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30909,7 +30909,7 @@
         <v>44827</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30966,7 +30966,7 @@
         <v>44834</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31023,7 +31023,7 @@
         <v>44848</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>44848</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>44854</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31194,7 +31194,7 @@
         <v>44860</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31251,7 +31251,7 @@
         <v>44862</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31308,7 +31308,7 @@
         <v>44865</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31365,7 +31365,7 @@
         <v>44872</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31422,7 +31422,7 @@
         <v>44872</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31479,7 +31479,7 @@
         <v>44890</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31536,7 +31536,7 @@
         <v>44890</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31593,7 +31593,7 @@
         <v>44893</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31650,7 +31650,7 @@
         <v>44902</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31707,7 +31707,7 @@
         <v>44903</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31764,7 +31764,7 @@
         <v>44903</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31821,7 +31821,7 @@
         <v>44916</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31878,7 +31878,7 @@
         <v>44925</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31935,7 +31935,7 @@
         <v>44937</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31992,7 +31992,7 @@
         <v>44939</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32049,7 +32049,7 @@
         <v>44944</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32106,7 +32106,7 @@
         <v>44956</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32163,7 +32163,7 @@
         <v>44956</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32220,7 +32220,7 @@
         <v>44957</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32277,7 +32277,7 @@
         <v>44966</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32334,7 +32334,7 @@
         <v>44969</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32391,7 +32391,7 @@
         <v>44972</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32448,7 +32448,7 @@
         <v>44973</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32510,7 +32510,7 @@
         <v>44973</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32572,7 +32572,7 @@
         <v>44973</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32634,7 +32634,7 @@
         <v>44973</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32696,7 +32696,7 @@
         <v>44980</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32758,7 +32758,7 @@
         <v>44980</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32820,7 +32820,7 @@
         <v>44980</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32882,7 +32882,7 @@
         <v>44981</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32939,7 +32939,7 @@
         <v>44987</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32996,7 +32996,7 @@
         <v>44992</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33058,7 +33058,7 @@
         <v>44998</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33115,7 +33115,7 @@
         <v>45001</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33172,7 +33172,7 @@
         <v>45001</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33229,7 +33229,7 @@
         <v>45001</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33286,7 +33286,7 @@
         <v>45001</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33343,7 +33343,7 @@
         <v>45002</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33400,7 +33400,7 @@
         <v>45006</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33457,7 +33457,7 @@
         <v>45006</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33514,7 +33514,7 @@
         <v>45006</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         <v>45009</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33628,7 +33628,7 @@
         <v>45012</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33685,7 +33685,7 @@
         <v>45012</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33747,7 +33747,7 @@
         <v>45012</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33804,7 +33804,7 @@
         <v>45012</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33861,7 +33861,7 @@
         <v>45012</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33923,7 +33923,7 @@
         <v>45012</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33980,7 +33980,7 @@
         <v>45012</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34037,7 +34037,7 @@
         <v>45012</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34099,7 +34099,7 @@
         <v>45019</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34156,7 +34156,7 @@
         <v>45019</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34213,7 +34213,7 @@
         <v>45019</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34270,7 +34270,7 @@
         <v>45028</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34327,7 +34327,7 @@
         <v>45029</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34384,7 +34384,7 @@
         <v>45036</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34441,7 +34441,7 @@
         <v>45040</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34498,7 +34498,7 @@
         <v>45041</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34555,7 +34555,7 @@
         <v>45042</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34612,7 +34612,7 @@
         <v>45049</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34669,7 +34669,7 @@
         <v>45049</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34726,7 +34726,7 @@
         <v>45053</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34783,7 +34783,7 @@
         <v>45055</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34840,7 +34840,7 @@
         <v>45056</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34897,7 +34897,7 @@
         <v>45058</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34954,7 +34954,7 @@
         <v>45058</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         <v>45061</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35068,7 +35068,7 @@
         <v>45061</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35125,7 +35125,7 @@
         <v>45061</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35182,7 +35182,7 @@
         <v>45061</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35239,7 +35239,7 @@
         <v>45061</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35296,7 +35296,7 @@
         <v>45062</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35358,7 +35358,7 @@
         <v>45062</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35420,7 +35420,7 @@
         <v>45063</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35482,7 +35482,7 @@
         <v>45063</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35544,7 +35544,7 @@
         <v>45068</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35601,7 +35601,7 @@
         <v>45070</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35658,7 +35658,7 @@
         <v>45072</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35715,7 +35715,7 @@
         <v>45072</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35772,7 +35772,7 @@
         <v>45072</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35829,7 +35829,7 @@
         <v>45075</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35886,7 +35886,7 @@
         <v>45075</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35943,7 +35943,7 @@
         <v>45078</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36000,7 +36000,7 @@
         <v>45078</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36057,7 +36057,7 @@
         <v>45082</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36119,7 +36119,7 @@
         <v>45084</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36176,7 +36176,7 @@
         <v>45085</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36233,7 +36233,7 @@
         <v>45096</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36290,7 +36290,7 @@
         <v>45098</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36347,7 +36347,7 @@
         <v>45099</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36404,7 +36404,7 @@
         <v>45099</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36461,7 +36461,7 @@
         <v>45103</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36518,7 +36518,7 @@
         <v>45103</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36580,7 +36580,7 @@
         <v>45103</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36637,7 +36637,7 @@
         <v>45104</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36699,7 +36699,7 @@
         <v>45104</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36761,7 +36761,7 @@
         <v>45104</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36823,7 +36823,7 @@
         <v>45104</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36880,7 +36880,7 @@
         <v>45104</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36937,7 +36937,7 @@
         <v>45104</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36994,7 +36994,7 @@
         <v>45105</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37051,7 +37051,7 @@
         <v>45105</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37113,7 +37113,7 @@
         <v>45106</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37170,7 +37170,7 @@
         <v>45110</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37227,7 +37227,7 @@
         <v>45110</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37284,7 +37284,7 @@
         <v>45112</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37341,7 +37341,7 @@
         <v>45117</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37398,7 +37398,7 @@
         <v>45118</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37455,7 +37455,7 @@
         <v>45118</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37512,7 +37512,7 @@
         <v>45118</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37569,7 +37569,7 @@
         <v>45118</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37626,7 +37626,7 @@
         <v>45118</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37683,7 +37683,7 @@
         <v>45118</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37740,7 +37740,7 @@
         <v>45119</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37797,7 +37797,7 @@
         <v>45119</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37854,7 +37854,7 @@
         <v>45139</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37911,7 +37911,7 @@
         <v>45147</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37968,7 +37968,7 @@
         <v>45147</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>

--- a/Översikt RONNEBY.xlsx
+++ b/Översikt RONNEBY.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y638"/>
+  <dimension ref="A1:Y647"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43653</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44925</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>45093</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>43406</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43502</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>43514</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>43529</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1274,7 +1274,7 @@
         <v>43608</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>43640</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>43817</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>44284</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1619,7 +1619,7 @@
         <v>44298</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>44305</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>44344</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>44425</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44952</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>44985</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>44998</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>45012</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>45120</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>45145</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>45152</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43319</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>43326</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>43333</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>43341</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43343</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43347</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>43350</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>43353</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>43354</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>43354</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>43357</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>43361</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         <v>43368</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>43369</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>43370</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         <v>43371</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         <v>43383</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>43390</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         <v>43390</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>43395</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>43395</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43397</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43397</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>43397</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3960,7 +3960,7 @@
         <v>43397</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>43397</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>43398</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43399</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>43401</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4260,7 +4260,7 @@
         <v>43402</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
         <v>43409</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>43409</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>43412</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>43412</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>43413</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43419</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>43419</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>43419</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43422</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43424</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43424</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43427</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43431</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43432</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43437</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43437</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43439</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43451</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43451</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43451</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43451</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43451</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5740,7 +5740,7 @@
         <v>43451</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>43451</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>43451</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43452</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43455</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>43471</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43473</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>43473</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>43475</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43482</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43485</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43488</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>43491</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>43491</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43491</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43501</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43501</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43503</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43507</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43508</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43508</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>43511</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43514</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43514</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43515</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>43518</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>43521</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43521</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43522</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>43529</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>43529</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43531</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43532</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43534</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>43534</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>43537</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43537</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43538</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43544</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43548</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43552</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43554</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43558</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43558</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43563</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43563</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43564</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>43565</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43570</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8635,7 +8635,7 @@
         <v>43570</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>43570</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43570</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8811,7 +8811,7 @@
         <v>43572</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8868,7 +8868,7 @@
         <v>43572</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43572</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>43572</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>43573</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>43573</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>43573</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>43573</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>43573</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>43573</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43573</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43573</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>43580</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>43580</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43581</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>43581</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>43600</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43600</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43600</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>43601</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>43601</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43605</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43614</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>43619</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>43619</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>43619</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>43619</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>43619</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>43619</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>43619</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>43621</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>43627</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43627</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43629</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>43629</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         <v>43629</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10923,7 +10923,7 @@
         <v>43630</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10980,7 +10980,7 @@
         <v>43640</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11037,7 +11037,7 @@
         <v>43647</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11094,7 +11094,7 @@
         <v>43647</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>43647</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>43647</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43648</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>43648</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>43648</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>43650</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>43655</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>43662</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>43662</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>43669</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>43670</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>43670</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>43677</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>43677</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>43678</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>43678</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>43681</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12120,7 +12120,7 @@
         <v>43682</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>43682</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12234,7 +12234,7 @@
         <v>43684</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>43685</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>43685</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>43685</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>43685</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>43689</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12581,7 +12581,7 @@
         <v>43690</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12638,7 +12638,7 @@
         <v>43692</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>43692</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>43692</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>43692</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>43696</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>43697</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>43698</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>43699</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>43705</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>43705</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>43706</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13342,7 +13342,7 @@
         <v>43707</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13399,7 +13399,7 @@
         <v>43707</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13456,7 +13456,7 @@
         <v>43710</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13513,7 +13513,7 @@
         <v>43710</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13570,7 +13570,7 @@
         <v>43711</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         <v>43711</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         <v>43711</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>43712</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>43712</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>43717</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>43718</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>43720</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>43725</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>43725</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>43725</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>43725</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>43726</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>43726</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>43727</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>43727</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>43730</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>43733</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>43741</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>43741</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>43742</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>43745</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14824,7 +14824,7 @@
         <v>43746</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14881,7 +14881,7 @@
         <v>43746</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14938,7 +14938,7 @@
         <v>43748</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         <v>43749</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15052,7 +15052,7 @@
         <v>43749</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15109,7 +15109,7 @@
         <v>43752</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15166,7 +15166,7 @@
         <v>43754</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15223,7 +15223,7 @@
         <v>43755</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15280,7 +15280,7 @@
         <v>43755</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
         <v>43761</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15394,7 +15394,7 @@
         <v>43761</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>43763</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>43766</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>43766</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>43767</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>43767</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>43768</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>43770</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>43781</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>43781</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>43781</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16031,7 +16031,7 @@
         <v>43783</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>43783</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>43787</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>43790</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>43803</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>43803</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>43804</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>43808</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>43811</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>43811</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>43817</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>43817</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>43817</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16772,7 +16772,7 @@
         <v>43818</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>43822</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>43822</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>43833</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         <v>43837</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>43837</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>43838</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17171,7 +17171,7 @@
         <v>43847</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         <v>43850</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17285,7 +17285,7 @@
         <v>43852</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17342,7 +17342,7 @@
         <v>43852</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17399,7 +17399,7 @@
         <v>43853</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17456,7 +17456,7 @@
         <v>43853</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
         <v>43854</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17570,7 +17570,7 @@
         <v>43854</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17627,7 +17627,7 @@
         <v>43858</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17684,7 +17684,7 @@
         <v>43860</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17741,7 +17741,7 @@
         <v>43874</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>43878</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>43878</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17917,7 +17917,7 @@
         <v>43880</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17979,7 +17979,7 @@
         <v>43881</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>43889</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>43895</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>43903</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>43906</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18269,7 +18269,7 @@
         <v>43909</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>43914</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18383,7 +18383,7 @@
         <v>43914</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18440,7 +18440,7 @@
         <v>43915</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18497,7 +18497,7 @@
         <v>43929</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18554,7 +18554,7 @@
         <v>43938</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18611,7 +18611,7 @@
         <v>43950</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>43963</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18725,7 +18725,7 @@
         <v>43969</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>43979</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>43984</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>43992</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>43992</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>43992</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>44004</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>44005</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>44005</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>44007</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>44019</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>44025</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>44025</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>44027</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>44027</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>44027</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>44027</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>44027</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>44029</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44032</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>44032</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>44032</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19979,7 +19979,7 @@
         <v>44035</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20041,7 +20041,7 @@
         <v>44047</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20098,7 +20098,7 @@
         <v>44050</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         <v>44055</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44055</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44060</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44061</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44063</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44068</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44070</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20564,7 +20564,7 @@
         <v>44070</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         <v>44070</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
         <v>44070</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20750,7 +20750,7 @@
         <v>44074</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20807,7 +20807,7 @@
         <v>44075</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20864,7 +20864,7 @@
         <v>44076</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20921,7 +20921,7 @@
         <v>44077</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20978,7 +20978,7 @@
         <v>44077</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21035,7 +21035,7 @@
         <v>44078</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21092,7 +21092,7 @@
         <v>44084</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21149,7 +21149,7 @@
         <v>44088</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21206,7 +21206,7 @@
         <v>44088</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21263,7 +21263,7 @@
         <v>44089</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21320,7 +21320,7 @@
         <v>44095</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21377,7 +21377,7 @@
         <v>44096</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21434,7 +21434,7 @@
         <v>44102</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21491,7 +21491,7 @@
         <v>44102</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21548,7 +21548,7 @@
         <v>44103</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>44104</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21662,7 +21662,7 @@
         <v>44104</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>44104</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21776,7 +21776,7 @@
         <v>44104</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>44104</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>44106</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         <v>44106</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22009,7 +22009,7 @@
         <v>44106</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         <v>44113</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         <v>44117</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>44119</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>44119</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>44120</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>44124</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44127</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>44127</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22522,7 +22522,7 @@
         <v>44127</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22579,7 +22579,7 @@
         <v>44131</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>44137</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22693,7 +22693,7 @@
         <v>44138</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22750,7 +22750,7 @@
         <v>44138</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22807,7 +22807,7 @@
         <v>44139</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22864,7 +22864,7 @@
         <v>44139</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22921,7 +22921,7 @@
         <v>44147</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22978,7 +22978,7 @@
         <v>44147</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23035,7 +23035,7 @@
         <v>44152</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23092,7 +23092,7 @@
         <v>44154</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23149,7 +23149,7 @@
         <v>44158</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23206,7 +23206,7 @@
         <v>44159</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23263,7 +23263,7 @@
         <v>44159</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23320,7 +23320,7 @@
         <v>44181</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>44187</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
         <v>44203</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>44203</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>44206</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23605,7 +23605,7 @@
         <v>44207</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>44209</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44215</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23781,7 +23781,7 @@
         <v>44216</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23843,7 +23843,7 @@
         <v>44218</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23900,7 +23900,7 @@
         <v>44218</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23957,7 +23957,7 @@
         <v>44222</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24014,7 +24014,7 @@
         <v>44236</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24071,7 +24071,7 @@
         <v>44238</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24128,7 +24128,7 @@
         <v>44238</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24185,7 +24185,7 @@
         <v>44239</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24242,7 +24242,7 @@
         <v>44245</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>44246</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24356,7 +24356,7 @@
         <v>44249</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44253</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>44257</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24527,7 +24527,7 @@
         <v>44257</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44258</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24641,7 +24641,7 @@
         <v>44258</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>44259</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>44271</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>44271</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24869,7 +24869,7 @@
         <v>44278</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24926,7 +24926,7 @@
         <v>44279</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>44300</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>44300</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>44307</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>44307</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>44307</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25268,7 +25268,7 @@
         <v>44307</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25325,7 +25325,7 @@
         <v>44307</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25382,7 +25382,7 @@
         <v>44311</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25439,7 +25439,7 @@
         <v>44312</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25496,7 +25496,7 @@
         <v>44316</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25553,7 +25553,7 @@
         <v>44319</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25610,7 +25610,7 @@
         <v>44326</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25667,7 +25667,7 @@
         <v>44326</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25724,7 +25724,7 @@
         <v>44340</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25781,7 +25781,7 @@
         <v>44341</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25838,7 +25838,7 @@
         <v>44343</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44361</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>44370</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26014,7 +26014,7 @@
         <v>44370</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26071,7 +26071,7 @@
         <v>44371</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26128,7 +26128,7 @@
         <v>44374</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26185,7 +26185,7 @@
         <v>44375</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26242,7 +26242,7 @@
         <v>44375</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>44378</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26356,7 +26356,7 @@
         <v>44385</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26413,7 +26413,7 @@
         <v>44419</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26475,7 +26475,7 @@
         <v>44420</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26537,7 +26537,7 @@
         <v>44421</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26594,7 +26594,7 @@
         <v>44424</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26651,7 +26651,7 @@
         <v>44425</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26708,7 +26708,7 @@
         <v>44432</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26765,7 +26765,7 @@
         <v>44432</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26822,7 +26822,7 @@
         <v>44439</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26879,7 +26879,7 @@
         <v>44451</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26936,7 +26936,7 @@
         <v>44456</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26993,7 +26993,7 @@
         <v>44465</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>44466</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27107,7 +27107,7 @@
         <v>44468</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27164,7 +27164,7 @@
         <v>44474</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44474</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>44489</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>44490</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>44490</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27449,7 +27449,7 @@
         <v>44493</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         <v>44494</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27563,7 +27563,7 @@
         <v>44501</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>44503</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>44504</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27734,7 +27734,7 @@
         <v>44504</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>44529</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>44539</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>44546</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>44553</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>44565</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>44571</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>44573</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>44579</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28247,7 +28247,7 @@
         <v>44581</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28304,7 +28304,7 @@
         <v>44589</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28361,7 +28361,7 @@
         <v>44595</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28418,7 +28418,7 @@
         <v>44596</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28475,7 +28475,7 @@
         <v>44601</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28532,7 +28532,7 @@
         <v>44606</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28589,7 +28589,7 @@
         <v>44609</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28646,7 +28646,7 @@
         <v>44617</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28703,7 +28703,7 @@
         <v>44617</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28765,7 +28765,7 @@
         <v>44627</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28822,7 +28822,7 @@
         <v>44627</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28879,7 +28879,7 @@
         <v>44630</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>44636</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28993,7 +28993,7 @@
         <v>44637</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>44638</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>44645</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29164,7 +29164,7 @@
         <v>44649</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29221,7 +29221,7 @@
         <v>44651</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29278,7 +29278,7 @@
         <v>44655</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>44655</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29402,7 +29402,7 @@
         <v>44656</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29459,7 +29459,7 @@
         <v>44676</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29516,7 +29516,7 @@
         <v>44694</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29573,7 +29573,7 @@
         <v>44694</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29630,7 +29630,7 @@
         <v>44704</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29687,7 +29687,7 @@
         <v>44713</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29744,7 +29744,7 @@
         <v>44721</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29801,7 +29801,7 @@
         <v>44722</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29858,7 +29858,7 @@
         <v>44729</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29915,7 +29915,7 @@
         <v>44739</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29972,7 +29972,7 @@
         <v>44750</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30034,7 +30034,7 @@
         <v>44753</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30091,7 +30091,7 @@
         <v>44756</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>44756</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30205,7 +30205,7 @@
         <v>44756</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>44762</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30324,7 +30324,7 @@
         <v>44762</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         <v>44762</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30448,7 +30448,7 @@
         <v>44774</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30505,7 +30505,7 @@
         <v>44775</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30562,7 +30562,7 @@
         <v>44775</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         <v>44798</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30681,7 +30681,7 @@
         <v>44806</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30738,7 +30738,7 @@
         <v>44806</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30795,7 +30795,7 @@
         <v>44809</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30852,7 +30852,7 @@
         <v>44817</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30909,7 +30909,7 @@
         <v>44827</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30966,7 +30966,7 @@
         <v>44834</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31023,7 +31023,7 @@
         <v>44848</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>44848</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>44854</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31194,7 +31194,7 @@
         <v>44860</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31251,7 +31251,7 @@
         <v>44862</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31308,7 +31308,7 @@
         <v>44865</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31365,7 +31365,7 @@
         <v>44872</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31422,7 +31422,7 @@
         <v>44872</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31479,7 +31479,7 @@
         <v>44890</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31536,7 +31536,7 @@
         <v>44890</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31593,7 +31593,7 @@
         <v>44893</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31650,7 +31650,7 @@
         <v>44902</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31707,7 +31707,7 @@
         <v>44903</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31764,7 +31764,7 @@
         <v>44903</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31821,7 +31821,7 @@
         <v>44916</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31878,7 +31878,7 @@
         <v>44925</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31935,7 +31935,7 @@
         <v>44937</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31992,7 +31992,7 @@
         <v>44939</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32049,7 +32049,7 @@
         <v>44944</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32106,7 +32106,7 @@
         <v>44956</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32163,7 +32163,7 @@
         <v>44956</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32220,7 +32220,7 @@
         <v>44957</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32277,7 +32277,7 @@
         <v>44966</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32334,7 +32334,7 @@
         <v>44969</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32391,7 +32391,7 @@
         <v>44972</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32448,7 +32448,7 @@
         <v>44973</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32510,7 +32510,7 @@
         <v>44973</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32572,7 +32572,7 @@
         <v>44973</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32634,7 +32634,7 @@
         <v>44973</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32696,7 +32696,7 @@
         <v>44980</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32758,7 +32758,7 @@
         <v>44980</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32820,7 +32820,7 @@
         <v>44980</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32882,7 +32882,7 @@
         <v>44981</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32939,7 +32939,7 @@
         <v>44987</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32996,7 +32996,7 @@
         <v>44992</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33058,7 +33058,7 @@
         <v>44998</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33115,7 +33115,7 @@
         <v>45001</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33172,7 +33172,7 @@
         <v>45001</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33229,7 +33229,7 @@
         <v>45001</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33286,7 +33286,7 @@
         <v>45001</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33343,7 +33343,7 @@
         <v>45002</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33400,7 +33400,7 @@
         <v>45006</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33457,7 +33457,7 @@
         <v>45006</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33514,7 +33514,7 @@
         <v>45006</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         <v>45009</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33628,7 +33628,7 @@
         <v>45012</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33685,7 +33685,7 @@
         <v>45012</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33747,7 +33747,7 @@
         <v>45012</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33804,7 +33804,7 @@
         <v>45012</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33861,7 +33861,7 @@
         <v>45012</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33923,7 +33923,7 @@
         <v>45012</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33980,7 +33980,7 @@
         <v>45012</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34037,7 +34037,7 @@
         <v>45012</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34099,7 +34099,7 @@
         <v>45019</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34156,7 +34156,7 @@
         <v>45019</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34213,7 +34213,7 @@
         <v>45019</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34270,7 +34270,7 @@
         <v>45028</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34327,7 +34327,7 @@
         <v>45029</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34384,7 +34384,7 @@
         <v>45036</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34441,7 +34441,7 @@
         <v>45040</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34498,7 +34498,7 @@
         <v>45041</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34555,7 +34555,7 @@
         <v>45042</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34612,7 +34612,7 @@
         <v>45049</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34669,7 +34669,7 @@
         <v>45049</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34726,7 +34726,7 @@
         <v>45053</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34783,7 +34783,7 @@
         <v>45055</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34840,7 +34840,7 @@
         <v>45056</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34897,7 +34897,7 @@
         <v>45058</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34954,7 +34954,7 @@
         <v>45058</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         <v>45061</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35068,7 +35068,7 @@
         <v>45061</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35125,7 +35125,7 @@
         <v>45061</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35182,7 +35182,7 @@
         <v>45061</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35239,7 +35239,7 @@
         <v>45061</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35296,7 +35296,7 @@
         <v>45062</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35358,7 +35358,7 @@
         <v>45062</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35420,7 +35420,7 @@
         <v>45063</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35482,7 +35482,7 @@
         <v>45063</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35544,7 +35544,7 @@
         <v>45068</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35601,7 +35601,7 @@
         <v>45070</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35658,7 +35658,7 @@
         <v>45072</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35715,7 +35715,7 @@
         <v>45072</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35772,7 +35772,7 @@
         <v>45072</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35829,7 +35829,7 @@
         <v>45075</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35886,7 +35886,7 @@
         <v>45075</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35943,7 +35943,7 @@
         <v>45078</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36000,7 +36000,7 @@
         <v>45078</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36057,7 +36057,7 @@
         <v>45082</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36119,7 +36119,7 @@
         <v>45084</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36176,7 +36176,7 @@
         <v>45085</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36233,7 +36233,7 @@
         <v>45096</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36290,7 +36290,7 @@
         <v>45098</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36347,7 +36347,7 @@
         <v>45099</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36404,7 +36404,7 @@
         <v>45099</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36461,7 +36461,7 @@
         <v>45103</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36518,7 +36518,7 @@
         <v>45103</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36580,7 +36580,7 @@
         <v>45103</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36637,7 +36637,7 @@
         <v>45104</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36699,7 +36699,7 @@
         <v>45104</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36761,7 +36761,7 @@
         <v>45104</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36823,7 +36823,7 @@
         <v>45104</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36880,7 +36880,7 @@
         <v>45104</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36937,7 +36937,7 @@
         <v>45104</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36994,7 +36994,7 @@
         <v>45105</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37051,7 +37051,7 @@
         <v>45105</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37113,7 +37113,7 @@
         <v>45106</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37170,7 +37170,7 @@
         <v>45110</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37227,7 +37227,7 @@
         <v>45110</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37284,7 +37284,7 @@
         <v>45112</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37341,7 +37341,7 @@
         <v>45117</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37398,7 +37398,7 @@
         <v>45118</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37455,7 +37455,7 @@
         <v>45118</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37512,7 +37512,7 @@
         <v>45118</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37569,7 +37569,7 @@
         <v>45118</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37626,7 +37626,7 @@
         <v>45118</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37683,7 +37683,7 @@
         <v>45118</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37740,7 +37740,7 @@
         <v>45119</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37797,7 +37797,7 @@
         <v>45119</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37854,7 +37854,7 @@
         <v>45139</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37911,7 +37911,7 @@
         <v>45147</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37958,7 +37958,7 @@
       </c>
       <c r="R637" s="2" t="inlineStr"/>
     </row>
-    <row r="638">
+    <row r="638" ht="15" customHeight="1">
       <c r="A638" t="inlineStr">
         <is>
           <t>A 35596-2023</t>
@@ -37968,7 +37968,7 @@
         <v>45147</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38014,6 +38014,519 @@
         <v>0</v>
       </c>
       <c r="R638" s="2" t="inlineStr"/>
+    </row>
+    <row r="639" ht="15" customHeight="1">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>A 45367-2023</t>
+        </is>
+      </c>
+      <c r="B639" s="1" t="n">
+        <v>45193</v>
+      </c>
+      <c r="C639" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>BLEKINGE LÄN</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>RONNEBY</t>
+        </is>
+      </c>
+      <c r="G639" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H639" t="n">
+        <v>0</v>
+      </c>
+      <c r="I639" t="n">
+        <v>0</v>
+      </c>
+      <c r="J639" t="n">
+        <v>0</v>
+      </c>
+      <c r="K639" t="n">
+        <v>0</v>
+      </c>
+      <c r="L639" t="n">
+        <v>0</v>
+      </c>
+      <c r="M639" t="n">
+        <v>0</v>
+      </c>
+      <c r="N639" t="n">
+        <v>0</v>
+      </c>
+      <c r="O639" t="n">
+        <v>0</v>
+      </c>
+      <c r="P639" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q639" t="n">
+        <v>0</v>
+      </c>
+      <c r="R639" s="2" t="inlineStr"/>
+    </row>
+    <row r="640" ht="15" customHeight="1">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>A 45407-2023</t>
+        </is>
+      </c>
+      <c r="B640" s="1" t="n">
+        <v>45194</v>
+      </c>
+      <c r="C640" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>BLEKINGE LÄN</t>
+        </is>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>RONNEBY</t>
+        </is>
+      </c>
+      <c r="G640" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H640" t="n">
+        <v>0</v>
+      </c>
+      <c r="I640" t="n">
+        <v>0</v>
+      </c>
+      <c r="J640" t="n">
+        <v>0</v>
+      </c>
+      <c r="K640" t="n">
+        <v>0</v>
+      </c>
+      <c r="L640" t="n">
+        <v>0</v>
+      </c>
+      <c r="M640" t="n">
+        <v>0</v>
+      </c>
+      <c r="N640" t="n">
+        <v>0</v>
+      </c>
+      <c r="O640" t="n">
+        <v>0</v>
+      </c>
+      <c r="P640" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q640" t="n">
+        <v>0</v>
+      </c>
+      <c r="R640" s="2" t="inlineStr"/>
+    </row>
+    <row r="641" ht="15" customHeight="1">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>A 45413-2023</t>
+        </is>
+      </c>
+      <c r="B641" s="1" t="n">
+        <v>45194</v>
+      </c>
+      <c r="C641" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>BLEKINGE LÄN</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>RONNEBY</t>
+        </is>
+      </c>
+      <c r="G641" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H641" t="n">
+        <v>0</v>
+      </c>
+      <c r="I641" t="n">
+        <v>0</v>
+      </c>
+      <c r="J641" t="n">
+        <v>0</v>
+      </c>
+      <c r="K641" t="n">
+        <v>0</v>
+      </c>
+      <c r="L641" t="n">
+        <v>0</v>
+      </c>
+      <c r="M641" t="n">
+        <v>0</v>
+      </c>
+      <c r="N641" t="n">
+        <v>0</v>
+      </c>
+      <c r="O641" t="n">
+        <v>0</v>
+      </c>
+      <c r="P641" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q641" t="n">
+        <v>0</v>
+      </c>
+      <c r="R641" s="2" t="inlineStr"/>
+    </row>
+    <row r="642" ht="15" customHeight="1">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>A 45402-2023</t>
+        </is>
+      </c>
+      <c r="B642" s="1" t="n">
+        <v>45194</v>
+      </c>
+      <c r="C642" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>BLEKINGE LÄN</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>RONNEBY</t>
+        </is>
+      </c>
+      <c r="G642" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H642" t="n">
+        <v>0</v>
+      </c>
+      <c r="I642" t="n">
+        <v>0</v>
+      </c>
+      <c r="J642" t="n">
+        <v>0</v>
+      </c>
+      <c r="K642" t="n">
+        <v>0</v>
+      </c>
+      <c r="L642" t="n">
+        <v>0</v>
+      </c>
+      <c r="M642" t="n">
+        <v>0</v>
+      </c>
+      <c r="N642" t="n">
+        <v>0</v>
+      </c>
+      <c r="O642" t="n">
+        <v>0</v>
+      </c>
+      <c r="P642" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q642" t="n">
+        <v>0</v>
+      </c>
+      <c r="R642" s="2" t="inlineStr"/>
+    </row>
+    <row r="643" ht="15" customHeight="1">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>A 45409-2023</t>
+        </is>
+      </c>
+      <c r="B643" s="1" t="n">
+        <v>45194</v>
+      </c>
+      <c r="C643" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>BLEKINGE LÄN</t>
+        </is>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>RONNEBY</t>
+        </is>
+      </c>
+      <c r="G643" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H643" t="n">
+        <v>0</v>
+      </c>
+      <c r="I643" t="n">
+        <v>0</v>
+      </c>
+      <c r="J643" t="n">
+        <v>0</v>
+      </c>
+      <c r="K643" t="n">
+        <v>0</v>
+      </c>
+      <c r="L643" t="n">
+        <v>0</v>
+      </c>
+      <c r="M643" t="n">
+        <v>0</v>
+      </c>
+      <c r="N643" t="n">
+        <v>0</v>
+      </c>
+      <c r="O643" t="n">
+        <v>0</v>
+      </c>
+      <c r="P643" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q643" t="n">
+        <v>0</v>
+      </c>
+      <c r="R643" s="2" t="inlineStr"/>
+    </row>
+    <row r="644" ht="15" customHeight="1">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>A 45411-2023</t>
+        </is>
+      </c>
+      <c r="B644" s="1" t="n">
+        <v>45194</v>
+      </c>
+      <c r="C644" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>BLEKINGE LÄN</t>
+        </is>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>RONNEBY</t>
+        </is>
+      </c>
+      <c r="G644" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H644" t="n">
+        <v>0</v>
+      </c>
+      <c r="I644" t="n">
+        <v>0</v>
+      </c>
+      <c r="J644" t="n">
+        <v>0</v>
+      </c>
+      <c r="K644" t="n">
+        <v>0</v>
+      </c>
+      <c r="L644" t="n">
+        <v>0</v>
+      </c>
+      <c r="M644" t="n">
+        <v>0</v>
+      </c>
+      <c r="N644" t="n">
+        <v>0</v>
+      </c>
+      <c r="O644" t="n">
+        <v>0</v>
+      </c>
+      <c r="P644" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q644" t="n">
+        <v>0</v>
+      </c>
+      <c r="R644" s="2" t="inlineStr"/>
+    </row>
+    <row r="645" ht="15" customHeight="1">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>A 46168-2023</t>
+        </is>
+      </c>
+      <c r="B645" s="1" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C645" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>BLEKINGE LÄN</t>
+        </is>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>RONNEBY</t>
+        </is>
+      </c>
+      <c r="G645" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H645" t="n">
+        <v>0</v>
+      </c>
+      <c r="I645" t="n">
+        <v>0</v>
+      </c>
+      <c r="J645" t="n">
+        <v>0</v>
+      </c>
+      <c r="K645" t="n">
+        <v>0</v>
+      </c>
+      <c r="L645" t="n">
+        <v>0</v>
+      </c>
+      <c r="M645" t="n">
+        <v>0</v>
+      </c>
+      <c r="N645" t="n">
+        <v>0</v>
+      </c>
+      <c r="O645" t="n">
+        <v>0</v>
+      </c>
+      <c r="P645" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q645" t="n">
+        <v>0</v>
+      </c>
+      <c r="R645" s="2" t="inlineStr"/>
+    </row>
+    <row r="646" ht="15" customHeight="1">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>A 46167-2023</t>
+        </is>
+      </c>
+      <c r="B646" s="1" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C646" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>BLEKINGE LÄN</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>RONNEBY</t>
+        </is>
+      </c>
+      <c r="G646" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H646" t="n">
+        <v>0</v>
+      </c>
+      <c r="I646" t="n">
+        <v>0</v>
+      </c>
+      <c r="J646" t="n">
+        <v>0</v>
+      </c>
+      <c r="K646" t="n">
+        <v>0</v>
+      </c>
+      <c r="L646" t="n">
+        <v>0</v>
+      </c>
+      <c r="M646" t="n">
+        <v>0</v>
+      </c>
+      <c r="N646" t="n">
+        <v>0</v>
+      </c>
+      <c r="O646" t="n">
+        <v>0</v>
+      </c>
+      <c r="P646" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q646" t="n">
+        <v>0</v>
+      </c>
+      <c r="R646" s="2" t="inlineStr"/>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>A 46434-2023</t>
+        </is>
+      </c>
+      <c r="B647" s="1" t="n">
+        <v>45197</v>
+      </c>
+      <c r="C647" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>BLEKINGE LÄN</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>RONNEBY</t>
+        </is>
+      </c>
+      <c r="G647" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H647" t="n">
+        <v>0</v>
+      </c>
+      <c r="I647" t="n">
+        <v>0</v>
+      </c>
+      <c r="J647" t="n">
+        <v>0</v>
+      </c>
+      <c r="K647" t="n">
+        <v>0</v>
+      </c>
+      <c r="L647" t="n">
+        <v>0</v>
+      </c>
+      <c r="M647" t="n">
+        <v>0</v>
+      </c>
+      <c r="N647" t="n">
+        <v>0</v>
+      </c>
+      <c r="O647" t="n">
+        <v>0</v>
+      </c>
+      <c r="P647" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q647" t="n">
+        <v>0</v>
+      </c>
+      <c r="R647" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt RONNEBY.xlsx
+++ b/Översikt RONNEBY.xlsx
@@ -572,7 +572,7 @@
         <v>43781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43653</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44925</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>45093</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>43406</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43502</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>43514</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>43529</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1274,7 +1274,7 @@
         <v>43608</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>43640</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>43817</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>44284</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1619,7 +1619,7 @@
         <v>44298</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>44305</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>44344</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>44425</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44952</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>44985</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>44998</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>45012</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>45120</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>45145</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>45152</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43319</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>43326</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>43333</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>43341</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43343</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43347</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>43350</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>43353</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>43354</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>43354</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>43357</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>43361</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         <v>43368</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>43369</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>43370</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         <v>43371</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         <v>43383</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>43390</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         <v>43390</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>43395</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>43395</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43397</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43397</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>43397</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3960,7 +3960,7 @@
         <v>43397</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>43397</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>43398</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43399</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>43401</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4260,7 +4260,7 @@
         <v>43402</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
         <v>43409</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>43409</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>43412</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>43412</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>43413</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43419</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>43419</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>43419</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43422</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43424</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43424</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43427</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43431</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43432</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43437</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43437</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43439</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43451</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43451</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43451</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43451</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43451</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5740,7 +5740,7 @@
         <v>43451</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>43451</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>43451</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43452</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43455</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>43471</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43473</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>43473</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>43475</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43482</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43485</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43488</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>43491</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>43491</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43491</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43501</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43501</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43503</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43507</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43508</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43508</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>43511</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43514</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43514</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43515</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>43518</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>43521</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43521</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43522</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>43529</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>43529</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43531</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43532</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43534</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>43534</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>43537</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43537</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43538</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43544</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43548</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43552</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43554</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43558</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43558</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43563</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43563</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43564</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>43565</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43570</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8635,7 +8635,7 @@
         <v>43570</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>43570</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43570</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8811,7 +8811,7 @@
         <v>43572</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8868,7 +8868,7 @@
         <v>43572</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43572</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>43572</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>43573</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>43573</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>43573</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>43573</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>43573</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>43573</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43573</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43573</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>43580</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>43580</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43581</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>43581</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>43600</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43600</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43600</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>43601</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>43601</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43605</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43614</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>43619</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>43619</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>43619</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>43619</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>43619</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>43619</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>43619</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>43621</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>43627</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43627</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43629</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>43629</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         <v>43629</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10923,7 +10923,7 @@
         <v>43630</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10980,7 +10980,7 @@
         <v>43640</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11037,7 +11037,7 @@
         <v>43647</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11094,7 +11094,7 @@
         <v>43647</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>43647</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>43647</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43648</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>43648</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>43648</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>43650</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>43655</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>43662</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>43662</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>43669</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>43670</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>43670</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>43677</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>43677</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>43678</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>43678</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>43681</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12120,7 +12120,7 @@
         <v>43682</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>43682</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12234,7 +12234,7 @@
         <v>43684</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>43685</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>43685</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>43685</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>43685</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>43689</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12581,7 +12581,7 @@
         <v>43690</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12638,7 +12638,7 @@
         <v>43692</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>43692</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>43692</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>43692</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>43696</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>43697</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>43698</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>43699</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>43705</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>43705</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>43706</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13342,7 +13342,7 @@
         <v>43707</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13399,7 +13399,7 @@
         <v>43707</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13456,7 +13456,7 @@
         <v>43710</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13513,7 +13513,7 @@
         <v>43710</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13570,7 +13570,7 @@
         <v>43711</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         <v>43711</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         <v>43711</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>43712</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>43712</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>43717</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>43718</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>43720</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>43725</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>43725</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>43725</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>43725</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>43726</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>43726</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>43727</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>43727</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>43730</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>43733</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>43741</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>43741</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>43742</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>43745</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14824,7 +14824,7 @@
         <v>43746</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14881,7 +14881,7 @@
         <v>43746</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14938,7 +14938,7 @@
         <v>43748</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         <v>43749</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15052,7 +15052,7 @@
         <v>43749</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15109,7 +15109,7 @@
         <v>43752</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15166,7 +15166,7 @@
         <v>43754</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15223,7 +15223,7 @@
         <v>43755</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15280,7 +15280,7 @@
         <v>43755</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
         <v>43761</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15394,7 +15394,7 @@
         <v>43761</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>43763</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>43766</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>43766</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>43767</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>43767</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>43768</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>43770</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>43781</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>43781</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>43781</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16031,7 +16031,7 @@
         <v>43783</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>43783</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>43787</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>43790</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>43803</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>43803</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>43804</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>43808</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>43811</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>43811</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>43817</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>43817</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>43817</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16772,7 +16772,7 @@
         <v>43818</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>43822</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>43822</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>43833</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         <v>43837</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>43837</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>43838</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17171,7 +17171,7 @@
         <v>43847</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         <v>43850</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17285,7 +17285,7 @@
         <v>43852</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17342,7 +17342,7 @@
         <v>43852</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17399,7 +17399,7 @@
         <v>43853</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17456,7 +17456,7 @@
         <v>43853</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
         <v>43854</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17570,7 +17570,7 @@
         <v>43854</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17627,7 +17627,7 @@
         <v>43858</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17684,7 +17684,7 @@
         <v>43860</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17741,7 +17741,7 @@
         <v>43874</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>43878</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>43878</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17917,7 +17917,7 @@
         <v>43880</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17979,7 +17979,7 @@
         <v>43881</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>43889</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>43895</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>43903</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>43906</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18269,7 +18269,7 @@
         <v>43909</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>43914</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18383,7 +18383,7 @@
         <v>43914</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18440,7 +18440,7 @@
         <v>43915</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18497,7 +18497,7 @@
         <v>43929</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18554,7 +18554,7 @@
         <v>43938</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18611,7 +18611,7 @@
         <v>43950</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>43963</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18725,7 +18725,7 @@
         <v>43969</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>43979</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>43984</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>43992</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>43992</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>43992</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>44004</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>44005</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>44005</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>44007</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>44019</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>44025</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>44025</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>44027</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>44027</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>44027</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>44027</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>44027</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>44029</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44032</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>44032</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>44032</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19979,7 +19979,7 @@
         <v>44035</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20041,7 +20041,7 @@
         <v>44047</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20098,7 +20098,7 @@
         <v>44050</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         <v>44055</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44055</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44060</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44061</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44063</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44068</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44070</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20564,7 +20564,7 @@
         <v>44070</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         <v>44070</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
         <v>44070</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20750,7 +20750,7 @@
         <v>44074</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20807,7 +20807,7 @@
         <v>44075</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20864,7 +20864,7 @@
         <v>44076</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20921,7 +20921,7 @@
         <v>44077</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20978,7 +20978,7 @@
         <v>44077</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21035,7 +21035,7 @@
         <v>44078</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21092,7 +21092,7 @@
         <v>44084</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21149,7 +21149,7 @@
         <v>44088</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21206,7 +21206,7 @@
         <v>44088</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21263,7 +21263,7 @@
         <v>44089</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21320,7 +21320,7 @@
         <v>44095</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21377,7 +21377,7 @@
         <v>44096</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21434,7 +21434,7 @@
         <v>44102</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21491,7 +21491,7 @@
         <v>44102</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21548,7 +21548,7 @@
         <v>44103</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>44104</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21662,7 +21662,7 @@
         <v>44104</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>44104</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21776,7 +21776,7 @@
         <v>44104</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>44104</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>44106</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         <v>44106</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22009,7 +22009,7 @@
         <v>44106</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         <v>44113</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         <v>44117</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>44119</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>44119</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>44120</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>44124</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44127</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>44127</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22522,7 +22522,7 @@
         <v>44127</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22579,7 +22579,7 @@
         <v>44131</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>44137</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22693,7 +22693,7 @@
         <v>44138</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22750,7 +22750,7 @@
         <v>44138</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22807,7 +22807,7 @@
         <v>44139</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22864,7 +22864,7 @@
         <v>44139</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22921,7 +22921,7 @@
         <v>44147</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22978,7 +22978,7 @@
         <v>44147</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23035,7 +23035,7 @@
         <v>44152</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23092,7 +23092,7 @@
         <v>44154</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23149,7 +23149,7 @@
         <v>44158</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23206,7 +23206,7 @@
         <v>44159</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23263,7 +23263,7 @@
         <v>44159</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23320,7 +23320,7 @@
         <v>44181</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>44187</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
         <v>44203</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>44203</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>44206</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23605,7 +23605,7 @@
         <v>44207</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>44209</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44215</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23781,7 +23781,7 @@
         <v>44216</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23843,7 +23843,7 @@
         <v>44218</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23900,7 +23900,7 @@
         <v>44218</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23957,7 +23957,7 @@
         <v>44222</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24014,7 +24014,7 @@
         <v>44236</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24071,7 +24071,7 @@
         <v>44238</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24128,7 +24128,7 @@
         <v>44238</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24185,7 +24185,7 @@
         <v>44239</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24242,7 +24242,7 @@
         <v>44245</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>44246</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24356,7 +24356,7 @@
         <v>44249</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44253</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>44257</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24527,7 +24527,7 @@
         <v>44257</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44258</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24641,7 +24641,7 @@
         <v>44258</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>44259</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>44271</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>44271</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24869,7 +24869,7 @@
         <v>44278</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24926,7 +24926,7 @@
         <v>44279</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>44300</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>44300</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>44307</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>44307</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>44307</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25268,7 +25268,7 @@
         <v>44307</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25325,7 +25325,7 @@
         <v>44307</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25382,7 +25382,7 @@
         <v>44311</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25439,7 +25439,7 @@
         <v>44312</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25496,7 +25496,7 @@
         <v>44316</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25553,7 +25553,7 @@
         <v>44319</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25610,7 +25610,7 @@
         <v>44326</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25667,7 +25667,7 @@
         <v>44326</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25724,7 +25724,7 @@
         <v>44340</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25781,7 +25781,7 @@
         <v>44341</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25838,7 +25838,7 @@
         <v>44343</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44361</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>44370</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26014,7 +26014,7 @@
         <v>44370</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26071,7 +26071,7 @@
         <v>44371</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26128,7 +26128,7 @@
         <v>44374</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26185,7 +26185,7 @@
         <v>44375</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26242,7 +26242,7 @@
         <v>44375</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>44378</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26356,7 +26356,7 @@
         <v>44385</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26413,7 +26413,7 @@
         <v>44419</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26475,7 +26475,7 @@
         <v>44420</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26537,7 +26537,7 @@
         <v>44421</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26594,7 +26594,7 @@
         <v>44424</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26651,7 +26651,7 @@
         <v>44425</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26708,7 +26708,7 @@
         <v>44432</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26765,7 +26765,7 @@
         <v>44432</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26822,7 +26822,7 @@
         <v>44439</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26879,7 +26879,7 @@
         <v>44451</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26936,7 +26936,7 @@
         <v>44456</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26993,7 +26993,7 @@
         <v>44465</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>44466</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27107,7 +27107,7 @@
         <v>44468</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27164,7 +27164,7 @@
         <v>44474</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44474</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>44489</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>44490</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>44490</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27449,7 +27449,7 @@
         <v>44493</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         <v>44494</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27563,7 +27563,7 @@
         <v>44501</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>44503</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>44504</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27734,7 +27734,7 @@
         <v>44504</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>44529</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>44539</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>44546</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>44553</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>44565</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>44571</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>44573</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>44579</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28247,7 +28247,7 @@
         <v>44581</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28304,7 +28304,7 @@
         <v>44589</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28361,7 +28361,7 @@
         <v>44595</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28418,7 +28418,7 @@
         <v>44596</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28475,7 +28475,7 @@
         <v>44601</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28532,7 +28532,7 @@
         <v>44606</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28589,7 +28589,7 @@
         <v>44609</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28646,7 +28646,7 @@
         <v>44617</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28703,7 +28703,7 @@
         <v>44617</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28765,7 +28765,7 @@
         <v>44627</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28822,7 +28822,7 @@
         <v>44627</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28879,7 +28879,7 @@
         <v>44630</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>44636</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28993,7 +28993,7 @@
         <v>44637</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>44638</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>44645</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29164,7 +29164,7 @@
         <v>44649</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29221,7 +29221,7 @@
         <v>44651</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29278,7 +29278,7 @@
         <v>44655</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>44655</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29402,7 +29402,7 @@
         <v>44656</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29459,7 +29459,7 @@
         <v>44676</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29516,7 +29516,7 @@
         <v>44694</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29573,7 +29573,7 @@
         <v>44694</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29630,7 +29630,7 @@
         <v>44704</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29687,7 +29687,7 @@
         <v>44713</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29744,7 +29744,7 @@
         <v>44721</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29801,7 +29801,7 @@
         <v>44722</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29858,7 +29858,7 @@
         <v>44729</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29915,7 +29915,7 @@
         <v>44739</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29972,7 +29972,7 @@
         <v>44750</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30034,7 +30034,7 @@
         <v>44753</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30091,7 +30091,7 @@
         <v>44756</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>44756</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30205,7 +30205,7 @@
         <v>44756</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>44762</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30324,7 +30324,7 @@
         <v>44762</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         <v>44762</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30448,7 +30448,7 @@
         <v>44774</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30505,7 +30505,7 @@
         <v>44775</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30562,7 +30562,7 @@
         <v>44775</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         <v>44798</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30681,7 +30681,7 @@
         <v>44806</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30738,7 +30738,7 @@
         <v>44806</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30795,7 +30795,7 @@
         <v>44809</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30852,7 +30852,7 @@
         <v>44817</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30909,7 +30909,7 @@
         <v>44827</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30966,7 +30966,7 @@
         <v>44834</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31023,7 +31023,7 @@
         <v>44848</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>44848</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>44854</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31194,7 +31194,7 @@
         <v>44860</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31251,7 +31251,7 @@
         <v>44862</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31308,7 +31308,7 @@
         <v>44865</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31365,7 +31365,7 @@
         <v>44872</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31422,7 +31422,7 @@
         <v>44872</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31479,7 +31479,7 @@
         <v>44890</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31536,7 +31536,7 @@
         <v>44890</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31593,7 +31593,7 @@
         <v>44893</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31650,7 +31650,7 @@
         <v>44902</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31707,7 +31707,7 @@
         <v>44903</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31764,7 +31764,7 @@
         <v>44903</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31821,7 +31821,7 @@
         <v>44916</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31878,7 +31878,7 @@
         <v>44925</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31935,7 +31935,7 @@
         <v>44937</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31992,7 +31992,7 @@
         <v>44939</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32049,7 +32049,7 @@
         <v>44944</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32106,7 +32106,7 @@
         <v>44956</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32163,7 +32163,7 @@
         <v>44956</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32220,7 +32220,7 @@
         <v>44957</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32277,7 +32277,7 @@
         <v>44966</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32334,7 +32334,7 @@
         <v>44969</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32391,7 +32391,7 @@
         <v>44972</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32448,7 +32448,7 @@
         <v>44973</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32510,7 +32510,7 @@
         <v>44973</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32572,7 +32572,7 @@
         <v>44973</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32634,7 +32634,7 @@
         <v>44973</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32696,7 +32696,7 @@
         <v>44980</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32758,7 +32758,7 @@
         <v>44980</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32820,7 +32820,7 @@
         <v>44980</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32882,7 +32882,7 @@
         <v>44981</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32939,7 +32939,7 @@
         <v>44987</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32996,7 +32996,7 @@
         <v>44992</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33058,7 +33058,7 @@
         <v>44998</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33115,7 +33115,7 @@
         <v>45001</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33172,7 +33172,7 @@
         <v>45001</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33229,7 +33229,7 @@
         <v>45001</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33286,7 +33286,7 @@
         <v>45001</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33343,7 +33343,7 @@
         <v>45002</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33400,7 +33400,7 @@
         <v>45006</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33457,7 +33457,7 @@
         <v>45006</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33514,7 +33514,7 @@
         <v>45006</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         <v>45009</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33628,7 +33628,7 @@
         <v>45012</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33685,7 +33685,7 @@
         <v>45012</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33747,7 +33747,7 @@
         <v>45012</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33804,7 +33804,7 @@
         <v>45012</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33861,7 +33861,7 @@
         <v>45012</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33923,7 +33923,7 @@
         <v>45012</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33980,7 +33980,7 @@
         <v>45012</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34037,7 +34037,7 @@
         <v>45012</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34099,7 +34099,7 @@
         <v>45019</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34156,7 +34156,7 @@
         <v>45019</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34213,7 +34213,7 @@
         <v>45019</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34270,7 +34270,7 @@
         <v>45028</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34327,7 +34327,7 @@
         <v>45029</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34384,7 +34384,7 @@
         <v>45036</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34441,7 +34441,7 @@
         <v>45040</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34498,7 +34498,7 @@
         <v>45041</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34555,7 +34555,7 @@
         <v>45042</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34612,7 +34612,7 @@
         <v>45049</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34669,7 +34669,7 @@
         <v>45049</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34726,7 +34726,7 @@
         <v>45053</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34783,7 +34783,7 @@
         <v>45055</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34840,7 +34840,7 @@
         <v>45056</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34897,7 +34897,7 @@
         <v>45058</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34954,7 +34954,7 @@
         <v>45058</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         <v>45061</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35068,7 +35068,7 @@
         <v>45061</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35125,7 +35125,7 @@
         <v>45061</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35182,7 +35182,7 @@
         <v>45061</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35239,7 +35239,7 @@
         <v>45061</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35296,7 +35296,7 @@
         <v>45062</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35358,7 +35358,7 @@
         <v>45062</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35420,7 +35420,7 @@
         <v>45063</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35482,7 +35482,7 @@
         <v>45063</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35544,7 +35544,7 @@
         <v>45068</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35601,7 +35601,7 @@
         <v>45070</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35658,7 +35658,7 @@
         <v>45072</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35715,7 +35715,7 @@
         <v>45072</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35772,7 +35772,7 @@
         <v>45072</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35829,7 +35829,7 @@
         <v>45075</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35886,7 +35886,7 @@
         <v>45075</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35943,7 +35943,7 @@
         <v>45078</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36000,7 +36000,7 @@
         <v>45078</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36057,7 +36057,7 @@
         <v>45082</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36119,7 +36119,7 @@
         <v>45084</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36176,7 +36176,7 @@
         <v>45085</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36233,7 +36233,7 @@
         <v>45096</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36290,7 +36290,7 @@
         <v>45098</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36347,7 +36347,7 @@
         <v>45099</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36404,7 +36404,7 @@
         <v>45099</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36461,7 +36461,7 @@
         <v>45103</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36518,7 +36518,7 @@
         <v>45103</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36580,7 +36580,7 @@
         <v>45103</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36637,7 +36637,7 @@
         <v>45104</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36699,7 +36699,7 @@
         <v>45104</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36761,7 +36761,7 @@
         <v>45104</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36823,7 +36823,7 @@
         <v>45104</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36880,7 +36880,7 @@
         <v>45104</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36937,7 +36937,7 @@
         <v>45104</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36994,7 +36994,7 @@
         <v>45105</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37051,7 +37051,7 @@
         <v>45105</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37113,7 +37113,7 @@
         <v>45106</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37170,7 +37170,7 @@
         <v>45110</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37227,7 +37227,7 @@
         <v>45110</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37284,7 +37284,7 @@
         <v>45112</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37341,7 +37341,7 @@
         <v>45117</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37398,7 +37398,7 @@
         <v>45118</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37455,7 +37455,7 @@
         <v>45118</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37512,7 +37512,7 @@
         <v>45118</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37569,7 +37569,7 @@
         <v>45118</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37626,7 +37626,7 @@
         <v>45118</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37683,7 +37683,7 @@
         <v>45118</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37740,7 +37740,7 @@
         <v>45119</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37797,7 +37797,7 @@
         <v>45119</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37854,7 +37854,7 @@
         <v>45139</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37911,7 +37911,7 @@
         <v>45147</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37968,7 +37968,7 @@
         <v>45147</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38025,7 +38025,7 @@
         <v>45193</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38082,7 +38082,7 @@
         <v>45194</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38139,7 +38139,7 @@
         <v>45194</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38196,7 +38196,7 @@
         <v>45194</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38253,7 +38253,7 @@
         <v>45194</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38310,7 +38310,7 @@
         <v>45194</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38367,7 +38367,7 @@
         <v>45196</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38424,7 +38424,7 @@
         <v>45196</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38481,7 +38481,7 @@
         <v>45197</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>

--- a/Översikt RONNEBY.xlsx
+++ b/Översikt RONNEBY.xlsx
@@ -572,7 +572,7 @@
         <v>43781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43653</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44925</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>45093</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>43406</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43502</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>43514</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>43529</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1274,7 +1274,7 @@
         <v>43608</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>43640</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>43817</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>44284</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1619,7 +1619,7 @@
         <v>44298</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>44305</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>44344</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>44425</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44952</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>44985</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>44998</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>45012</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>45120</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>45145</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>45152</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43319</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>43326</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>43333</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>43341</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43343</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43347</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>43350</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>43353</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>43354</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>43354</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>43357</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>43361</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         <v>43368</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>43369</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>43370</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         <v>43371</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         <v>43383</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>43390</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         <v>43390</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>43395</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>43395</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43397</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43397</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>43397</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3960,7 +3960,7 @@
         <v>43397</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>43397</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>43398</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43399</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>43401</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4260,7 +4260,7 @@
         <v>43402</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
         <v>43409</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>43409</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>43412</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>43412</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>43413</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43419</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>43419</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>43419</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43422</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43424</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43424</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43427</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43431</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43432</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43437</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43437</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43439</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43451</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43451</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43451</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43451</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43451</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5740,7 +5740,7 @@
         <v>43451</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>43451</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>43451</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43452</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43455</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>43471</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43473</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>43473</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>43475</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43482</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43485</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43488</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>43491</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>43491</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43491</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43501</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43501</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43503</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43507</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43508</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43508</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>43511</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43514</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43514</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43515</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>43518</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>43521</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43521</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43522</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>43529</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>43529</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43531</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43532</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43534</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>43534</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>43537</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43537</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43538</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43544</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43548</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43552</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43554</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43558</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43558</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43563</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43563</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43564</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>43565</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43570</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8635,7 +8635,7 @@
         <v>43570</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>43570</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43570</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8811,7 +8811,7 @@
         <v>43572</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8868,7 +8868,7 @@
         <v>43572</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43572</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>43572</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>43573</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>43573</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>43573</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>43573</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>43573</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>43573</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43573</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43573</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>43580</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>43580</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43581</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>43581</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>43600</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43600</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43600</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>43601</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>43601</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43605</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43614</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>43619</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>43619</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>43619</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>43619</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>43619</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>43619</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>43619</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>43621</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>43627</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43627</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43629</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>43629</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         <v>43629</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10923,7 +10923,7 @@
         <v>43630</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10980,7 +10980,7 @@
         <v>43640</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11037,7 +11037,7 @@
         <v>43647</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11094,7 +11094,7 @@
         <v>43647</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>43647</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>43647</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43648</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>43648</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>43648</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>43650</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>43655</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>43662</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>43662</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>43669</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>43670</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>43670</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>43677</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>43677</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>43678</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>43678</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>43681</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12120,7 +12120,7 @@
         <v>43682</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>43682</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12234,7 +12234,7 @@
         <v>43684</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>43685</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>43685</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>43685</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>43685</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>43689</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12581,7 +12581,7 @@
         <v>43690</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12638,7 +12638,7 @@
         <v>43692</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>43692</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>43692</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>43692</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>43696</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>43697</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>43698</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>43699</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>43705</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>43705</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>43706</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13342,7 +13342,7 @@
         <v>43707</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13399,7 +13399,7 @@
         <v>43707</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13456,7 +13456,7 @@
         <v>43710</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13513,7 +13513,7 @@
         <v>43710</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13570,7 +13570,7 @@
         <v>43711</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         <v>43711</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         <v>43711</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>43712</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>43712</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>43717</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>43718</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>43720</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>43725</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>43725</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>43725</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>43725</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>43726</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>43726</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>43727</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>43727</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>43730</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>43733</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>43741</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>43741</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>43742</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>43745</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14824,7 +14824,7 @@
         <v>43746</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14881,7 +14881,7 @@
         <v>43746</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14938,7 +14938,7 @@
         <v>43748</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         <v>43749</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15052,7 +15052,7 @@
         <v>43749</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15109,7 +15109,7 @@
         <v>43752</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15166,7 +15166,7 @@
         <v>43754</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15223,7 +15223,7 @@
         <v>43755</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15280,7 +15280,7 @@
         <v>43755</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
         <v>43761</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15394,7 +15394,7 @@
         <v>43761</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>43763</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>43766</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>43766</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>43767</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>43767</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>43768</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>43770</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>43781</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>43781</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>43781</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16031,7 +16031,7 @@
         <v>43783</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>43783</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>43787</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>43790</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>43803</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>43803</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>43804</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>43808</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>43811</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>43811</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>43817</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>43817</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>43817</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16772,7 +16772,7 @@
         <v>43818</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>43822</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>43822</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>43833</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         <v>43837</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>43837</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>43838</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17171,7 +17171,7 @@
         <v>43847</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         <v>43850</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17285,7 +17285,7 @@
         <v>43852</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17342,7 +17342,7 @@
         <v>43852</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17399,7 +17399,7 @@
         <v>43853</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17456,7 +17456,7 @@
         <v>43853</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
         <v>43854</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17570,7 +17570,7 @@
         <v>43854</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17627,7 +17627,7 @@
         <v>43858</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17684,7 +17684,7 @@
         <v>43860</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17741,7 +17741,7 @@
         <v>43874</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>43878</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>43878</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17917,7 +17917,7 @@
         <v>43880</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17979,7 +17979,7 @@
         <v>43881</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>43889</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>43895</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>43903</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>43906</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18269,7 +18269,7 @@
         <v>43909</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>43914</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18383,7 +18383,7 @@
         <v>43914</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18440,7 +18440,7 @@
         <v>43915</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18497,7 +18497,7 @@
         <v>43929</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18554,7 +18554,7 @@
         <v>43938</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18611,7 +18611,7 @@
         <v>43950</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>43963</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18725,7 +18725,7 @@
         <v>43969</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>43979</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>43984</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>43992</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>43992</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>43992</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>44004</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>44005</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>44005</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>44007</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>44019</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>44025</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>44025</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>44027</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>44027</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>44027</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>44027</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>44027</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>44029</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44032</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>44032</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>44032</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19979,7 +19979,7 @@
         <v>44035</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20041,7 +20041,7 @@
         <v>44047</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20098,7 +20098,7 @@
         <v>44050</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         <v>44055</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44055</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44060</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44061</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44063</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44068</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>44070</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20564,7 +20564,7 @@
         <v>44070</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         <v>44070</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
         <v>44070</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20750,7 +20750,7 @@
         <v>44074</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20807,7 +20807,7 @@
         <v>44075</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20864,7 +20864,7 @@
         <v>44076</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20921,7 +20921,7 @@
         <v>44077</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20978,7 +20978,7 @@
         <v>44077</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21035,7 +21035,7 @@
         <v>44078</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21092,7 +21092,7 @@
         <v>44084</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21149,7 +21149,7 @@
         <v>44088</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21206,7 +21206,7 @@
         <v>44088</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21263,7 +21263,7 @@
         <v>44089</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21320,7 +21320,7 @@
         <v>44095</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21377,7 +21377,7 @@
         <v>44096</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21434,7 +21434,7 @@
         <v>44102</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21491,7 +21491,7 @@
         <v>44102</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21548,7 +21548,7 @@
         <v>44103</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>44104</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21662,7 +21662,7 @@
         <v>44104</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>44104</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21776,7 +21776,7 @@
         <v>44104</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>44104</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>44106</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         <v>44106</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22009,7 +22009,7 @@
         <v>44106</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         <v>44113</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         <v>44117</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>44119</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>44119</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>44120</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>44124</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44127</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>44127</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22522,7 +22522,7 @@
         <v>44127</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22579,7 +22579,7 @@
         <v>44131</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>44137</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22693,7 +22693,7 @@
         <v>44138</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22750,7 +22750,7 @@
         <v>44138</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22807,7 +22807,7 @@
         <v>44139</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22864,7 +22864,7 @@
         <v>44139</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22921,7 +22921,7 @@
         <v>44147</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22978,7 +22978,7 @@
         <v>44147</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23035,7 +23035,7 @@
         <v>44152</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23092,7 +23092,7 @@
         <v>44154</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23149,7 +23149,7 @@
         <v>44158</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23206,7 +23206,7 @@
         <v>44159</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23263,7 +23263,7 @@
         <v>44159</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23320,7 +23320,7 @@
         <v>44181</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>44187</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
         <v>44203</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>44203</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>44206</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23605,7 +23605,7 @@
         <v>44207</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>44209</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44215</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23781,7 +23781,7 @@
         <v>44216</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23843,7 +23843,7 @@
         <v>44218</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23900,7 +23900,7 @@
         <v>44218</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23957,7 +23957,7 @@
         <v>44222</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24014,7 +24014,7 @@
         <v>44236</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24071,7 +24071,7 @@
         <v>44238</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24128,7 +24128,7 @@
         <v>44238</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24185,7 +24185,7 @@
         <v>44239</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24242,7 +24242,7 @@
         <v>44245</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>44246</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24356,7 +24356,7 @@
         <v>44249</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44253</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>44257</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24527,7 +24527,7 @@
         <v>44257</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44258</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24641,7 +24641,7 @@
         <v>44258</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>44259</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>44271</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>44271</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24869,7 +24869,7 @@
         <v>44278</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24926,7 +24926,7 @@
         <v>44279</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>44300</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>44300</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>44307</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>44307</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>44307</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25268,7 +25268,7 @@
         <v>44307</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25325,7 +25325,7 @@
         <v>44307</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25382,7 +25382,7 @@
         <v>44311</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25439,7 +25439,7 @@
         <v>44312</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25496,7 +25496,7 @@
         <v>44316</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25553,7 +25553,7 @@
         <v>44319</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25610,7 +25610,7 @@
         <v>44326</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25667,7 +25667,7 @@
         <v>44326</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25724,7 +25724,7 @@
         <v>44340</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25781,7 +25781,7 @@
         <v>44341</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25838,7 +25838,7 @@
         <v>44343</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44361</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>44370</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26014,7 +26014,7 @@
         <v>44370</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26071,7 +26071,7 @@
         <v>44371</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26128,7 +26128,7 @@
         <v>44374</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26185,7 +26185,7 @@
         <v>44375</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26242,7 +26242,7 @@
         <v>44375</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>44378</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26356,7 +26356,7 @@
         <v>44385</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26413,7 +26413,7 @@
         <v>44419</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26475,7 +26475,7 @@
         <v>44420</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26537,7 +26537,7 @@
         <v>44421</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26594,7 +26594,7 @@
         <v>44424</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26651,7 +26651,7 @@
         <v>44425</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26708,7 +26708,7 @@
         <v>44432</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26765,7 +26765,7 @@
         <v>44432</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26822,7 +26822,7 @@
         <v>44439</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26879,7 +26879,7 @@
         <v>44451</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26936,7 +26936,7 @@
         <v>44456</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26993,7 +26993,7 @@
         <v>44465</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>44466</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27107,7 +27107,7 @@
         <v>44468</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27164,7 +27164,7 @@
         <v>44474</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44474</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>44489</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>44490</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>44490</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27449,7 +27449,7 @@
         <v>44493</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         <v>44494</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27563,7 +27563,7 @@
         <v>44501</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>44503</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>44504</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27734,7 +27734,7 @@
         <v>44504</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>44529</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>44539</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>44546</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>44553</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>44565</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>44571</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>44573</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>44579</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28247,7 +28247,7 @@
         <v>44581</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28304,7 +28304,7 @@
         <v>44589</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28361,7 +28361,7 @@
         <v>44595</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28418,7 +28418,7 @@
         <v>44596</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28475,7 +28475,7 @@
         <v>44601</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28532,7 +28532,7 @@
         <v>44606</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28589,7 +28589,7 @@
         <v>44609</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28646,7 +28646,7 @@
         <v>44617</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28703,7 +28703,7 @@
         <v>44617</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28765,7 +28765,7 @@
         <v>44627</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28822,7 +28822,7 @@
         <v>44627</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28879,7 +28879,7 @@
         <v>44630</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>44636</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28993,7 +28993,7 @@
         <v>44637</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>44638</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>44645</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29164,7 +29164,7 @@
         <v>44649</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29221,7 +29221,7 @@
         <v>44651</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29278,7 +29278,7 @@
         <v>44655</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>44655</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29402,7 +29402,7 @@
         <v>44656</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29459,7 +29459,7 @@
         <v>44676</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29516,7 +29516,7 @@
         <v>44694</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29573,7 +29573,7 @@
         <v>44694</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29630,7 +29630,7 @@
         <v>44704</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29687,7 +29687,7 @@
         <v>44713</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29744,7 +29744,7 @@
         <v>44721</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29801,7 +29801,7 @@
         <v>44722</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29858,7 +29858,7 @@
         <v>44729</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29915,7 +29915,7 @@
         <v>44739</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29972,7 +29972,7 @@
         <v>44750</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30034,7 +30034,7 @@
         <v>44753</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30091,7 +30091,7 @@
         <v>44756</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>44756</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30205,7 +30205,7 @@
         <v>44756</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>44762</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30324,7 +30324,7 @@
         <v>44762</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         <v>44762</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30448,7 +30448,7 @@
         <v>44774</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30505,7 +30505,7 @@
         <v>44775</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30562,7 +30562,7 @@
         <v>44775</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         <v>44798</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30681,7 +30681,7 @@
         <v>44806</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30738,7 +30738,7 @@
         <v>44806</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30795,7 +30795,7 @@
         <v>44809</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30852,7 +30852,7 @@
         <v>44817</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30909,7 +30909,7 @@
         <v>44827</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30966,7 +30966,7 @@
         <v>44834</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31023,7 +31023,7 @@
         <v>44848</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>44848</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>44854</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31194,7 +31194,7 @@
         <v>44860</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31251,7 +31251,7 @@
         <v>44862</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31308,7 +31308,7 @@
         <v>44865</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31365,7 +31365,7 @@
         <v>44872</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31422,7 +31422,7 @@
         <v>44872</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31479,7 +31479,7 @@
         <v>44890</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31536,7 +31536,7 @@
         <v>44890</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31593,7 +31593,7 @@
         <v>44893</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31650,7 +31650,7 @@
         <v>44902</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31707,7 +31707,7 @@
         <v>44903</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31764,7 +31764,7 @@
         <v>44903</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31821,7 +31821,7 @@
         <v>44916</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31878,7 +31878,7 @@
         <v>44925</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31935,7 +31935,7 @@
         <v>44937</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31992,7 +31992,7 @@
         <v>44939</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32049,7 +32049,7 @@
         <v>44944</v>
       </c>
       <c r="C536" s="1" t="n">
-        